--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>code_projet</t>
   </si>
@@ -47,6 +47,9 @@
     <t>livraison_YYYY-MM-DD</t>
   </si>
   <si>
+    <t>etat</t>
+  </si>
+  <si>
     <t>collab</t>
   </si>
   <si>
@@ -98,13 +101,16 @@
     <t>France</t>
   </si>
   <si>
+    <t>DCE,  Livraison Janvier 2021</t>
+  </si>
+  <si>
     <t>Béton sablé</t>
   </si>
   <si>
     <t>Maison privée</t>
   </si>
   <si>
-    <t>COMPLETE + MOBILIER</t>
+    <t>Complète + mobilier</t>
   </si>
   <si>
     <t>VD232-betonsable-CAROTTE.jpg</t>
@@ -116,7 +122,7 @@
     <t>MAISONS PRIVÉES-4</t>
   </si>
   <si>
-    <t>2018-2</t>
+    <t>2019-2</t>
   </si>
   <si>
     <t>SABLE-3</t>
@@ -131,6 +137,9 @@
     <t>Orléans</t>
   </si>
   <si>
+    <t>Chantier,  Livraison Janvier 2020</t>
+  </si>
+  <si>
     <t>VB11-betonSABLE-CARROTTE PROJET.jpg</t>
   </si>
   <si>
@@ -140,7 +149,7 @@
     <t>MAISONS PRIVÉES-3</t>
   </si>
   <si>
-    <t>2018-1</t>
+    <t>2019-1</t>
   </si>
   <si>
     <t>SABLE-2</t>
@@ -161,6 +170,9 @@
     <t>92</t>
   </si>
   <si>
+    <t>Livré, Nov 2018</t>
+  </si>
+  <si>
     <t>Bouleau</t>
   </si>
   <si>
@@ -176,7 +188,7 @@
     <t>APPARTEMENTS-2</t>
   </si>
   <si>
-    <t>2018-5</t>
+    <t>2019-5</t>
   </si>
   <si>
     <t>BOIS-2</t>
@@ -197,6 +209,9 @@
     <t>75</t>
   </si>
   <si>
+    <t>Livré, Janv 2019</t>
+  </si>
+  <si>
     <t>Maud Saget Architecte</t>
   </si>
   <si>
@@ -206,16 +221,16 @@
     <t>Restaurant</t>
   </si>
   <si>
-    <t>COMPLETE</t>
-  </si>
-  <si>
-    <t>POP-RP24-BETON-CIRE-CAROTTE.jpg</t>
+    <t>Complète</t>
+  </si>
+  <si>
+    <t>POP-RP24-BETON-CIRE-PROJET-660px.jpg</t>
   </si>
   <si>
     <t>RESTAURANTS-1</t>
   </si>
   <si>
-    <t>2018-4</t>
+    <t>2019-4</t>
   </si>
   <si>
     <t>BETON-2</t>
@@ -227,6 +242,9 @@
     <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
   </si>
   <si>
+    <t>Livré, Juillet 2019</t>
+  </si>
+  <si>
     <t>Acier</t>
   </si>
   <si>
@@ -242,7 +260,7 @@
     <t>BUREAUX-2</t>
   </si>
   <si>
-    <t>2018-3</t>
+    <t>2019-3</t>
   </si>
   <si>
     <t>METAL-1</t>
@@ -263,6 +281,9 @@
     <t>56</t>
   </si>
   <si>
+    <t>DCE, Livraison Sept 2019</t>
+  </si>
+  <si>
     <t>Granit</t>
   </si>
   <si>
@@ -278,7 +299,7 @@
     <t>HOTELS-1</t>
   </si>
   <si>
-    <t>2018-6</t>
+    <t>2019-6</t>
   </si>
   <si>
     <t>PIERRE-3</t>
@@ -297,6 +318,9 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>Livré, Avril 2018</t>
   </si>
   <si>
     <r>
@@ -324,7 +348,7 @@
     <t>PAYSAGES-2</t>
   </si>
   <si>
-    <t>2017-2</t>
+    <t>2018-2</t>
   </si>
   <si>
     <t>PIERRE-1</t>
@@ -339,6 +363,9 @@
     <t>Chateauneuf-sur-Loiret</t>
   </si>
   <si>
+    <t>Chantier,  Livraison Aout 2020</t>
+  </si>
+  <si>
     <t>Red cedar</t>
   </si>
   <si>
@@ -354,7 +381,7 @@
     <t>BUREAUX-1</t>
   </si>
   <si>
-    <t>2017-4</t>
+    <t>2018-4</t>
   </si>
   <si>
     <t>BOIS-1</t>
@@ -369,6 +396,9 @@
     <t>Quelque part en Sologne</t>
   </si>
   <si>
+    <t>Esquisse</t>
+  </si>
+  <si>
     <t>Brique artisanale</t>
   </si>
   <si>
@@ -378,7 +408,7 @@
     <t>MAISONS PRIVÉES-1</t>
   </si>
   <si>
-    <t>2017-3</t>
+    <t>2018-3</t>
   </si>
   <si>
     <t>TERRE-1</t>
@@ -393,85 +423,91 @@
     <t>Enduit balayé</t>
   </si>
   <si>
+    <t>Conception</t>
+  </si>
+  <si>
     <t>VH16-ENDUITBROSSE-CAROTTE.jpg</t>
   </si>
   <si>
     <t>MAISONS PRIVÉES-2</t>
   </si>
   <si>
+    <t>2018-1</t>
+  </si>
+  <si>
+    <t>SABLE-1</t>
+  </si>
+  <si>
+    <t>AD38</t>
+  </si>
+  <si>
+    <t>REHABILITATION D’UN APPARTEMENT</t>
+  </si>
+  <si>
+    <t>Meudon</t>
+  </si>
+  <si>
+    <t>Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>Livré, Dec 2017</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>AD38-PIERRECALCAIRE-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>AD38-PIERRECALCAIRE-BASEDEDONNEES-200px.jpg</t>
+  </si>
+  <si>
+    <t>APPARTEMENTS-1</t>
+  </si>
+  <si>
+    <t>2018-5</t>
+  </si>
+  <si>
+    <t>PIERRE-2</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Horizon passager</t>
+  </si>
+  <si>
+    <t>CREATION D'UN SANCTUAIRE DES MAREE ET DE L'HORIZON</t>
+  </si>
+  <si>
+    <t>Pleubian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Côtes d'Armor</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Béton brut</t>
+  </si>
+  <si>
+    <t>Paysage</t>
+  </si>
+  <si>
+    <t>00HP-BETON-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>00HP-BETON-BASEDEDONNEES.jpg</t>
+  </si>
+  <si>
+    <t>PAYSAGES-1</t>
+  </si>
+  <si>
     <t>2017-1</t>
-  </si>
-  <si>
-    <t>SABLE-1</t>
-  </si>
-  <si>
-    <t>AD38</t>
-  </si>
-  <si>
-    <t>REHABILITATION D’UN APPARTEMENT</t>
-  </si>
-  <si>
-    <t>Meudon</t>
-  </si>
-  <si>
-    <t>Hauts-de-Seine</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>AD38-PIERRECALCAIRE-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>AD38-PIERRECALCAIRE-BASEDEDONNEES-200px.jpg</t>
-  </si>
-  <si>
-    <t>APPARTEMENTS-1</t>
-  </si>
-  <si>
-    <t>2017-5</t>
-  </si>
-  <si>
-    <t>PIERRE-2</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Horizon passager</t>
-  </si>
-  <si>
-    <t>CREATION D'UN SANCTUAIRE DES MAREE ET DE L'HORIZON</t>
-  </si>
-  <si>
-    <t>Pleubian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Côtes d'Armor</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10000m2</t>
-  </si>
-  <si>
-    <t>Béton brut</t>
-  </si>
-  <si>
-    <t>Paysage</t>
-  </si>
-  <si>
-    <t>00HP-BETON-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>00HP-BETON-BASEDEDONNEES.jpg</t>
-  </si>
-  <si>
-    <t>PAYSAGES-1</t>
-  </si>
-  <si>
-    <t>2016-1</t>
   </si>
   <si>
     <t>BETON-1</t>
@@ -1681,14 +1717,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="22" width="16.3516" style="1" customWidth="1"/>
-    <col min="23" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="23" width="16.3516" style="1" customWidth="1"/>
+    <col min="24" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -1758,28 +1796,31 @@
       <c r="V1" t="s" s="3">
         <v>21</v>
       </c>
+      <c r="W1" t="s" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5">
         <v>200</v>
@@ -1793,59 +1834,62 @@
       <c r="K2" s="7">
         <v>42369</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" t="s" s="4">
-        <v>28</v>
-      </c>
+      <c r="L2" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="N2" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5">
         <v>190</v>
       </c>
-      <c r="Q2" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="R2" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="S2" s="5">
         <v>60</v>
       </c>
-      <c r="S2" t="s" s="4">
-        <v>32</v>
-      </c>
       <c r="T2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W2" t="s" s="4">
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5">
         <v>50</v>
@@ -1859,59 +1903,62 @@
       <c r="K3" s="7">
         <v>42247</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" t="s" s="4">
-        <v>28</v>
-      </c>
+      <c r="L3" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="M3" s="8"/>
       <c r="N3" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>115</v>
+      </c>
+      <c r="R3" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="S3" s="5">
         <v>30</v>
       </c>
-      <c r="P3" s="5">
-        <v>115</v>
-      </c>
-      <c r="Q3" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="R3" s="5">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s" s="4">
-        <v>40</v>
-      </c>
       <c r="T3" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="W3" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="35.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5">
         <v>90</v>
@@ -1925,59 +1972,62 @@
       <c r="K4" s="7">
         <v>41943</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" t="s" s="4">
-        <v>49</v>
-      </c>
+      <c r="L4" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="M4" s="8"/>
       <c r="N4" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="P4" s="5">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5">
         <v>75</v>
       </c>
-      <c r="Q4" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="R4" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="S4" s="5">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="4">
-        <v>52</v>
-      </c>
       <c r="T4" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="W4" t="s" s="4">
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="35.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5">
         <v>150</v>
@@ -1992,60 +2042,63 @@
         <v>41973</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="P5" s="5">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="5">
         <v>110</v>
       </c>
-      <c r="Q5" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="R5" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="S5" s="5">
         <v>30</v>
       </c>
-      <c r="S5" t="s" s="4">
-        <v>65</v>
-      </c>
       <c r="T5" t="s" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="W5" t="s" s="4">
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="57.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>650</v>
@@ -2059,59 +2112,62 @@
       <c r="K6" s="7">
         <v>41973</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" t="s" s="4">
-        <v>71</v>
-      </c>
+      <c r="L6" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="M6" s="8"/>
       <c r="N6" t="s" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5">
         <v>175</v>
       </c>
-      <c r="Q6" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="R6" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="S6" s="5">
         <v>60</v>
       </c>
-      <c r="S6" t="s" s="4">
-        <v>74</v>
-      </c>
       <c r="T6" t="s" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="W6" t="s" s="4">
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="35.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5">
         <v>1020</v>
@@ -2125,59 +2181,62 @@
       <c r="K7" s="7">
         <v>42247</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" t="s" s="4">
-        <v>83</v>
-      </c>
+      <c r="L7" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="M7" s="8"/>
       <c r="N7" t="s" s="4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="P7" s="5">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="5">
         <v>210</v>
       </c>
-      <c r="Q7" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="R7" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="S7" s="5">
         <v>115</v>
       </c>
-      <c r="S7" t="s" s="4">
-        <v>86</v>
-      </c>
       <c r="T7" t="s" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="V7" t="s" s="4">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="W7" t="s" s="4">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5">
         <v>170</v>
@@ -2191,59 +2250,62 @@
       <c r="K8" s="7">
         <v>41820</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" t="s" s="4">
-        <v>95</v>
-      </c>
+      <c r="L8" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="M8" s="8"/>
       <c r="N8" t="s" s="4">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="P8" s="5">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="5">
         <v>70</v>
       </c>
-      <c r="Q8" t="s" s="4">
-        <v>98</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="R8" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="S8" s="5">
         <v>30</v>
       </c>
-      <c r="S8" t="s" s="4">
-        <v>99</v>
-      </c>
       <c r="T8" t="s" s="4">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="W8" t="s" s="4">
+        <v>110</v>
       </c>
     </row>
     <row r="9" ht="57.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5">
         <v>720</v>
@@ -2257,59 +2319,62 @@
       <c r="K9" s="7">
         <v>41973</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" t="s" s="4">
-        <v>106</v>
-      </c>
+      <c r="L9" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="M9" s="8"/>
       <c r="N9" t="s" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="P9" s="5">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="5">
         <v>140</v>
       </c>
-      <c r="Q9" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="R9" t="s" s="4">
+        <v>117</v>
+      </c>
+      <c r="S9" s="5">
         <v>115</v>
       </c>
-      <c r="S9" t="s" s="4">
-        <v>109</v>
-      </c>
       <c r="T9" t="s" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="W9" t="s" s="4">
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="35.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5">
         <v>110</v>
@@ -2321,59 +2386,62 @@
         <v>4</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" t="s" s="4">
-        <v>116</v>
-      </c>
+      <c r="L10" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="M10" s="8"/>
       <c r="N10" t="s" s="4">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="P10" s="5">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="5">
         <v>55</v>
       </c>
-      <c r="Q10" t="s" s="4">
-        <v>117</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="R10" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="S10" s="5">
         <v>40</v>
       </c>
-      <c r="S10" t="s" s="4">
-        <v>117</v>
-      </c>
       <c r="T10" t="s" s="4">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="W10" t="s" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="35.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5">
         <v>320</v>
@@ -2388,58 +2456,59 @@
         <v>41729</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" t="s" s="4">
-        <v>123</v>
-      </c>
+      <c r="M11" s="8"/>
       <c r="N11" t="s" s="4">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="P11" s="5">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="5">
         <v>60</v>
       </c>
-      <c r="Q11" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="R11" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="S11" s="5">
         <v>45</v>
       </c>
-      <c r="S11" t="s" s="4">
-        <v>124</v>
-      </c>
       <c r="T11" t="s" s="4">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="W11" t="s" s="4">
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="46.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5">
         <v>110</v>
@@ -2453,62 +2522,65 @@
       <c r="K12" s="7">
         <v>41274</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" t="s" s="4">
-        <v>132</v>
-      </c>
+      <c r="L12" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="M12" s="8"/>
       <c r="N12" t="s" s="4">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="P12" s="5">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="5">
         <v>130</v>
       </c>
-      <c r="Q12" t="s" s="4">
-        <v>133</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="R12" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="S12" s="5">
         <v>60</v>
       </c>
-      <c r="S12" t="s" s="4">
-        <v>134</v>
-      </c>
       <c r="T12" t="s" s="4">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>137</v>
+        <v>148</v>
+      </c>
+      <c r="W12" t="s" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="5">
@@ -2516,35 +2588,36 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
-      <c r="M13" t="s" s="4">
-        <v>145</v>
-      </c>
+      <c r="M13" s="8"/>
       <c r="N13" t="s" s="4">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="P13" s="5">
+        <v>158</v>
+      </c>
+      <c r="P13" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="5">
         <v>80</v>
       </c>
-      <c r="Q13" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="R13" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="S13" s="5">
         <v>105</v>
       </c>
-      <c r="S13" t="s" s="4">
-        <v>148</v>
-      </c>
       <c r="T13" t="s" s="4">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="U13" t="s" s="4">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="V13" t="s" s="4">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="W13" t="s" s="4">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>code_projet</t>
   </si>
@@ -170,7 +170,7 @@
     <t>92</t>
   </si>
   <si>
-    <t>Livré, Nov 2018</t>
+    <t>Livré, Janv 2019</t>
   </si>
   <si>
     <t>Bouleau</t>
@@ -209,9 +209,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>Livré, Janv 2019</t>
-  </si>
-  <si>
     <t>Maud Saget Architecte</t>
   </si>
   <si>
@@ -281,7 +278,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>DCE, Livraison Sept 2019</t>
+    <t>DCE, Livraison 2021</t>
   </si>
   <si>
     <t>Granit</t>
@@ -456,10 +453,7 @@
     <t>Pierre</t>
   </si>
   <si>
-    <t>AD38-PIERRECALCAIRE-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>AD38-PIERRECALCAIRE-BASEDEDONNEES-200px.jpg</t>
+    <t>AD38-PIERRE-CAROTTE.jpg</t>
   </si>
   <si>
     <t>APPARTEMENTS-1</t>
@@ -1719,9 +1713,7 @@
   </sheetPr>
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -2042,51 +2034,51 @@
         <v>41973</v>
       </c>
       <c r="L5" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="M5" t="s" s="4">
+      <c r="N5" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="N5" t="s" s="4">
+      <c r="O5" t="s" s="4">
         <v>67</v>
       </c>
-      <c r="O5" t="s" s="4">
+      <c r="P5" t="s" s="4">
         <v>68</v>
-      </c>
-      <c r="P5" t="s" s="4">
-        <v>69</v>
       </c>
       <c r="Q5" s="5">
         <v>110</v>
       </c>
       <c r="R5" t="s" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" s="5">
         <v>30</v>
       </c>
       <c r="T5" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="U5" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="U5" t="s" s="4">
+      <c r="V5" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="V5" t="s" s="4">
+      <c r="W5" t="s" s="4">
         <v>72</v>
-      </c>
-      <c r="W5" t="s" s="4">
-        <v>73</v>
       </c>
     </row>
     <row r="6" ht="57.65" customHeight="1">
       <c r="A6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s" s="4">
         <v>74</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>75</v>
       </c>
       <c r="D6" t="s" s="4">
         <v>40</v>
@@ -2113,14 +2105,14 @@
         <v>41973</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s" s="4">
         <v>77</v>
-      </c>
-      <c r="O6" t="s" s="4">
-        <v>78</v>
       </c>
       <c r="P6" t="s" s="4">
         <v>32</v>
@@ -2129,42 +2121,42 @@
         <v>175</v>
       </c>
       <c r="R6" t="s" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S6" s="5">
         <v>60</v>
       </c>
       <c r="T6" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="U6" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="U6" t="s" s="4">
+      <c r="V6" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="V6" t="s" s="4">
+      <c r="W6" t="s" s="4">
         <v>82</v>
-      </c>
-      <c r="W6" t="s" s="4">
-        <v>83</v>
       </c>
     </row>
     <row r="7" ht="35.65" customHeight="1">
       <c r="A7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s" s="4">
         <v>84</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s" s="4">
+      <c r="D7" t="s" s="4">
         <v>85</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="E7" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="E7" t="s" s="4">
+      <c r="F7" t="s" s="4">
         <v>87</v>
-      </c>
-      <c r="F7" t="s" s="4">
-        <v>88</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>28</v>
@@ -2182,14 +2174,14 @@
         <v>42247</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s" s="4">
         <v>90</v>
-      </c>
-      <c r="O7" t="s" s="4">
-        <v>91</v>
       </c>
       <c r="P7" t="s" s="4">
         <v>32</v>
@@ -2198,42 +2190,42 @@
         <v>210</v>
       </c>
       <c r="R7" t="s" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S7" s="5">
         <v>115</v>
       </c>
       <c r="T7" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="U7" t="s" s="4">
         <v>93</v>
       </c>
-      <c r="U7" t="s" s="4">
+      <c r="V7" t="s" s="4">
         <v>94</v>
       </c>
-      <c r="V7" t="s" s="4">
+      <c r="W7" t="s" s="4">
         <v>95</v>
-      </c>
-      <c r="W7" t="s" s="4">
-        <v>96</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s" s="4">
         <v>97</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s" s="4">
+      <c r="D8" t="s" s="4">
         <v>98</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="E8" t="s" s="4">
         <v>99</v>
       </c>
-      <c r="E8" t="s" s="4">
+      <c r="F8" t="s" s="4">
         <v>100</v>
-      </c>
-      <c r="F8" t="s" s="4">
-        <v>101</v>
       </c>
       <c r="G8" t="s" s="4">
         <v>28</v>
@@ -2251,52 +2243,52 @@
         <v>41820</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="O8" t="s" s="4">
+      <c r="P8" t="s" s="4">
         <v>104</v>
-      </c>
-      <c r="P8" t="s" s="4">
-        <v>105</v>
       </c>
       <c r="Q8" s="5">
         <v>70</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S8" s="5">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="U8" t="s" s="4">
+      <c r="V8" t="s" s="4">
         <v>108</v>
       </c>
-      <c r="V8" t="s" s="4">
+      <c r="W8" t="s" s="4">
         <v>109</v>
-      </c>
-      <c r="W8" t="s" s="4">
-        <v>110</v>
       </c>
     </row>
     <row r="9" ht="57.65" customHeight="1">
       <c r="A9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s" s="4">
         <v>111</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s" s="4">
+      <c r="D9" t="s" s="4">
         <v>112</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>113</v>
       </c>
       <c r="E9" t="s" s="4">
         <v>26</v>
@@ -2320,14 +2312,14 @@
         <v>41973</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s" s="4">
         <v>115</v>
-      </c>
-      <c r="O9" t="s" s="4">
-        <v>116</v>
       </c>
       <c r="P9" t="s" s="4">
         <v>32</v>
@@ -2336,36 +2328,36 @@
         <v>140</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S9" s="5">
         <v>115</v>
       </c>
       <c r="T9" t="s" s="4">
+        <v>117</v>
+      </c>
+      <c r="U9" t="s" s="4">
         <v>118</v>
       </c>
-      <c r="U9" t="s" s="4">
+      <c r="V9" t="s" s="4">
         <v>119</v>
       </c>
-      <c r="V9" t="s" s="4">
+      <c r="W9" t="s" s="4">
         <v>120</v>
-      </c>
-      <c r="W9" t="s" s="4">
-        <v>121</v>
       </c>
     </row>
     <row r="10" ht="35.65" customHeight="1">
       <c r="A10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s" s="4">
+      <c r="D10" t="s" s="4">
         <v>123</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>124</v>
       </c>
       <c r="E10" t="s" s="4">
         <v>26</v>
@@ -2387,49 +2379,49 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" t="s" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" t="s" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s" s="4">
         <v>31</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="5">
         <v>55</v>
       </c>
       <c r="R10" t="s" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S10" s="5">
         <v>40</v>
       </c>
       <c r="T10" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="U10" t="s" s="4">
         <v>127</v>
       </c>
-      <c r="U10" t="s" s="4">
+      <c r="V10" t="s" s="4">
         <v>128</v>
       </c>
-      <c r="V10" t="s" s="4">
+      <c r="W10" t="s" s="4">
         <v>129</v>
-      </c>
-      <c r="W10" t="s" s="4">
-        <v>130</v>
       </c>
     </row>
     <row r="11" ht="35.65" customHeight="1">
       <c r="A11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="4">
         <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="4">
-        <v>132</v>
       </c>
       <c r="D11" t="s" s="4">
         <v>40</v>
@@ -2458,51 +2450,51 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" t="s" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s" s="4">
         <v>31</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="5">
         <v>60</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S11" s="5">
         <v>45</v>
       </c>
       <c r="T11" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="U11" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="U11" t="s" s="4">
+      <c r="V11" t="s" s="4">
         <v>136</v>
       </c>
-      <c r="V11" t="s" s="4">
+      <c r="W11" t="s" s="4">
         <v>137</v>
-      </c>
-      <c r="W11" t="s" s="4">
-        <v>138</v>
       </c>
     </row>
     <row r="12" ht="46.65" customHeight="1">
       <c r="A12" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s" s="4">
         <v>139</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C12" t="s" s="4">
+      <c r="D12" t="s" s="4">
         <v>140</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="E12" t="s" s="4">
         <v>141</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>142</v>
       </c>
       <c r="F12" t="s" s="4">
         <v>51</v>
@@ -2514,7 +2506,7 @@
         <v>110</v>
       </c>
       <c r="I12" s="6">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="J12" s="5">
         <v>2</v>
@@ -2523,64 +2515,64 @@
         <v>41274</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" t="s" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s" s="4">
         <v>54</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="5">
         <v>130</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S12" s="5">
         <v>60</v>
       </c>
       <c r="T12" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="U12" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="V12" t="s" s="4">
         <v>146</v>
       </c>
-      <c r="U12" t="s" s="4">
+      <c r="W12" t="s" s="4">
         <v>147</v>
-      </c>
-      <c r="V12" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="W12" t="s" s="4">
-        <v>149</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="4">
         <v>150</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>151</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="E13" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="F13" t="s" s="4">
         <v>153</v>
-      </c>
-      <c r="E13" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="F13" t="s" s="4">
-        <v>155</v>
       </c>
       <c r="G13" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="5">
@@ -2590,34 +2582,34 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" t="s" s="4">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s" s="4">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="5">
         <v>80</v>
       </c>
       <c r="R13" t="s" s="4">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S13" s="5">
         <v>105</v>
       </c>
       <c r="T13" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="U13" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="V13" t="s" s="4">
         <v>160</v>
       </c>
-      <c r="U13" t="s" s="4">
+      <c r="W13" t="s" s="4">
         <v>161</v>
-      </c>
-      <c r="V13" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="W13" t="s" s="4">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>code_projet</t>
   </si>
@@ -101,6 +101,9 @@
     <t>France</t>
   </si>
   <si>
+    <t>350 000</t>
+  </si>
+  <si>
     <t>DCE,  Livraison Janvier 2021</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>Orléans</t>
   </si>
   <si>
+    <t>200 000</t>
+  </si>
+  <si>
     <t>Chantier,  Livraison Janvier 2020</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
     <t>92</t>
   </si>
   <si>
+    <t>110 000</t>
+  </si>
+  <si>
     <t>Livré, Janv 2019</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
     <t>75</t>
   </si>
   <si>
+    <t>100 000</t>
+  </si>
+  <si>
     <t>Maud Saget Architecte</t>
   </si>
   <si>
@@ -239,6 +251,9 @@
     <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
   </si>
   <si>
+    <t>1 800 000</t>
+  </si>
+  <si>
     <t>Livré, Juillet 2019</t>
   </si>
   <si>
@@ -278,6 +293,9 @@
     <t>56</t>
   </si>
   <si>
+    <t>3 500 000</t>
+  </si>
+  <si>
     <t>DCE, Livraison 2021</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>150 000</t>
   </si>
   <si>
     <t>Livré, Avril 2018</t>
@@ -360,6 +381,9 @@
     <t>Chateauneuf-sur-Loiret</t>
   </si>
   <si>
+    <t>1 200 000</t>
+  </si>
+  <si>
     <t>Chantier,  Livraison Aout 2020</t>
   </si>
   <si>
@@ -393,6 +417,9 @@
     <t>Quelque part en Sologne</t>
   </si>
   <si>
+    <t>300 000</t>
+  </si>
+  <si>
     <t>Esquisse</t>
   </si>
   <si>
@@ -445,6 +472,9 @@
   </si>
   <si>
     <t>Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>180 000</t>
   </si>
   <si>
     <t>Livré, Dec 2017</t>
@@ -598,7 +628,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -615,9 +645,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1817,62 +1844,62 @@
       <c r="H2" s="5">
         <v>200</v>
       </c>
-      <c r="I2" s="6">
-        <v>350000</v>
+      <c r="I2" t="s" s="4">
+        <v>29</v>
       </c>
       <c r="J2" s="5">
         <v>12</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>42369</v>
       </c>
       <c r="L2" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="M2" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="N2" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="5">
         <v>190</v>
       </c>
       <c r="R2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="5">
         <v>60</v>
       </c>
       <c r="T2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s" s="4">
         <v>26</v>
@@ -1886,68 +1913,68 @@
       <c r="H3" s="5">
         <v>50</v>
       </c>
-      <c r="I3" s="6">
-        <v>200000</v>
+      <c r="I3" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="J3" s="5">
         <v>11</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>42247</v>
       </c>
       <c r="L3" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="M3" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="M3" s="7"/>
       <c r="N3" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="5">
         <v>115</v>
       </c>
       <c r="R3" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S3" s="5">
         <v>30</v>
       </c>
       <c r="T3" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="35.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>28</v>
@@ -1955,68 +1982,68 @@
       <c r="H4" s="5">
         <v>90</v>
       </c>
-      <c r="I4" s="6">
-        <v>110000</v>
+      <c r="I4" t="s" s="4">
+        <v>54</v>
       </c>
       <c r="J4" s="5">
         <v>10</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>41943</v>
       </c>
       <c r="L4" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="M4" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="M4" s="7"/>
       <c r="N4" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="5">
         <v>75</v>
       </c>
       <c r="R4" t="s" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S4" s="5">
         <v>20</v>
       </c>
       <c r="T4" t="s" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="35.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s" s="4">
         <v>28</v>
@@ -2024,64 +2051,64 @@
       <c r="H5" s="5">
         <v>150</v>
       </c>
-      <c r="I5" s="6">
-        <v>100000</v>
+      <c r="I5" t="s" s="4">
+        <v>68</v>
       </c>
       <c r="J5" s="5">
         <v>9</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>41973</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="5">
         <v>110</v>
       </c>
       <c r="R5" t="s" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S5" s="5">
         <v>30</v>
       </c>
       <c r="T5" t="s" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="57.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s" s="4">
         <v>26</v>
@@ -2095,68 +2122,68 @@
       <c r="H6" s="5">
         <v>650</v>
       </c>
-      <c r="I6" s="6">
-        <v>1800000</v>
+      <c r="I6" t="s" s="4">
+        <v>79</v>
       </c>
       <c r="J6" s="5">
         <v>8</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>41973</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="M6" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="M6" s="7"/>
       <c r="N6" t="s" s="4">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="5">
         <v>175</v>
       </c>
       <c r="R6" t="s" s="4">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S6" s="5">
         <v>60</v>
       </c>
       <c r="T6" t="s" s="4">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="35.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>28</v>
@@ -2164,68 +2191,68 @@
       <c r="H7" s="5">
         <v>1020</v>
       </c>
-      <c r="I7" s="6">
-        <v>3500000</v>
+      <c r="I7" t="s" s="4">
+        <v>93</v>
       </c>
       <c r="J7" s="5">
         <v>7</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>42247</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>88</v>
-      </c>
-      <c r="M7" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="M7" s="7"/>
       <c r="N7" t="s" s="4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="5">
         <v>210</v>
       </c>
       <c r="R7" t="s" s="4">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="S7" s="5">
         <v>115</v>
       </c>
       <c r="T7" t="s" s="4">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V7" t="s" s="4">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="W7" t="s" s="4">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s" s="4">
         <v>28</v>
@@ -2233,62 +2260,62 @@
       <c r="H8" s="5">
         <v>170</v>
       </c>
-      <c r="I8" s="6">
-        <v>150000</v>
+      <c r="I8" t="s" s="4">
+        <v>107</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>41820</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="M8" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="M8" s="7"/>
       <c r="N8" t="s" s="4">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="5">
         <v>70</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="S8" s="5">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="57.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s" s="4">
         <v>26</v>
@@ -2302,62 +2329,62 @@
       <c r="H9" s="5">
         <v>720</v>
       </c>
-      <c r="I9" s="6">
-        <v>1200000</v>
+      <c r="I9" t="s" s="4">
+        <v>120</v>
       </c>
       <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>41973</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="M9" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="M9" s="7"/>
       <c r="N9" t="s" s="4">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="5">
         <v>140</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S9" s="5">
         <v>115</v>
       </c>
       <c r="T9" t="s" s="4">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="35.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s" s="4">
         <v>26</v>
@@ -2371,60 +2398,60 @@
       <c r="H10" s="5">
         <v>110</v>
       </c>
-      <c r="I10" s="6">
-        <v>300000</v>
+      <c r="I10" t="s" s="4">
+        <v>132</v>
       </c>
       <c r="J10" s="5">
         <v>4</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
       <c r="L10" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="M10" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="M10" s="7"/>
       <c r="N10" t="s" s="4">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="5">
         <v>55</v>
       </c>
       <c r="R10" t="s" s="4">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S10" s="5">
         <v>40</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="35.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s" s="4">
         <v>26</v>
@@ -2438,66 +2465,66 @@
       <c r="H11" s="5">
         <v>320</v>
       </c>
-      <c r="I11" s="6">
-        <v>200000</v>
+      <c r="I11" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="J11" s="5">
         <v>3</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>41729</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" t="s" s="4">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="5">
         <v>60</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="S11" s="5">
         <v>45</v>
       </c>
       <c r="T11" t="s" s="4">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="46.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s" s="4">
         <v>28</v>
@@ -2505,111 +2532,111 @@
       <c r="H12" s="5">
         <v>110</v>
       </c>
-      <c r="I12" s="6">
-        <v>180000</v>
+      <c r="I12" t="s" s="4">
+        <v>151</v>
       </c>
       <c r="J12" s="5">
         <v>2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>41274</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="M12" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="M12" s="7"/>
       <c r="N12" t="s" s="4">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="5">
         <v>130</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S12" s="5">
         <v>60</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="5">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" t="s" s="4">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="4">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="5">
         <v>80</v>
       </c>
       <c r="R13" t="s" s="4">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="S13" s="5">
         <v>105</v>
       </c>
       <c r="T13" t="s" s="4">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="U13" t="s" s="4">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="V13" t="s" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="W13" t="s" s="4">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>code_projet</t>
   </si>
@@ -83,6 +82,198 @@
     <t>matiere_page_bdd</t>
   </si>
   <si>
+    <t>VD09</t>
+  </si>
+  <si>
+    <t>MAISON PRIVÉE EN BORD DE MER</t>
+  </si>
+  <si>
+    <t>Locmariaquer</t>
+  </si>
+  <si>
+    <t>Morbihan</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>400 000</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>Béton ocre</t>
+  </si>
+  <si>
+    <t>Maison privée</t>
+  </si>
+  <si>
+    <t>Complète + mobilier</t>
+  </si>
+  <si>
+    <t>VD09-BETON-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-7</t>
+  </si>
+  <si>
+    <t>2020-5</t>
+  </si>
+  <si>
+    <t>BETON-3</t>
+  </si>
+  <si>
+    <t>AR42</t>
+  </si>
+  <si>
+    <t>REHABILITATION D’UN APPARTEMENT</t>
+  </si>
+  <si>
+    <t>Levallois-Perret</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Île-De-France</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>Livré, Nov 2019</t>
+  </si>
+  <si>
+    <t>Sable</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>AR42-RESINE-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>APPARTEMENTS-3</t>
+  </si>
+  <si>
+    <t>2020-4</t>
+  </si>
+  <si>
+    <t>SABLE-3</t>
+  </si>
+  <si>
+    <t>ER00</t>
+  </si>
+  <si>
+    <t>SANCTUAIRE PAYSAGER</t>
+  </si>
+  <si>
+    <t>Rukomo Nyagatare</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Terre</t>
+  </si>
+  <si>
+    <t>Paysage</t>
+  </si>
+  <si>
+    <t>Concours International</t>
+  </si>
+  <si>
+    <t>ER00-terre-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>PAYSAGES-2</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>TERRE-2</t>
+  </si>
+  <si>
+    <t>VM01</t>
+  </si>
+  <si>
+    <t>EXTENSION D’UNE RESIDENCE PRIVEE</t>
+  </si>
+  <si>
+    <t>Hannogne Saint-Martin</t>
+  </si>
+  <si>
+    <t>Ardennes</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>175 000</t>
+  </si>
+  <si>
+    <t>Chantier,  Livraison Avril 2020</t>
+  </si>
+  <si>
+    <t>Pierre jaune d’Hannogne</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>VM01-PIERRE-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-6</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>PIERRE-5</t>
+  </si>
+  <si>
+    <t>CK04</t>
+  </si>
+  <si>
+    <t>REHABILITATION D’UNE PROPRIETE PRIVEE</t>
+  </si>
+  <si>
+    <t>Rozières-sur-Crise</t>
+  </si>
+  <si>
+    <t>Aisne</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>DET, Livraison Juillet 2020</t>
+  </si>
+  <si>
+    <t>Maud Saget Architecte</t>
+  </si>
+  <si>
+    <t>Pierre d’Aigle</t>
+  </si>
+  <si>
+    <t>CK04-PIERRE-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-5</t>
+  </si>
+  <si>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>PIERRE-4</t>
+  </si>
+  <si>
     <t>VD232</t>
   </si>
   <si>
@@ -98,9 +289,6 @@
     <t>45</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>350 000</t>
   </si>
   <si>
@@ -110,12 +298,6 @@
     <t>Béton sablé</t>
   </si>
   <si>
-    <t>Maison privée</t>
-  </si>
-  <si>
-    <t>Complète + mobilier</t>
-  </si>
-  <si>
     <t>VD232-betonsable-CAROTTE.jpg</t>
   </si>
   <si>
@@ -128,9 +310,6 @@
     <t>2019-2</t>
   </si>
   <si>
-    <t>SABLE-3</t>
-  </si>
-  <si>
     <t>VB11</t>
   </si>
   <si>
@@ -167,9 +346,6 @@
     <t>RÉHABILITATION D'UN APPARTEMENT</t>
   </si>
   <si>
-    <t>Levallois-Perret</t>
-  </si>
-  <si>
     <t>Hauts-De-Seine</t>
   </si>
   <si>
@@ -185,9 +361,6 @@
     <t>Bouleau</t>
   </si>
   <si>
-    <t>Appartement</t>
-  </si>
-  <si>
     <t>AM03-BOULEAU-CAROTTE.jpg</t>
   </si>
   <si>
@@ -212,18 +385,9 @@
     <t>Paris</t>
   </si>
   <si>
-    <t xml:space="preserve"> Île-De-France</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>100 000</t>
   </si>
   <si>
-    <t>Maud Saget Architecte</t>
-  </si>
-  <si>
     <t>Béton ciré</t>
   </si>
   <si>
@@ -282,15 +446,6 @@
   </si>
   <si>
     <t>REHABILITATION ET EXTENSION D’UN HOTEL 4*</t>
-  </si>
-  <si>
-    <t>Locmariaquer</t>
-  </si>
-  <si>
-    <t>Morbihan</t>
-  </si>
-  <si>
-    <t>56</t>
   </si>
   <si>
     <t>3 500 000</t>
@@ -354,18 +509,12 @@
     <t>Piscine Pool House</t>
   </si>
   <si>
-    <t>CONCEPTION</t>
-  </si>
-  <si>
     <t>PM19-tuffeau-CAROTTE.jpg</t>
   </si>
   <si>
     <t>PM19-tuffeau-BASEDEDONNEES.jpg</t>
   </si>
   <si>
-    <t>PAYSAGES-2</t>
-  </si>
-  <si>
     <t>2018-2</t>
   </si>
   <si>
@@ -447,9 +596,6 @@
     <t>Enduit balayé</t>
   </si>
   <si>
-    <t>Conception</t>
-  </si>
-  <si>
     <t>VH16-ENDUITBROSSE-CAROTTE.jpg</t>
   </si>
   <si>
@@ -465,9 +611,6 @@
     <t>AD38</t>
   </si>
   <si>
-    <t>REHABILITATION D’UN APPARTEMENT</t>
-  </si>
-  <si>
     <t>Meudon</t>
   </si>
   <si>
@@ -517,9 +660,6 @@
   </si>
   <si>
     <t>Béton brut</t>
-  </si>
-  <si>
-    <t>Paysage</t>
   </si>
   <si>
     <t>00HP-BETON-CAROTTE.jpg</t>
@@ -1738,7 +1878,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1842,17 +1982,15 @@
         <v>28</v>
       </c>
       <c r="H2" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s" s="4">
         <v>29</v>
       </c>
       <c r="J2" s="5">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6">
-        <v>42369</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" t="s" s="4">
         <v>30</v>
       </c>
@@ -1873,770 +2011,1105 @@
         <v>34</v>
       </c>
       <c r="S2" s="5">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T2" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="U2" t="s" s="4">
+      <c r="V2" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="W2" t="s" s="4">
         <v>37</v>
-      </c>
-      <c r="W2" t="s" s="4">
-        <v>38</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s" s="4">
+      <c r="D3" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="E3" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="E3" t="s" s="4">
-        <v>26</v>
-      </c>
       <c r="F3" t="s" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H3" s="5">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6">
-        <v>42247</v>
+        <v>43983</v>
       </c>
       <c r="L3" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" t="s" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s" s="4">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s" s="4">
         <v>33</v>
       </c>
       <c r="Q3" s="5">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S3" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" ht="35.65" customHeight="1">
+    <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s" s="4">
         <v>53</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s" s="4">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H4" s="5">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s" s="4">
-        <v>54</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="5">
-        <v>10</v>
-      </c>
-      <c r="K4" s="6">
-        <v>41943</v>
-      </c>
-      <c r="L4" t="s" s="4">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="7"/>
       <c r="N4" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s" s="4">
         <v>56</v>
       </c>
-      <c r="O4" t="s" s="4">
+      <c r="P4" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="P4" t="s" s="4">
-        <v>33</v>
-      </c>
       <c r="Q4" s="5">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="R4" t="s" s="4">
         <v>58</v>
       </c>
       <c r="S4" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="U4" t="s" s="4">
+      <c r="V4" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="V4" t="s" s="4">
+      <c r="W4" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="W4" t="s" s="4">
+    </row>
+    <row r="5" ht="46.65" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" ht="35.65" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="B5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s" s="4">
+      <c r="D5" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="E5" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="F5" t="s" s="4">
         <v>66</v>
-      </c>
-      <c r="F5" t="s" s="4">
-        <v>67</v>
       </c>
       <c r="G5" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H5" s="5">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="J5" s="5">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6">
+        <v>43922</v>
+      </c>
+      <c r="L5" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="J5" s="5">
-        <v>9</v>
-      </c>
-      <c r="K5" s="6">
-        <v>41973</v>
-      </c>
-      <c r="L5" t="s" s="4">
+      <c r="M5" s="7"/>
+      <c r="N5" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="5">
         <v>55</v>
       </c>
-      <c r="M5" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s" s="4">
+      <c r="R5" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="P5" t="s" s="4">
+      <c r="S5" s="5">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s" s="4">
         <v>72</v>
       </c>
-      <c r="Q5" s="5">
-        <v>110</v>
-      </c>
-      <c r="R5" t="s" s="4">
+      <c r="V5" t="s" s="4">
         <v>73</v>
       </c>
-      <c r="S5" s="5">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s" s="4">
+      <c r="W5" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="V5" t="s" s="4">
+    </row>
+    <row r="6" ht="46.65" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="W5" t="s" s="4">
+      <c r="B6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" ht="57.65" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="D6" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="E6" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="D6" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>26</v>
-      </c>
       <c r="F6" t="s" s="4">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H6" s="5">
-        <v>650</v>
-      </c>
-      <c r="I6" t="s" s="4">
-        <v>79</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K6" s="6">
-        <v>41973</v>
+        <v>44013</v>
       </c>
       <c r="L6" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" t="s" s="4">
+        <v>81</v>
+      </c>
       <c r="N6" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s" s="4">
         <v>33</v>
       </c>
       <c r="Q6" s="5">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s" s="4">
         <v>83</v>
       </c>
       <c r="S6" s="5">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="T6" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s" s="4">
         <v>84</v>
       </c>
-      <c r="U6" t="s" s="4">
+      <c r="V6" t="s" s="4">
         <v>85</v>
       </c>
-      <c r="V6" t="s" s="4">
+      <c r="W6" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="W6" t="s" s="4">
+    </row>
+    <row r="7" ht="46.65" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" ht="35.65" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="B7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s" s="4">
         <v>88</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s" s="4">
+      <c r="D7" t="s" s="4">
         <v>89</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="E7" t="s" s="4">
         <v>90</v>
       </c>
-      <c r="E7" t="s" s="4">
+      <c r="F7" t="s" s="4">
         <v>91</v>
-      </c>
-      <c r="F7" t="s" s="4">
-        <v>92</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H7" s="5">
-        <v>1020</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="J7" s="5">
+        <v>12</v>
+      </c>
+      <c r="K7" s="6">
+        <v>43831</v>
+      </c>
+      <c r="L7" t="s" s="4">
         <v>93</v>
-      </c>
-      <c r="J7" s="5">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6">
-        <v>42247</v>
-      </c>
-      <c r="L7" t="s" s="4">
-        <v>94</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" t="s" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s" s="4">
         <v>33</v>
       </c>
       <c r="Q7" s="5">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="R7" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="S7" s="5">
+        <v>60</v>
+      </c>
+      <c r="T7" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="U7" t="s" s="4">
         <v>97</v>
       </c>
-      <c r="S7" s="5">
-        <v>115</v>
-      </c>
-      <c r="T7" t="s" s="4">
+      <c r="V7" t="s" s="4">
         <v>98</v>
       </c>
-      <c r="U7" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="V7" t="s" s="4">
-        <v>100</v>
-      </c>
       <c r="W7" t="s" s="4">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H8" s="5">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J8" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K8" s="6">
-        <v>41820</v>
+        <v>43709</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" t="s" s="4">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="5">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="S8" s="5">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="4">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="9" ht="57.65" customHeight="1">
+    <row r="9" ht="35.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H9" s="5">
-        <v>720</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" s="6">
-        <v>41973</v>
+        <v>43405</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" t="s" s="4">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s" s="4">
         <v>33</v>
       </c>
       <c r="Q9" s="5">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="S9" s="5">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="4">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" ht="35.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H10" s="5">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9</v>
+      </c>
+      <c r="K10" s="6">
+        <v>43435</v>
+      </c>
+      <c r="L10" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="5">
         <v>110</v>
       </c>
-      <c r="I10" t="s" s="4">
+      <c r="R10" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="S10" s="5">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="U10" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="V10" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="W10" t="s" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" ht="57.65" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="J10" s="5">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" t="s" s="4">
+      <c r="B11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="4">
         <v>133</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" t="s" s="4">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s" s="4">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>55</v>
-      </c>
-      <c r="R10" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="S10" s="5">
-        <v>40</v>
-      </c>
-      <c r="T10" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="U10" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="V10" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="W10" t="s" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" ht="35.65" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s" s="4">
-        <v>140</v>
-      </c>
       <c r="D11" t="s" s="4">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H11" s="5">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="J11" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K11" s="6">
-        <v>41729</v>
-      </c>
-      <c r="L11" s="7"/>
+        <v>43435</v>
+      </c>
+      <c r="L11" t="s" s="4">
+        <v>135</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="P11" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>175</v>
+      </c>
+      <c r="R11" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="S11" s="5">
+        <v>60</v>
+      </c>
+      <c r="T11" t="s" s="4">
+        <v>139</v>
+      </c>
+      <c r="U11" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="O11" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s" s="4">
+      <c r="W11" t="s" s="4">
         <v>142</v>
       </c>
-      <c r="Q11" s="5">
-        <v>60</v>
-      </c>
-      <c r="R11" t="s" s="4">
+    </row>
+    <row r="12" ht="35.65" customHeight="1">
+      <c r="A12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="S11" s="5">
-        <v>45</v>
-      </c>
-      <c r="T11" t="s" s="4">
+      <c r="B12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="U11" t="s" s="4">
+      <c r="C12" t="s" s="4">
         <v>144</v>
       </c>
-      <c r="V11" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="W11" t="s" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" ht="46.65" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s" s="4">
-        <v>148</v>
-      </c>
       <c r="D12" t="s" s="4">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s" s="4">
         <v>28</v>
       </c>
       <c r="H12" s="5">
-        <v>110</v>
+        <v>1020</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J12" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K12" s="6">
-        <v>41274</v>
+        <v>43709</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="O12" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="P12" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>210</v>
+      </c>
+      <c r="R12" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="S12" s="5">
+        <v>115</v>
+      </c>
+      <c r="T12" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="U12" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="V12" t="s" s="4">
+        <v>152</v>
+      </c>
+      <c r="W12" t="s" s="4">
         <v>153</v>
-      </c>
-      <c r="O12" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="P12" t="s" s="4">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>130</v>
-      </c>
-      <c r="R12" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="S12" s="5">
-        <v>60</v>
-      </c>
-      <c r="T12" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="U12" t="s" s="4">
-        <v>155</v>
-      </c>
-      <c r="V12" t="s" s="4">
-        <v>156</v>
-      </c>
-      <c r="W12" t="s" s="4">
-        <v>157</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s" s="4">
         <v>158</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C13" t="s" s="4">
-        <v>160</v>
-      </c>
-      <c r="D13" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="E13" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="F13" t="s" s="4">
-        <v>163</v>
       </c>
       <c r="G13" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="H13" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="5">
+        <v>170</v>
+      </c>
+      <c r="I13" t="s" s="4">
+        <v>159</v>
+      </c>
       <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
+        <v>43282</v>
+      </c>
+      <c r="L13" t="s" s="4">
+        <v>160</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="O13" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="P13" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="S13" s="5">
+        <v>30</v>
+      </c>
+      <c r="T13" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="U13" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s" s="4">
         <v>165</v>
       </c>
-      <c r="O13" t="s" s="4">
+      <c r="W13" t="s" s="4">
         <v>166</v>
       </c>
-      <c r="P13" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="5">
+    </row>
+    <row r="14" ht="57.65" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5">
+        <v>720</v>
+      </c>
+      <c r="I14" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>43435</v>
+      </c>
+      <c r="L14" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="O14" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="P14" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>140</v>
+      </c>
+      <c r="R14" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="S14" s="5">
+        <v>115</v>
+      </c>
+      <c r="T14" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="U14" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="V14" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="W14" t="s" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" ht="35.65" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H15" s="5">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="J15" s="5">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="S15" s="5">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="U15" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="V15" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="W15" t="s" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" ht="35.65" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="D16" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5">
+        <v>320</v>
+      </c>
+      <c r="I16" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
+        <v>43191</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="O16" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>60</v>
+      </c>
+      <c r="R16" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="S16" s="5">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="U16" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="V16" t="s" s="4">
+        <v>194</v>
+      </c>
+      <c r="W16" t="s" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" ht="46.65" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>42736</v>
+      </c>
+      <c r="L17" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" t="s" s="4">
+        <v>201</v>
+      </c>
+      <c r="O17" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>130</v>
+      </c>
+      <c r="R17" t="s" s="4">
+        <v>202</v>
+      </c>
+      <c r="S17" s="5">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s" s="4">
+        <v>202</v>
+      </c>
+      <c r="U17" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="V17" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="W17" t="s" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" ht="46.65" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s" s="4">
+        <v>208</v>
+      </c>
+      <c r="D18" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="F18" t="s" s="4">
+        <v>211</v>
+      </c>
+      <c r="G18" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="O18" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="P18" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="5">
         <v>80</v>
       </c>
-      <c r="R13" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="R18" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="S18" s="5">
         <v>105</v>
       </c>
-      <c r="T13" t="s" s="4">
-        <v>168</v>
-      </c>
-      <c r="U13" t="s" s="4">
-        <v>169</v>
-      </c>
-      <c r="V13" t="s" s="4">
-        <v>170</v>
-      </c>
-      <c r="W13" t="s" s="4">
-        <v>171</v>
+      <c r="T18" t="s" s="4">
+        <v>215</v>
+      </c>
+      <c r="U18" t="s" s="4">
+        <v>216</v>
+      </c>
+      <c r="V18" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="W18" t="s" s="4">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -536,16 +536,16 @@
     <t>Chantier,  Livraison Aout 2020</t>
   </si>
   <si>
-    <t>Red cedar</t>
+    <t>Bois thermo-chauffé</t>
   </si>
   <si>
     <t>Bureaux</t>
   </si>
   <si>
-    <t>EB12-redcedar-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>EB12-REDCEDAR-BASEDEDONNEES.jpg</t>
+    <t>EB12-BOISTHERMOCHAUFFE-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>EB12-BOISTHERMOCHAUFFE-BASEDEDONNEES.jpg</t>
   </si>
   <si>
     <t>BUREAUX-1</t>
@@ -1884,7 +1884,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="17" width="16.3516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="66.4375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="54.0703" style="1" customWidth="1"/>
+    <col min="21" max="23" width="16.3516" style="1" customWidth="1"/>
     <col min="24" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="2020" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>code_projet</t>
   </si>
@@ -82,25 +82,214 @@
     <t>matiere_page_bdd</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>EB12</t>
+  </si>
+  <si>
+    <t>EXTENSION ET REHABILITATION DU SIEGE DE L’ENTREPRISE BARILLET</t>
+  </si>
+  <si>
+    <t>Chateauneuf-sur-Loiret</t>
+  </si>
+  <si>
+    <t>Loiret</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>1 400 000</t>
+  </si>
+  <si>
+    <t>Chantier, Livraison Octobre 2020</t>
+  </si>
+  <si>
+    <t>Bois thermo-chauffé</t>
+  </si>
+  <si>
+    <t>Bureaux</t>
+  </si>
+  <si>
+    <t>Complète + mobilier</t>
+  </si>
+  <si>
+    <t>00-EB12-COM-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>00-EB12-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>BUREAUX-1</t>
+  </si>
+  <si>
+    <t>2018-4</t>
+  </si>
+  <si>
+    <t>BOIS-1</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>GL11</t>
+  </si>
+  <si>
+    <t>EXTENSION ET TRANSFORMATION D’UN HOTEL EN IMMEUBLE DE LOGEMENTS</t>
+  </si>
+  <si>
+    <t>Locmariaquer</t>
+  </si>
+  <si>
+    <t>Morbihan</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1 300 000</t>
+  </si>
+  <si>
+    <t>Début chantier Octobre 2020</t>
+  </si>
+  <si>
+    <t>Granit</t>
+  </si>
+  <si>
+    <t>Hôtel</t>
+  </si>
+  <si>
+    <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>00-GL11-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>HOTELS-1</t>
+  </si>
+  <si>
+    <t>2020-5</t>
+  </si>
+  <si>
+    <t>GRANIT-1</t>
+  </si>
+  <si>
+    <t>BE69</t>
+  </si>
+  <si>
+    <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
+  </si>
+  <si>
+    <t>Orléans</t>
+  </si>
+  <si>
+    <t>1 800 000</t>
+  </si>
+  <si>
+    <t>Livré, Juillet 2019</t>
+  </si>
+  <si>
+    <t>Acier</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>00-BE69-COM-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>00-BE69-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>BUREAUX-2</t>
+  </si>
+  <si>
+    <t>2019-3</t>
+  </si>
+  <si>
+    <t>METAL-1</t>
+  </si>
+  <si>
+    <t>VG14</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION D’UNE MAISON EN FORÊT DE FONTAINEBLEAU</t>
+  </si>
+  <si>
+    <t>Noisy-sur-Ecole</t>
+  </si>
+  <si>
+    <t>Seine et Marne</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>600 000</t>
+  </si>
+  <si>
+    <t>Finalistes du concours BAM architecture</t>
+  </si>
+  <si>
+    <t>Pierre de Souppes</t>
+  </si>
+  <si>
+    <t>Maison privée</t>
+  </si>
+  <si>
+    <t>Complète</t>
+  </si>
+  <si>
+    <t>00-VG14-COM-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>00-VG14-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-3</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>PIERRE-4</t>
+  </si>
+  <si>
+    <t>VB11</t>
+  </si>
+  <si>
+    <t>EXTENSION ET RÉHABILITATION D'UNE RÉSIDENCE PRIVÉE</t>
+  </si>
+  <si>
+    <t>200 000</t>
+  </si>
+  <si>
+    <t>Chantier,  Livraison Janvier 2020</t>
+  </si>
+  <si>
+    <t>Béton sablé</t>
+  </si>
+  <si>
+    <t>00-VB11-COM-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>2019-1</t>
+  </si>
+  <si>
+    <t>SABLE-2</t>
+  </si>
+  <si>
     <t>VD09</t>
   </si>
   <si>
     <t>MAISON PRIVÉE EN BORD DE MER</t>
   </si>
   <si>
-    <t>Locmariaquer</t>
-  </si>
-  <si>
-    <t>Morbihan</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>400 000</t>
+    <t>420 000</t>
   </si>
   <si>
     <t>APD</t>
@@ -109,24 +298,84 @@
     <t>Béton ocre</t>
   </si>
   <si>
-    <t>Maison privée</t>
-  </si>
-  <si>
-    <t>Complète + mobilier</t>
-  </si>
-  <si>
-    <t>VD09-BETON-CAROTTEMATIERE.jpg</t>
+    <t>00-VD09-COM-CAROTTEMATIERE.jpg</t>
   </si>
   <si>
     <t>MAISONS PRIVÉES-7</t>
   </si>
   <si>
-    <t>2020-5</t>
-  </si>
-  <si>
     <t>BETON-3</t>
   </si>
   <si>
+    <t>CK04</t>
+  </si>
+  <si>
+    <t>REHABILITATION D’UNE PROPRIETE PRIVEE</t>
+  </si>
+  <si>
+    <t>Rozières-sur-Crise</t>
+  </si>
+  <si>
+    <t>Aisne</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>DET, Livraison Juillet 2020</t>
+  </si>
+  <si>
+    <t>Maud Saget Architecte</t>
+  </si>
+  <si>
+    <t>Pierre d’Aigle</t>
+  </si>
+  <si>
+    <t>00-CK04-COM-MATIEREBASEDEDONNEE.png</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-5</t>
+  </si>
+  <si>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ER00</t>
+  </si>
+  <si>
+    <t>SANCTUAIRE PAYSAGER</t>
+  </si>
+  <si>
+    <t>Rukomo Nyagatare</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Terre</t>
+  </si>
+  <si>
+    <t>Paysage</t>
+  </si>
+  <si>
+    <t>Concours International</t>
+  </si>
+  <si>
+    <t>00-ER00-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>PAYSAGES-2</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>TERRE-2</t>
+  </si>
+  <si>
     <t>AR42</t>
   </si>
   <si>
@@ -154,7 +403,7 @@
     <t>Appartement</t>
   </si>
   <si>
-    <t>AR42-RESINE-CAROTTE.jpg</t>
+    <t>00-AR42-MATIERECAROTTE.jpg</t>
   </si>
   <si>
     <t>APPARTEMENTS-3</t>
@@ -166,112 +415,40 @@
     <t>SABLE-3</t>
   </si>
   <si>
-    <t>ER00</t>
-  </si>
-  <si>
-    <t>SANCTUAIRE PAYSAGER</t>
-  </si>
-  <si>
-    <t>Rukomo Nyagatare</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Terre</t>
-  </si>
-  <si>
-    <t>Paysage</t>
-  </si>
-  <si>
-    <t>Concours International</t>
-  </si>
-  <si>
-    <t>ER00-terre-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>PAYSAGES-2</t>
-  </si>
-  <si>
-    <t>2020-3</t>
-  </si>
-  <si>
-    <t>TERRE-2</t>
-  </si>
-  <si>
-    <t>VM01</t>
-  </si>
-  <si>
-    <t>EXTENSION D’UNE RESIDENCE PRIVEE</t>
-  </si>
-  <si>
-    <t>Hannogne Saint-Martin</t>
-  </si>
-  <si>
-    <t>Ardennes</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>175 000</t>
-  </si>
-  <si>
-    <t>Chantier,  Livraison Avril 2020</t>
-  </si>
-  <si>
-    <t>Pierre jaune d’Hannogne</t>
-  </si>
-  <si>
-    <t>Conception</t>
-  </si>
-  <si>
-    <t>VM01-PIERRE-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-6</t>
-  </si>
-  <si>
-    <t>2020-2</t>
-  </si>
-  <si>
-    <t>PIERRE-5</t>
-  </si>
-  <si>
-    <t>CK04</t>
-  </si>
-  <si>
-    <t>REHABILITATION D’UNE PROPRIETE PRIVEE</t>
-  </si>
-  <si>
-    <t>Rozières-sur-Crise</t>
-  </si>
-  <si>
-    <t>Aisne</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>DET, Livraison Juillet 2020</t>
-  </si>
-  <si>
-    <t>Maud Saget Architecte</t>
-  </si>
-  <si>
-    <t>Pierre d’Aigle</t>
-  </si>
-  <si>
-    <t>CK04-PIERRE-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-5</t>
-  </si>
-  <si>
-    <t>2020-1</t>
-  </si>
-  <si>
-    <t>PIERRE-4</t>
+    <t>AM03</t>
+  </si>
+  <si>
+    <t>RÉHABILITATION D'UN APPARTEMENT</t>
+  </si>
+  <si>
+    <t>Hauts-De-Seine</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>110 000</t>
+  </si>
+  <si>
+    <t>Livré, Janv 2019</t>
+  </si>
+  <si>
+    <t>Bouleau</t>
+  </si>
+  <si>
+    <t>00-AM03-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>00-AM03-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>APPARTEMENTS-2</t>
+  </si>
+  <si>
+    <t>2019-5</t>
+  </si>
+  <si>
+    <t>BOIS-2</t>
   </si>
   <si>
     <t>VD232</t>
@@ -283,25 +460,13 @@
     <t>Saint-Denis-En-Val</t>
   </si>
   <si>
-    <t>Loiret</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>350 000</t>
   </si>
   <si>
     <t>DCE,  Livraison Janvier 2021</t>
   </si>
   <si>
-    <t>Béton sablé</t>
-  </si>
-  <si>
-    <t>VD232-betonsable-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>VD232-betonsable-BASEDEDONNEE-200px.jpg</t>
+    <t>00-VB232-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
     <t>MAISONS PRIVÉES-4</t>
@@ -310,371 +475,10 @@
     <t>2019-2</t>
   </si>
   <si>
-    <t>VB11</t>
-  </si>
-  <si>
-    <t>EXTENSION ET RÉHABILITATION D'UNE RÉSIDENCE PRIVÉE</t>
-  </si>
-  <si>
-    <t>Orléans</t>
-  </si>
-  <si>
-    <t>200 000</t>
-  </si>
-  <si>
-    <t>Chantier,  Livraison Janvier 2020</t>
-  </si>
-  <si>
-    <t>VB11-betonSABLE-CARROTTE PROJET.jpg</t>
-  </si>
-  <si>
-    <t>VB11-betonSABLE-BASE DE DONNEE-200xp.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-3</t>
-  </si>
-  <si>
-    <t>2019-1</t>
-  </si>
-  <si>
-    <t>SABLE-2</t>
-  </si>
-  <si>
-    <t>AM03</t>
-  </si>
-  <si>
-    <t>RÉHABILITATION D'UN APPARTEMENT</t>
-  </si>
-  <si>
-    <t>Hauts-De-Seine</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>110 000</t>
-  </si>
-  <si>
-    <t>Livré, Janv 2019</t>
-  </si>
-  <si>
-    <t>Bouleau</t>
-  </si>
-  <si>
-    <t>AM03-BOULEAU-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>AM03-BOULEAU-BASEDEDONNEE-200px.jpg</t>
-  </si>
-  <si>
-    <t>APPARTEMENTS-2</t>
-  </si>
-  <si>
-    <t>2019-5</t>
-  </si>
-  <si>
-    <t>BOIS-2</t>
-  </si>
-  <si>
-    <t>RP24</t>
-  </si>
-  <si>
-    <t>RÉHABILITATION D'UN RESTAURANT</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>Béton ciré</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Complète</t>
-  </si>
-  <si>
-    <t>POP-RP24-BETON-CIRE-PROJET-660px.jpg</t>
-  </si>
-  <si>
-    <t>RESTAURANTS-1</t>
-  </si>
-  <si>
-    <t>2019-4</t>
-  </si>
-  <si>
-    <t>BETON-2</t>
-  </si>
-  <si>
-    <t>EB69</t>
-  </si>
-  <si>
-    <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
-  </si>
-  <si>
-    <t>1 800 000</t>
-  </si>
-  <si>
-    <t>Livré, Juillet 2019</t>
-  </si>
-  <si>
-    <t>Acier</t>
-  </si>
-  <si>
-    <t>Bureau</t>
-  </si>
-  <si>
-    <t>EB69-ACIER-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>EB69-ACIER-BASEDEDONNEE.jpg</t>
-  </si>
-  <si>
-    <t>BUREAUX-2</t>
-  </si>
-  <si>
-    <t>2019-3</t>
-  </si>
-  <si>
-    <t>METAL-1</t>
-  </si>
-  <si>
-    <t>HD11</t>
-  </si>
-  <si>
-    <t>REHABILITATION ET EXTENSION D’UN HOTEL 4*</t>
-  </si>
-  <si>
-    <t>3 500 000</t>
-  </si>
-  <si>
-    <t>DCE, Livraison 2021</t>
-  </si>
-  <si>
-    <t>Granit</t>
-  </si>
-  <si>
-    <t>Hôtel</t>
-  </si>
-  <si>
-    <t>HD11-granit-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>HD11-granit-BASEDEDONNEES.jpg</t>
-  </si>
-  <si>
-    <t>HOTELS-1</t>
-  </si>
-  <si>
-    <t>2019-6</t>
-  </si>
-  <si>
-    <t>PIERRE-3</t>
-  </si>
-  <si>
-    <t>PM19</t>
-  </si>
-  <si>
-    <t>CONCEPTION D’UNE PISCINE ET D’UN POOL-HOUSE</t>
-  </si>
-  <si>
-    <t>Brézé</t>
-  </si>
-  <si>
-    <t>Maine-et-Loire</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>150 000</t>
-  </si>
-  <si>
-    <t>Livré, Avril 2018</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Tuffeau</t>
-    </r>
-  </si>
-  <si>
-    <t>Piscine Pool House</t>
-  </si>
-  <si>
-    <t>PM19-tuffeau-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>PM19-tuffeau-BASEDEDONNEES.jpg</t>
-  </si>
-  <si>
-    <t>2018-2</t>
-  </si>
-  <si>
-    <t>PIERRE-1</t>
-  </si>
-  <si>
-    <t>EB12</t>
-  </si>
-  <si>
-    <t>EXTENSION ET REHABILITATION DU SIEGE DE L’ENTREPRISE BARILLET</t>
-  </si>
-  <si>
-    <t>Chateauneuf-sur-Loiret</t>
-  </si>
-  <si>
-    <t>1 200 000</t>
-  </si>
-  <si>
-    <t>Chantier,  Livraison Aout 2020</t>
-  </si>
-  <si>
-    <t>Bois thermo-chauffé</t>
-  </si>
-  <si>
-    <t>Bureaux</t>
-  </si>
-  <si>
-    <t>EB12-BOISTHERMOCHAUFFE-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>EB12-BOISTHERMOCHAUFFE-BASEDEDONNEES.jpg</t>
-  </si>
-  <si>
-    <t>BUREAUX-1</t>
-  </si>
-  <si>
-    <t>2018-4</t>
-  </si>
-  <si>
-    <t>BOIS-1</t>
-  </si>
-  <si>
-    <t>VB229</t>
-  </si>
-  <si>
-    <t>EXTENSION ET REHABILITATION DE GRANGE</t>
-  </si>
-  <si>
-    <t>Quelque part en Sologne</t>
-  </si>
-  <si>
-    <t>300 000</t>
-  </si>
-  <si>
-    <t>Esquisse</t>
-  </si>
-  <si>
-    <t>Brique artisanale</t>
-  </si>
-  <si>
-    <t>VB229-BRIQUESOLOGNE-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-1</t>
-  </si>
-  <si>
-    <t>2018-3</t>
-  </si>
-  <si>
-    <t>TERRE-1</t>
-  </si>
-  <si>
-    <t>VH16</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION D’UNE MAISON PRIVéE</t>
-  </si>
-  <si>
-    <t>Enduit balayé</t>
-  </si>
-  <si>
-    <t>VH16-ENDUITBROSSE-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-2</t>
-  </si>
-  <si>
-    <t>2018-1</t>
-  </si>
-  <si>
-    <t>SABLE-1</t>
-  </si>
-  <si>
-    <t>AD38</t>
-  </si>
-  <si>
-    <t>Meudon</t>
-  </si>
-  <si>
-    <t>Hauts-de-Seine</t>
-  </si>
-  <si>
-    <t>180 000</t>
-  </si>
-  <si>
-    <t>Livré, Dec 2017</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>AD38-PIERRE-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>APPARTEMENTS-1</t>
-  </si>
-  <si>
-    <t>2018-5</t>
-  </si>
-  <si>
-    <t>PIERRE-2</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Horizon passager</t>
-  </si>
-  <si>
-    <t>CREATION D'UN SANCTUAIRE DES MAREE ET DE L'HORIZON</t>
-  </si>
-  <si>
-    <t>Pleubian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Côtes d'Armor</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>Béton brut</t>
-  </si>
-  <si>
-    <t>00HP-BETON-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>00HP-BETON-BASEDEDONNEES.jpg</t>
-  </si>
-  <si>
-    <t>PAYSAGES-1</t>
-  </si>
-  <si>
-    <t>2017-1</t>
-  </si>
-  <si>
-    <t>BETON-1</t>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>Autres projets</t>
   </si>
 </sst>
 </file>
@@ -1878,18 +1682,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="66.4375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.0234" style="1" customWidth="1"/>
+    <col min="4" max="17" width="16.3516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="66.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="54.0703" style="1" customWidth="1"/>
-    <col min="21" max="23" width="16.3516" style="1" customWidth="1"/>
-    <col min="24" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="54" style="1" customWidth="1"/>
+    <col min="21" max="24" width="16.3516" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -1962,374 +1768,398 @@
       <c r="W1" t="s" s="3">
         <v>22</v>
       </c>
+      <c r="X1" t="s" s="3">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" ht="46.65" customHeight="1">
+    <row r="2" ht="57.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="5">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="K2" s="6">
+        <v>43435</v>
+      </c>
       <c r="L2" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="R2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="5">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="T2" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="X2" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" ht="46.65" customHeight="1">
+    <row r="3" ht="57.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5">
-        <v>78</v>
+        <v>660</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" s="5">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6">
-        <v>43983</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6"/>
       <c r="L3" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="5">
-        <v>70</v>
+        <v>355</v>
       </c>
       <c r="R3" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S3" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T3" t="s" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="X3" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" ht="46.65" customHeight="1">
+    <row r="4" ht="57.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>28</v>
+      </c>
       <c r="G4" t="s" s="4">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H4" s="5">
-        <v>500</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>650</v>
+      </c>
+      <c r="I4" t="s" s="4">
+        <v>58</v>
+      </c>
       <c r="J4" s="5">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="K4" s="6">
+        <v>43435</v>
+      </c>
+      <c r="L4" t="s" s="4">
+        <v>59</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" t="s" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="5">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="R4" t="s" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S4" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="X4" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" ht="46.65" customHeight="1">
+    <row r="5" ht="57.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J5" s="5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="6">
-        <v>43922</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K5" s="6"/>
       <c r="L5" t="s" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" t="s" s="4">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="5">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="R5" t="s" s="4">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S5" s="5">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="4">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="X5" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="46.65" customHeight="1">
       <c r="A6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>43709</v>
+      </c>
+      <c r="L6" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s" s="4">
         <v>75</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s" s="4">
+      <c r="P6" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>145</v>
+      </c>
+      <c r="R6" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="S6" s="5">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s" s="4">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H6" s="5">
-        <v>75</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5">
-        <v>13</v>
-      </c>
-      <c r="K6" s="6">
-        <v>44013</v>
-      </c>
-      <c r="L6" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="M6" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>70</v>
-      </c>
-      <c r="R6" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="S6" s="5">
-        <v>25</v>
-      </c>
-      <c r="T6" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="U6" t="s" s="4">
-        <v>84</v>
-      </c>
       <c r="V6" t="s" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="X6" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s" s="4">
         <v>92</v>
       </c>
       <c r="J7" s="5">
-        <v>12</v>
-      </c>
-      <c r="K7" s="6">
-        <v>43831</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K7" s="6"/>
       <c r="L7" t="s" s="4">
         <v>93</v>
       </c>
@@ -2338,157 +2168,153 @@
         <v>94</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="5">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="R7" t="s" s="4">
         <v>95</v>
       </c>
       <c r="S7" s="5">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T7" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="U7" t="s" s="4">
         <v>96</v>
       </c>
-      <c r="U7" t="s" s="4">
+      <c r="V7" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="W7" t="s" s="4">
         <v>97</v>
       </c>
-      <c r="V7" t="s" s="4">
-        <v>98</v>
-      </c>
-      <c r="W7" t="s" s="4">
-        <v>50</v>
+      <c r="X7" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s" s="4">
         <v>99</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s" s="4">
+      <c r="D8" t="s" s="4">
         <v>100</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="E8" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="E8" t="s" s="4">
-        <v>90</v>
-      </c>
       <c r="F8" t="s" s="4">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s" s="4">
-        <v>102</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K8" s="6">
-        <v>43709</v>
+        <v>44013</v>
       </c>
       <c r="L8" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" t="s" s="4">
+        <v>104</v>
+      </c>
       <c r="N8" t="s" s="4">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="5">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S8" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T8" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>108</v>
+        <v>81</v>
+      </c>
+      <c r="X8" t="s" s="4">
+        <v>109</v>
       </c>
     </row>
-    <row r="9" ht="35.65" customHeight="1">
+    <row r="9" ht="46.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s" s="4">
         <v>112</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" t="s" s="4">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="H9" s="5">
-        <v>90</v>
-      </c>
-      <c r="I9" t="s" s="4">
-        <v>113</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="5">
-        <v>10</v>
-      </c>
-      <c r="K9" s="6">
-        <v>43405</v>
-      </c>
-      <c r="L9" t="s" s="4">
-        <v>114</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="7"/>
       <c r="N9" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s" s="4">
         <v>115</v>
       </c>
-      <c r="O9" t="s" s="4">
-        <v>46</v>
-      </c>
       <c r="P9" t="s" s="4">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="5">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S9" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s" s="4">
         <v>117</v>
@@ -2502,8 +2328,11 @@
       <c r="W9" t="s" s="4">
         <v>120</v>
       </c>
+      <c r="X9" t="s" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" ht="35.65" customHeight="1">
+    <row r="10" ht="46.65" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>121</v>
       </c>
@@ -2517,199 +2346,206 @@
         <v>123</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="5">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J10" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K10" s="6">
-        <v>43435</v>
+        <v>43983</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="M10" t="s" s="4">
-        <v>81</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M10" s="7"/>
       <c r="N10" t="s" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="5">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="R10" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S10" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="X10" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" ht="57.65" customHeight="1">
+    <row r="11" ht="35.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5">
         <v>90</v>
       </c>
-      <c r="F11" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5">
-        <v>650</v>
-      </c>
       <c r="I11" t="s" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J11" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K11" s="6">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" t="s" s="4">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="5">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S11" s="5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="X11" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" ht="35.65" customHeight="1">
+    <row r="12" ht="46.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="5">
-        <v>1020</v>
+        <v>200</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J12" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6">
-        <v>43709</v>
+        <v>43831</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" t="s" s="4">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="5">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S12" s="5">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>153</v>
+        <v>133</v>
+      </c>
+      <c r="X12" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
@@ -2717,403 +2553,35 @@
         <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="D13" t="s" s="4">
-        <v>156</v>
-      </c>
-      <c r="E13" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="F13" t="s" s="4">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H13" s="5">
-        <v>170</v>
-      </c>
-      <c r="I13" t="s" s="4">
-        <v>159</v>
-      </c>
-      <c r="J13" s="5">
-        <v>6</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="6">
-        <v>43282</v>
-      </c>
-      <c r="L13" t="s" s="4">
-        <v>160</v>
-      </c>
+        <v>42736</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="7"/>
-      <c r="N13" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="O13" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="P13" t="s" s="4">
-        <v>70</v>
-      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="5">
-        <v>70</v>
-      </c>
-      <c r="R13" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="S13" s="5">
-        <v>30</v>
-      </c>
-      <c r="T13" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="U13" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="V13" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="W13" t="s" s="4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" ht="57.65" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C14" t="s" s="4">
-        <v>168</v>
-      </c>
-      <c r="D14" t="s" s="4">
-        <v>169</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H14" s="5">
-        <v>720</v>
-      </c>
-      <c r="I14" t="s" s="4">
-        <v>170</v>
-      </c>
-      <c r="J14" s="5">
-        <v>5</v>
-      </c>
-      <c r="K14" s="6">
-        <v>43435</v>
-      </c>
-      <c r="L14" t="s" s="4">
-        <v>171</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="P14" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>140</v>
-      </c>
-      <c r="R14" t="s" s="4">
-        <v>174</v>
-      </c>
-      <c r="S14" s="5">
-        <v>115</v>
-      </c>
-      <c r="T14" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="U14" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="V14" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="W14" t="s" s="4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" ht="35.65" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s" s="4">
-        <v>180</v>
-      </c>
-      <c r="D15" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="E15" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H15" s="5">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s" s="4">
-        <v>182</v>
-      </c>
-      <c r="J15" s="5">
-        <v>4</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" t="s" s="4">
-        <v>183</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="O15" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="P15" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>55</v>
-      </c>
-      <c r="R15" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="S15" s="5">
+        <v>150</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" t="s" s="4">
         <v>40</v>
-      </c>
-      <c r="T15" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="U15" t="s" s="4">
-        <v>186</v>
-      </c>
-      <c r="V15" t="s" s="4">
-        <v>187</v>
-      </c>
-      <c r="W15" t="s" s="4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" ht="35.65" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C16" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H16" s="5">
-        <v>320</v>
-      </c>
-      <c r="I16" t="s" s="4">
-        <v>102</v>
-      </c>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="6">
-        <v>43191</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="O16" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>60</v>
-      </c>
-      <c r="R16" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="S16" s="5">
-        <v>45</v>
-      </c>
-      <c r="T16" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="U16" t="s" s="4">
-        <v>193</v>
-      </c>
-      <c r="V16" t="s" s="4">
-        <v>194</v>
-      </c>
-      <c r="W16" t="s" s="4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" ht="46.65" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C17" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s" s="4">
-        <v>197</v>
-      </c>
-      <c r="E17" t="s" s="4">
-        <v>198</v>
-      </c>
-      <c r="F17" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H17" s="5">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="J17" s="5">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>42736</v>
-      </c>
-      <c r="L17" t="s" s="4">
-        <v>200</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" t="s" s="4">
-        <v>201</v>
-      </c>
-      <c r="O17" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="P17" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>130</v>
-      </c>
-      <c r="R17" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="S17" s="5">
-        <v>60</v>
-      </c>
-      <c r="T17" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="U17" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="V17" t="s" s="4">
-        <v>204</v>
-      </c>
-      <c r="W17" t="s" s="4">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" ht="46.65" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C18" t="s" s="4">
-        <v>208</v>
-      </c>
-      <c r="D18" t="s" s="4">
-        <v>209</v>
-      </c>
-      <c r="E18" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="F18" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="G18" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s" s="4">
-        <v>212</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="O18" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="P18" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>80</v>
-      </c>
-      <c r="R18" t="s" s="4">
-        <v>214</v>
-      </c>
-      <c r="S18" s="5">
-        <v>105</v>
-      </c>
-      <c r="T18" t="s" s="4">
-        <v>215</v>
-      </c>
-      <c r="U18" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="V18" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="W18" t="s" s="4">
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>code_projet</t>
   </si>
@@ -85,6 +85,393 @@
     <t>empty</t>
   </si>
   <si>
+    <t>in_projects</t>
+  </si>
+  <si>
+    <t>in_db</t>
+  </si>
+  <si>
+    <t>VD232</t>
+  </si>
+  <si>
+    <t>EXTENSION ET RÉHABILITATION D'UNE MAISON PRIVÉE</t>
+  </si>
+  <si>
+    <t>Saint-Denis-En-Val</t>
+  </si>
+  <si>
+    <t>Loiret</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>350 000</t>
+  </si>
+  <si>
+    <t>DCE,  Livraison Janvier 2021</t>
+  </si>
+  <si>
+    <t>Béton sablé</t>
+  </si>
+  <si>
+    <t>Maison privée</t>
+  </si>
+  <si>
+    <t>Complète + mobilier</t>
+  </si>
+  <si>
+    <t>00-VB232-COM-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>VD232-betonsable-BASEDEDONNEE-200px.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-3</t>
+  </si>
+  <si>
+    <t>2019-1</t>
+  </si>
+  <si>
+    <t>SABLE-2</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>AM03</t>
+  </si>
+  <si>
+    <t>RÉHABILITATION D'UN APPARTEMENT</t>
+  </si>
+  <si>
+    <t>Levallois-Perret</t>
+  </si>
+  <si>
+    <t>Hauts-De-Seine</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>110 000</t>
+  </si>
+  <si>
+    <t>Livré, Janv 2019</t>
+  </si>
+  <si>
+    <t>Bouleau</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>00-AM03-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>AM03-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>APPARTEMENTS-2</t>
+  </si>
+  <si>
+    <t>2019-2</t>
+  </si>
+  <si>
+    <t>BOIS-2</t>
+  </si>
+  <si>
+    <t>AR42</t>
+  </si>
+  <si>
+    <t>REHABILITATION D’UN APPARTEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Île-De-France</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>Livré, Nov 2019</t>
+  </si>
+  <si>
+    <t>Sable</t>
+  </si>
+  <si>
+    <t>00-AR42-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>AR42-RESINE-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>APPARTEMENTS-3</t>
+  </si>
+  <si>
+    <t>2020-4</t>
+  </si>
+  <si>
+    <t>SABLE-3</t>
+  </si>
+  <si>
+    <t>ER00</t>
+  </si>
+  <si>
+    <t>SANCTUAIRE PAYSAGER</t>
+  </si>
+  <si>
+    <t>Rukomo Nyagatare</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Terre</t>
+  </si>
+  <si>
+    <t>Paysage</t>
+  </si>
+  <si>
+    <t>Concours International</t>
+  </si>
+  <si>
+    <t>ER00-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>PAYSAGES-3</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>TERRE-2</t>
+  </si>
+  <si>
+    <t>CK04</t>
+  </si>
+  <si>
+    <t>REHABILITATION D’UNE PROPRIETE PRIVEE</t>
+  </si>
+  <si>
+    <t>Rozières-sur-Crise</t>
+  </si>
+  <si>
+    <t>Aisne</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>DET, Livraison Juillet 2020</t>
+  </si>
+  <si>
+    <t>Maud Saget Architecte</t>
+  </si>
+  <si>
+    <t>Pierre d’Aigle</t>
+  </si>
+  <si>
+    <t>00-CK04-COM-MATIEREBASEDEDONNEE.png</t>
+  </si>
+  <si>
+    <t>CK04-COM-MATIEREBASEDEDONNEE.png</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-5</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>PIERRE-5</t>
+  </si>
+  <si>
+    <t>VD09</t>
+  </si>
+  <si>
+    <t>MAISON PRIVÉE EN BORD DE MER</t>
+  </si>
+  <si>
+    <t>Locmariaquer</t>
+  </si>
+  <si>
+    <t>Morbihan</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>420 000</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>Béton ocre</t>
+  </si>
+  <si>
+    <t>00-VD09-COM-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>VD09-BETON-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-7</t>
+  </si>
+  <si>
+    <t>2020-6</t>
+  </si>
+  <si>
+    <t>BETON-3</t>
+  </si>
+  <si>
+    <t>VB11</t>
+  </si>
+  <si>
+    <t>EXTENSION ET RÉHABILITATION D'UNE RÉSIDENCE PRIVÉE</t>
+  </si>
+  <si>
+    <t>Orléans</t>
+  </si>
+  <si>
+    <t>200 000</t>
+  </si>
+  <si>
+    <t>Chantier,  Livraison Janvier 2020</t>
+  </si>
+  <si>
+    <t>00-VB11-COM-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>VB11-betonSABLE-BASE-DE-DONNEE-200xp.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-6</t>
+  </si>
+  <si>
+    <t>2020-5</t>
+  </si>
+  <si>
+    <t>SABLE-4</t>
+  </si>
+  <si>
+    <t>VG14</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION D’UNE MAISON EN FORÊT DE FONTAINEBLEAU</t>
+  </si>
+  <si>
+    <t>Noisy-sur-Ecole</t>
+  </si>
+  <si>
+    <t>Seine et Marne</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>600 000</t>
+  </si>
+  <si>
+    <t>Finalistes du concours BAM architecture</t>
+  </si>
+  <si>
+    <t>Pierre de Souppes</t>
+  </si>
+  <si>
+    <t>Complète</t>
+  </si>
+  <si>
+    <t>00-VG14-COM-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>VG14-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-8</t>
+  </si>
+  <si>
+    <t>2020-7</t>
+  </si>
+  <si>
+    <t>PIERRE-6</t>
+  </si>
+  <si>
+    <t>BE69</t>
+  </si>
+  <si>
+    <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
+  </si>
+  <si>
+    <t>1 800 000</t>
+  </si>
+  <si>
+    <t>Livré, Juillet 2019</t>
+  </si>
+  <si>
+    <t>Acier</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>00-BE69-COM-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>BE69-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>BUREAUX-2</t>
+  </si>
+  <si>
+    <t>2019-5</t>
+  </si>
+  <si>
+    <t>METAL-1</t>
+  </si>
+  <si>
+    <t>GL11</t>
+  </si>
+  <si>
+    <t>EXTENSION ET TRANSFORMATION D’UN HOTEL EN IMMEUBLE DE LOGEMENTS</t>
+  </si>
+  <si>
+    <t>1 300 000</t>
+  </si>
+  <si>
+    <t>Début chantier Octobre 2020</t>
+  </si>
+  <si>
+    <t>Granit</t>
+  </si>
+  <si>
+    <t>Hôtel</t>
+  </si>
+  <si>
+    <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>GL11-COM-MATIEREBASEDEDONNEE.jpg</t>
+  </si>
+  <si>
+    <t>HOTELS-2</t>
+  </si>
+  <si>
+    <t>2020-8</t>
+  </si>
+  <si>
+    <t>GRANIT-1</t>
+  </si>
+  <si>
     <t>EB12</t>
   </si>
   <si>
@@ -94,15 +481,6 @@
     <t>Chateauneuf-sur-Loiret</t>
   </si>
   <si>
-    <t>Loiret</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>1 400 000</t>
   </si>
   <si>
@@ -115,370 +493,281 @@
     <t>Bureaux</t>
   </si>
   <si>
-    <t>Complète + mobilier</t>
-  </si>
-  <si>
     <t>00-EB12-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>00-EB12-COM-MATIEREBASEDEDONNEE.jpg</t>
+    <t>EB12-COM-MATIEREBASEDEDONNEE.jpg</t>
   </si>
   <si>
     <t>BUREAUX-1</t>
   </si>
   <si>
+    <t>2018-5</t>
+  </si>
+  <si>
+    <t>BOIS-1</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>Autres projets</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Horizon passager</t>
+  </si>
+  <si>
+    <t>CREATION D'UN SANCTUAIRE DES MAREE ET DE L'HORIZON</t>
+  </si>
+  <si>
+    <t>Pleubian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Côtes d'Armor</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Béton brut</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>00HP-BETON-BASEDEDONNEES-2.png</t>
+  </si>
+  <si>
+    <t>PAYSAGES-1</t>
+  </si>
+  <si>
+    <t>2017-1</t>
+  </si>
+  <si>
+    <t>BETON-1</t>
+  </si>
+  <si>
+    <t>AD38</t>
+  </si>
+  <si>
+    <t>Meudon</t>
+  </si>
+  <si>
+    <t>Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>180 000</t>
+  </si>
+  <si>
+    <t>Livré, Dec 2017</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>AD38-PIERRE-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>APPARTEMENTS-1</t>
+  </si>
+  <si>
     <t>2018-4</t>
   </si>
   <si>
-    <t>BOIS-1</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>GL11</t>
-  </si>
-  <si>
-    <t>EXTENSION ET TRANSFORMATION D’UN HOTEL EN IMMEUBLE DE LOGEMENTS</t>
-  </si>
-  <si>
-    <t>Locmariaquer</t>
-  </si>
-  <si>
-    <t>Morbihan</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>1 300 000</t>
-  </si>
-  <si>
-    <t>Début chantier Octobre 2020</t>
-  </si>
-  <si>
-    <t>Granit</t>
-  </si>
-  <si>
-    <t>Hôtel</t>
-  </si>
-  <si>
-    <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>00-GL11-COM-MATIEREBASEDEDONNEE.jpg</t>
+    <t>PIERRE-2</t>
+  </si>
+  <si>
+    <t>VH16</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION D’UNE MAISON PRIVéE</t>
+  </si>
+  <si>
+    <t>Enduit balayé</t>
+  </si>
+  <si>
+    <t>VH16-ENDUITBROSSE-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-1</t>
+  </si>
+  <si>
+    <t>2018-1</t>
+  </si>
+  <si>
+    <t>SABLE-1</t>
+  </si>
+  <si>
+    <t>VB229</t>
+  </si>
+  <si>
+    <t>EXTENSION ET REHABILITATION DE GRANGE</t>
+  </si>
+  <si>
+    <t>Quelque part en Sologne</t>
+  </si>
+  <si>
+    <t>300 000</t>
+  </si>
+  <si>
+    <t>Esquisse</t>
+  </si>
+  <si>
+    <t>Brique artisanale</t>
+  </si>
+  <si>
+    <t>VB229-matiere-briquesologne-tabledesmatieres-200px.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-2</t>
+  </si>
+  <si>
+    <t>2018-3</t>
+  </si>
+  <si>
+    <t>TERRE-1</t>
+  </si>
+  <si>
+    <t>PM19</t>
+  </si>
+  <si>
+    <t>CONCEPTION D’UNE PISCINE ET D’UN POOL-HOUSE</t>
+  </si>
+  <si>
+    <t>Brézé</t>
+  </si>
+  <si>
+    <t>Maine-et-Loire</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>150 000</t>
+  </si>
+  <si>
+    <t>Livré, Avril 2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Tuffeau</t>
+    </r>
+  </si>
+  <si>
+    <t>Piscine Pool House</t>
+  </si>
+  <si>
+    <t>PM19-tuffeau-BASEDEDONNEES.jpg</t>
+  </si>
+  <si>
+    <t>PAYSAGES-2</t>
+  </si>
+  <si>
+    <t>2018-2</t>
+  </si>
+  <si>
+    <t>PIERRE-1</t>
+  </si>
+  <si>
+    <t>HD11</t>
+  </si>
+  <si>
+    <t>REHABILITATION ET EXTENSION D’UN HOTEL 4*</t>
+  </si>
+  <si>
+    <t>3 500 000</t>
+  </si>
+  <si>
+    <t>DCE, Livraison 2021</t>
+  </si>
+  <si>
+    <t>HD11-granit-BASEDEDONNEES.jpg</t>
   </si>
   <si>
     <t>HOTELS-1</t>
   </si>
   <si>
-    <t>2020-5</t>
-  </si>
-  <si>
-    <t>GRANIT-1</t>
-  </si>
-  <si>
-    <t>BE69</t>
-  </si>
-  <si>
-    <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
-  </si>
-  <si>
-    <t>Orléans</t>
-  </si>
-  <si>
-    <t>1 800 000</t>
-  </si>
-  <si>
-    <t>Livré, Juillet 2019</t>
-  </si>
-  <si>
-    <t>Acier</t>
-  </si>
-  <si>
-    <t>Bureau</t>
-  </si>
-  <si>
-    <t>00-BE69-COM-MATIERECAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>00-BE69-COM-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
-    <t>BUREAUX-2</t>
+    <t>2019-4</t>
+  </si>
+  <si>
+    <t>PIERRE-3</t>
+  </si>
+  <si>
+    <t>RP24</t>
+  </si>
+  <si>
+    <t>RÉHABILITATION D'UN RESTAURANT</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>Béton ciré</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>POP-RP24-BETON-CIRE-PROJET-660px.jpg</t>
+  </si>
+  <si>
+    <t>RESTAURANTS-1</t>
   </si>
   <si>
     <t>2019-3</t>
   </si>
   <si>
-    <t>METAL-1</t>
-  </si>
-  <si>
-    <t>VG14</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION D’UNE MAISON EN FORÊT DE FONTAINEBLEAU</t>
-  </si>
-  <si>
-    <t>Noisy-sur-Ecole</t>
-  </si>
-  <si>
-    <t>Seine et Marne</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>600 000</t>
-  </si>
-  <si>
-    <t>Finalistes du concours BAM architecture</t>
-  </si>
-  <si>
-    <t>Pierre de Souppes</t>
-  </si>
-  <si>
-    <t>Maison privée</t>
-  </si>
-  <si>
-    <t>Complète</t>
-  </si>
-  <si>
-    <t>00-VG14-COM-CAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>00-VG14-COM-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-3</t>
-  </si>
-  <si>
-    <t>2020-2</t>
+    <t>BETON-2</t>
+  </si>
+  <si>
+    <t>VM01</t>
+  </si>
+  <si>
+    <t>EXTENSION D’UNE RESIDENCE PRIVEE</t>
+  </si>
+  <si>
+    <t>Hannogne Saint-Martin</t>
+  </si>
+  <si>
+    <t>Ardennes</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>175 000</t>
+  </si>
+  <si>
+    <t>Chantier,  Livraison Avril 2020</t>
+  </si>
+  <si>
+    <t>Pierre jaune d’Hannogne</t>
+  </si>
+  <si>
+    <t>VM01-PIERRE-CAROTTEMATIERE.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-4</t>
+  </si>
+  <si>
+    <t>2020-1</t>
   </si>
   <si>
     <t>PIERRE-4</t>
-  </si>
-  <si>
-    <t>VB11</t>
-  </si>
-  <si>
-    <t>EXTENSION ET RÉHABILITATION D'UNE RÉSIDENCE PRIVÉE</t>
-  </si>
-  <si>
-    <t>200 000</t>
-  </si>
-  <si>
-    <t>Chantier,  Livraison Janvier 2020</t>
-  </si>
-  <si>
-    <t>Béton sablé</t>
-  </si>
-  <si>
-    <t>00-VB11-COM-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>2019-1</t>
-  </si>
-  <si>
-    <t>SABLE-2</t>
-  </si>
-  <si>
-    <t>VD09</t>
-  </si>
-  <si>
-    <t>MAISON PRIVÉE EN BORD DE MER</t>
-  </si>
-  <si>
-    <t>420 000</t>
-  </si>
-  <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>Béton ocre</t>
-  </si>
-  <si>
-    <t>00-VD09-COM-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-7</t>
-  </si>
-  <si>
-    <t>BETON-3</t>
-  </si>
-  <si>
-    <t>CK04</t>
-  </si>
-  <si>
-    <t>REHABILITATION D’UNE PROPRIETE PRIVEE</t>
-  </si>
-  <si>
-    <t>Rozières-sur-Crise</t>
-  </si>
-  <si>
-    <t>Aisne</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>DET, Livraison Juillet 2020</t>
-  </si>
-  <si>
-    <t>Maud Saget Architecte</t>
-  </si>
-  <si>
-    <t>Pierre d’Aigle</t>
-  </si>
-  <si>
-    <t>00-CK04-COM-MATIEREBASEDEDONNEE.png</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-5</t>
-  </si>
-  <si>
-    <t>2020-1</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ER00</t>
-  </si>
-  <si>
-    <t>SANCTUAIRE PAYSAGER</t>
-  </si>
-  <si>
-    <t>Rukomo Nyagatare</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Terre</t>
-  </si>
-  <si>
-    <t>Paysage</t>
-  </si>
-  <si>
-    <t>Concours International</t>
-  </si>
-  <si>
-    <t>00-ER00-COM-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
-    <t>PAYSAGES-2</t>
-  </si>
-  <si>
-    <t>2020-3</t>
-  </si>
-  <si>
-    <t>TERRE-2</t>
-  </si>
-  <si>
-    <t>AR42</t>
-  </si>
-  <si>
-    <t>REHABILITATION D’UN APPARTEMENT</t>
-  </si>
-  <si>
-    <t>Levallois-Perret</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Île-De-France</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>Livré, Nov 2019</t>
-  </si>
-  <si>
-    <t>Sable</t>
-  </si>
-  <si>
-    <t>Appartement</t>
-  </si>
-  <si>
-    <t>00-AR42-MATIERECAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>APPARTEMENTS-3</t>
-  </si>
-  <si>
-    <t>2020-4</t>
-  </si>
-  <si>
-    <t>SABLE-3</t>
-  </si>
-  <si>
-    <t>AM03</t>
-  </si>
-  <si>
-    <t>RÉHABILITATION D'UN APPARTEMENT</t>
-  </si>
-  <si>
-    <t>Hauts-De-Seine</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>110 000</t>
-  </si>
-  <si>
-    <t>Livré, Janv 2019</t>
-  </si>
-  <si>
-    <t>Bouleau</t>
-  </si>
-  <si>
-    <t>00-AM03-MATIERECAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>00-AM03-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
-    <t>APPARTEMENTS-2</t>
-  </si>
-  <si>
-    <t>2019-5</t>
-  </si>
-  <si>
-    <t>BOIS-2</t>
-  </si>
-  <si>
-    <t>VD232</t>
-  </si>
-  <si>
-    <t>EXTENSION ET RÉHABILITATION D'UNE MAISON PRIVÉE</t>
-  </si>
-  <si>
-    <t>Saint-Denis-En-Val</t>
-  </si>
-  <si>
-    <t>350 000</t>
-  </si>
-  <si>
-    <t>DCE,  Livraison Janvier 2021</t>
-  </si>
-  <si>
-    <t>00-VB232-COM-MATIERECAROTTE.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-4</t>
-  </si>
-  <si>
-    <t>2019-2</t>
-  </si>
-  <si>
-    <t>AUTRE</t>
-  </si>
-  <si>
-    <t>Autres projets</t>
   </si>
 </sst>
 </file>
@@ -1682,9 +1971,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1694,8 +1985,8 @@
     <col min="18" max="18" width="66.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
     <col min="20" max="20" width="54" style="1" customWidth="1"/>
-    <col min="21" max="24" width="16.3516" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="21" max="26" width="16.3516" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -1771,256 +2062,274 @@
       <c r="X1" t="s" s="3">
         <v>23</v>
       </c>
+      <c r="Y1" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="3">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="57.65" customHeight="1">
+    <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6">
-        <v>43435</v>
+        <v>43831</v>
       </c>
       <c r="L2" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="5">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="R2" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S2" s="5">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" ht="57.65" customHeight="1">
+    <row r="3" ht="35.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5">
-        <v>660</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>43405</v>
+      </c>
       <c r="L3" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="5">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S3" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" ht="57.65" customHeight="1">
+    <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5">
-        <v>650</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J4" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K4" s="6">
-        <v>43435</v>
+        <v>43983</v>
       </c>
       <c r="L4" t="s" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" t="s" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="5">
-        <v>410</v>
+        <v>185</v>
       </c>
       <c r="R4" t="s" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S4" s="5">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="T4" t="s" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" ht="57.65" customHeight="1">
+    <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s" s="4">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" t="s" s="4">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="H5" s="5">
-        <v>200</v>
-      </c>
-      <c r="I5" t="s" s="4">
-        <v>72</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" t="s" s="4">
-        <v>73</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="7"/>
       <c r="N5" t="s" s="4">
         <v>74</v>
@@ -2032,528 +2341,582 @@
         <v>76</v>
       </c>
       <c r="Q5" s="5">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="R5" t="s" s="4">
         <v>77</v>
       </c>
       <c r="S5" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="U5" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="U5" t="s" s="4">
+      <c r="V5" t="s" s="4">
         <v>79</v>
       </c>
-      <c r="V5" t="s" s="4">
+      <c r="W5" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="W5" t="s" s="4">
-        <v>81</v>
-      </c>
       <c r="X5" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y5" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="46.65" customHeight="1">
       <c r="A6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s" s="4">
         <v>82</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="D6" t="s" s="4">
         <v>83</v>
       </c>
-      <c r="D6" t="s" s="4">
-        <v>57</v>
-      </c>
       <c r="E6" t="s" s="4">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s" s="4">
-        <v>84</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="6">
-        <v>43709</v>
+        <v>44013</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="M6" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="M6" t="s" s="4">
+        <v>87</v>
+      </c>
       <c r="N6" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="5">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R6" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S6" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T6" t="s" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
         <v>150</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J7" s="5">
         <v>6</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" t="s" s="4">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="5">
         <v>220</v>
       </c>
       <c r="R7" t="s" s="4">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S7" s="5">
         <v>105</v>
       </c>
       <c r="T7" t="s" s="4">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="V7" t="s" s="4">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="W7" t="s" s="4">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y7" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
-        <v>75</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="I8" t="s" s="4">
+        <v>110</v>
+      </c>
       <c r="J8" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="6">
-        <v>44013</v>
+        <v>43709</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>103</v>
-      </c>
-      <c r="M8" t="s" s="4">
-        <v>104</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M8" s="7"/>
       <c r="N8" t="s" s="4">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="5">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="S8" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s" s="4">
-        <v>109</v>
+        <v>42</v>
+      </c>
+      <c r="Y8" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z8" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" ht="46.65" customHeight="1">
+    <row r="9" ht="57.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="E9" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s" s="4">
+        <v>121</v>
+      </c>
       <c r="G9" t="s" s="4">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
-        <v>500</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="I9" t="s" s="4">
+        <v>122</v>
+      </c>
       <c r="J9" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
+      <c r="L9" t="s" s="4">
+        <v>123</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" t="s" s="4">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="5">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="S9" s="5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="4">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="X9" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y9" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z9" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" ht="46.65" customHeight="1">
+    <row r="10" ht="57.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
-        <v>78</v>
+        <v>650</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J10" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K10" s="6">
-        <v>43983</v>
+        <v>43435</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" t="s" s="4">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="5">
-        <v>185</v>
+        <v>410</v>
       </c>
       <c r="R10" t="s" s="4">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="S10" s="5">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="X10" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y10" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" ht="35.65" customHeight="1">
+    <row r="11" ht="57.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
-        <v>90</v>
+        <v>660</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J11" s="5">
-        <v>2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>43405</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K11" s="6"/>
       <c r="L11" t="s" s="4">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" t="s" s="4">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="5">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="S11" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="T11" t="s" s="4">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="X11" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y11" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z11" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" ht="46.65" customHeight="1">
+    <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J12" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K12" s="6">
-        <v>43831</v>
+        <v>43435</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" t="s" s="4">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="5">
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="S12" s="5">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Y12" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z12" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2562,7 +2925,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
       <c r="K13" s="6">
         <v>42736</v>
       </c>
@@ -2581,7 +2946,581 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Y13" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z13" t="s" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="46.65" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="F14" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="G14" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="O14" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5">
+        <v>105</v>
+      </c>
+      <c r="T14" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="U14" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="V14" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="W14" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="X14" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y14" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z14" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="46.65" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="F15" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6">
+        <v>42736</v>
+      </c>
+      <c r="L15" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="O15" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5">
+        <v>60</v>
+      </c>
+      <c r="T15" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="U15" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="V15" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="W15" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="X15" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z15" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="46.65" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="D16" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5">
+        <v>320</v>
+      </c>
+      <c r="I16" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6">
+        <v>43191</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="O16" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="U16" t="s" s="4">
+        <v>194</v>
+      </c>
+      <c r="V16" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="W16" t="s" s="4">
+        <v>196</v>
+      </c>
+      <c r="X16" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z16" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="46.65" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="D17" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" t="s" s="4">
+        <v>201</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" t="s" s="4">
+        <v>202</v>
+      </c>
+      <c r="O17" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5">
         <v>40</v>
+      </c>
+      <c r="T17" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="U17" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="V17" t="s" s="4">
+        <v>205</v>
+      </c>
+      <c r="W17" t="s" s="4">
+        <v>206</v>
+      </c>
+      <c r="X17" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y17" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="46.65" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s" s="4">
+        <v>208</v>
+      </c>
+      <c r="D18" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="F18" t="s" s="4">
+        <v>211</v>
+      </c>
+      <c r="G18" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5">
+        <v>170</v>
+      </c>
+      <c r="I18" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6">
+        <v>43282</v>
+      </c>
+      <c r="L18" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="O18" t="s" s="4">
+        <v>215</v>
+      </c>
+      <c r="P18" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s" s="4">
+        <v>216</v>
+      </c>
+      <c r="U18" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="V18" t="s" s="4">
+        <v>218</v>
+      </c>
+      <c r="W18" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="X18" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" ht="46.65" customHeight="1">
+      <c r="A19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>221</v>
+      </c>
+      <c r="D19" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I19" t="s" s="4">
+        <v>222</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6">
+        <v>43709</v>
+      </c>
+      <c r="L19" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="P19" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5">
+        <v>115</v>
+      </c>
+      <c r="T19" t="s" s="4">
+        <v>224</v>
+      </c>
+      <c r="U19" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="V19" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="W19" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="X19" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y19" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z19" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" ht="46.65" customHeight="1">
+      <c r="A20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>229</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5">
+        <v>150</v>
+      </c>
+      <c r="I20" t="s" s="4">
+        <v>231</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6">
+        <v>43435</v>
+      </c>
+      <c r="L20" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="N20" t="s" s="4">
+        <v>232</v>
+      </c>
+      <c r="O20" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="P20" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5">
+        <v>30</v>
+      </c>
+      <c r="T20" t="s" s="4">
+        <v>234</v>
+      </c>
+      <c r="U20" t="s" s="4">
+        <v>235</v>
+      </c>
+      <c r="V20" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="W20" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="X20" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y20" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z20" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" ht="46.65" customHeight="1">
+      <c r="A21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s" s="4">
+        <v>239</v>
+      </c>
+      <c r="D21" t="s" s="4">
+        <v>240</v>
+      </c>
+      <c r="E21" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="F21" t="s" s="4">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="H21" s="5">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s" s="4">
+        <v>243</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6">
+        <v>43922</v>
+      </c>
+      <c r="L21" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="O21" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="P21" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5">
+        <v>20</v>
+      </c>
+      <c r="T21" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="U21" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="V21" t="s" s="4">
+        <v>248</v>
+      </c>
+      <c r="W21" t="s" s="4">
+        <v>249</v>
+      </c>
+      <c r="X21" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Z21" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>code_projet</t>
   </si>
@@ -226,7 +226,7 @@
     <t>ER00</t>
   </si>
   <si>
-    <t>SANCTUAIRE PAYSAGER</t>
+    <t>SANCTUAIRE DES CLARISSES</t>
   </si>
   <si>
     <t>Rukomo Nyagatare</t>
@@ -259,7 +259,7 @@
     <t>CK04</t>
   </si>
   <si>
-    <t>REHABILITATION D’UNE PROPRIETE PRIVEE</t>
+    <t>RÉHABILITATION D'UN CHÂTEAU CLASSÉ EN PICARDIE</t>
   </si>
   <si>
     <t>Rozières-sur-Crise</t>
@@ -337,7 +337,7 @@
     <t>VB11</t>
   </si>
   <si>
-    <t>EXTENSION ET RÉHABILITATION D'UNE RÉSIDENCE PRIVÉE</t>
+    <t>EXTENSION ET RÉHABILITATION D'UNE MAISON FACE À LA LOIRE</t>
   </si>
   <si>
     <t>Orléans</t>
@@ -409,7 +409,7 @@
     <t>BE69</t>
   </si>
   <si>
-    <t>RÉHABILITATION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
+    <t>RÉHABILITATION ET EXTENSION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
   </si>
   <si>
     <t>1 800 000</t>
@@ -451,7 +451,7 @@
     <t>Début chantier Octobre 2020</t>
   </si>
   <si>
-    <t>Granit</t>
+    <t>Granit réemploi</t>
   </si>
   <si>
     <t>Hôtel</t>
@@ -478,7 +478,7 @@
     <t>EXTENSION ET REHABILITATION DU SIEGE DE L’ENTREPRISE BARILLET</t>
   </si>
   <si>
-    <t>Chateauneuf-sur-Loiret</t>
+    <t>Chateauneuf-sur-Loire</t>
   </si>
   <si>
     <t>1 400 000</t>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>DCE, Livraison 2021</t>
+  </si>
+  <si>
+    <t>Granit</t>
   </si>
   <si>
     <t>HD11-granit-BASEDEDONNEES.jpg</t>
@@ -2101,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <v>43831</v>
+        <v>44621</v>
       </c>
       <c r="L2" t="s" s="4">
         <v>33</v>
@@ -2394,14 +2397,14 @@
         <v>31</v>
       </c>
       <c r="H6" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5">
         <v>5</v>
       </c>
       <c r="K6" s="6">
-        <v>44013</v>
+        <v>44136</v>
       </c>
       <c r="L6" t="s" s="4">
         <v>86</v>
@@ -2557,7 +2560,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="6">
-        <v>43709</v>
+        <v>44105</v>
       </c>
       <c r="L8" t="s" s="4">
         <v>111</v>
@@ -2937,7 +2940,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="7"/>
@@ -3342,7 +3345,7 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" t="s" s="4">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="O19" t="s" s="4">
         <v>147</v>
@@ -3356,16 +3359,16 @@
         <v>115</v>
       </c>
       <c r="T19" t="s" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U19" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V19" t="s" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W19" t="s" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X19" t="s" s="4">
         <v>43</v>
@@ -3379,16 +3382,16 @@
     </row>
     <row r="20" ht="46.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s" s="4">
         <v>60</v>
@@ -3403,7 +3406,7 @@
         <v>150</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="6">
@@ -3416,10 +3419,10 @@
         <v>87</v>
       </c>
       <c r="N20" t="s" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O20" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P20" t="s" s="4">
         <v>125</v>
@@ -3430,16 +3433,16 @@
         <v>30</v>
       </c>
       <c r="T20" t="s" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U20" t="s" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="V20" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W20" t="s" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X20" t="s" s="4">
         <v>43</v>
@@ -3453,22 +3456,22 @@
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G21" t="s" s="4">
         <v>31</v>
@@ -3477,18 +3480,18 @@
         <v>60</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6">
         <v>43922</v>
       </c>
       <c r="L21" t="s" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" t="s" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="4">
         <v>35</v>
@@ -3502,16 +3505,16 @@
         <v>20</v>
       </c>
       <c r="T21" t="s" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U21" t="s" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V21" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W21" t="s" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X21" t="s" s="4">
         <v>43</v>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>code_projet</t>
   </si>
@@ -127,9 +127,6 @@
     <t>00-VB232-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>VD232-betonsable-BASEDEDONNEE-200px.jpg</t>
-  </si>
-  <si>
     <t>MAISONS PRIVÉES-3</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>00-AM03-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>AM03-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
     <t>APPARTEMENTS-2</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>00-AR42-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>AR42-RESINE-CAROTTE.jpg</t>
-  </si>
-  <si>
     <t>APPARTEMENTS-3</t>
   </si>
   <si>
@@ -259,7 +250,7 @@
     <t>CK04</t>
   </si>
   <si>
-    <t>RÉHABILITATION D'UN CHÂTEAU CLASSÉ EN PICARDIE</t>
+    <t>RÉHABILITATION D'UN CHÂTEAU EN PICARDIE</t>
   </si>
   <si>
     <t>Rozières-sur-Crise</t>
@@ -283,9 +274,6 @@
     <t>00-CK04-COM-MATIEREBASEDEDONNEE.png</t>
   </si>
   <si>
-    <t>CK04-COM-MATIEREBASEDEDONNEE.png</t>
-  </si>
-  <si>
     <t>MAISONS PRIVÉES-5</t>
   </si>
   <si>
@@ -316,15 +304,12 @@
     <t>APD</t>
   </si>
   <si>
-    <t>Béton ocre</t>
+    <t>Béton de granit</t>
   </si>
   <si>
     <t>00-VD09-COM-CAROTTEMATIERE.jpg</t>
   </si>
   <si>
-    <t>VD09-BETON-CAROTTEMATIERE.jpg</t>
-  </si>
-  <si>
     <t>MAISONS PRIVÉES-7</t>
   </si>
   <si>
@@ -352,9 +337,6 @@
     <t>00-VB11-COM-CAROTTEMATIERE.jpg</t>
   </si>
   <si>
-    <t>VB11-betonSABLE-BASE-DE-DONNEE-200xp.jpg</t>
-  </si>
-  <si>
     <t>MAISONS PRIVÉES-6</t>
   </si>
   <si>
@@ -382,7 +364,7 @@
     <t>600 000</t>
   </si>
   <si>
-    <t>Finalistes du concours BAM architecture</t>
+    <t>Finalistes du concours BAM Architecture</t>
   </si>
   <si>
     <t>Pierre de Souppes</t>
@@ -394,9 +376,6 @@
     <t>00-VG14-COM-CAROTTE.jpg</t>
   </si>
   <si>
-    <t>VG14-COM-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
     <t>MAISONS PRIVÉES-8</t>
   </si>
   <si>
@@ -427,9 +406,6 @@
     <t>00-BE69-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>BE69-COM-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
     <t>BUREAUX-2</t>
   </si>
   <si>
@@ -460,9 +436,6 @@
     <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>GL11-COM-MATIEREBASEDEDONNEE.jpg</t>
-  </si>
-  <si>
     <t>HOTELS-2</t>
   </si>
   <si>
@@ -496,7 +469,7 @@
     <t>00-EB12-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>EB12-COM-MATIEREBASEDEDONNEE.jpg</t>
+    <t>00-EB12-COM-BDD.jpg</t>
   </si>
   <si>
     <t>BUREAUX-1</t>
@@ -541,7 +514,7 @@
     <t>Conception</t>
   </si>
   <si>
-    <t>00HP-BETON-BASEDEDONNEES-2.png</t>
+    <t>00HP-BETON-BASEDEDONNEES.jpg</t>
   </si>
   <si>
     <t>PAYSAGES-1</t>
@@ -2129,45 +2102,45 @@
         <v>60</v>
       </c>
       <c r="T2" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="U2" t="s" s="4">
+      <c r="V2" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="W2" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="W2" t="s" s="4">
+      <c r="X2" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="X2" t="s" s="4">
-        <v>42</v>
-      </c>
       <c r="Y2" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="35.65" customHeight="1">
       <c r="A3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s" s="4">
+      <c r="D3" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="E3" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="F3" t="s" s="4">
         <v>47</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>48</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>31</v>
@@ -2176,7 +2149,7 @@
         <v>90</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="5">
         <v>2</v>
@@ -2185,14 +2158,14 @@
         <v>43405</v>
       </c>
       <c r="L3" t="s" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s" s="4">
         <v>51</v>
-      </c>
-      <c r="O3" t="s" s="4">
-        <v>52</v>
       </c>
       <c r="P3" t="s" s="4">
         <v>36</v>
@@ -2201,51 +2174,51 @@
         <v>90</v>
       </c>
       <c r="R3" t="s" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S3" s="5">
         <v>20</v>
       </c>
       <c r="T3" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="U3" t="s" s="4">
+      <c r="W3" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="V3" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="W3" t="s" s="4">
-        <v>57</v>
-      </c>
       <c r="X3" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s" s="4">
+      <c r="F4" t="s" s="4">
         <v>59</v>
-      </c>
-      <c r="D4" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>61</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>31</v>
@@ -2254,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
@@ -2263,14 +2236,14 @@
         <v>43983</v>
       </c>
       <c r="L4" t="s" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" t="s" s="4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s" s="4">
         <v>36</v>
@@ -2279,50 +2252,50 @@
         <v>185</v>
       </c>
       <c r="R4" t="s" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S4" s="5">
         <v>25</v>
       </c>
       <c r="T4" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="U4" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="U4" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="V4" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="W4" t="s" s="4">
-        <v>69</v>
-      </c>
       <c r="X4" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s" s="4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5">
         <v>500</v>
@@ -2335,63 +2308,63 @@
       <c r="L5" s="4"/>
       <c r="M5" s="7"/>
       <c r="N5" t="s" s="4">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="5">
         <v>290</v>
       </c>
       <c r="R5" t="s" s="4">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S5" s="5">
         <v>50</v>
       </c>
       <c r="T5" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="U5" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="U5" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="V5" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="W5" t="s" s="4">
-        <v>80</v>
-      </c>
       <c r="X5" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z5" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="46.65" customHeight="1">
       <c r="A6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="F6" t="s" s="4">
         <v>82</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s" s="4">
-        <v>85</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>31</v>
@@ -2407,13 +2380,13 @@
         <v>44136</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s" s="4">
         <v>35</v>
@@ -2425,51 +2398,51 @@
         <v>155</v>
       </c>
       <c r="R6" t="s" s="4">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S6" s="5">
         <v>25</v>
       </c>
       <c r="T6" t="s" s="4">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s" s="4">
         <v>94</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s" s="4">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s" s="4">
-        <v>98</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>31</v>
@@ -2478,18 +2451,18 @@
         <v>150</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5">
         <v>6</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s" s="4">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" t="s" s="4">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s" s="4">
         <v>35</v>
@@ -2501,45 +2474,45 @@
         <v>220</v>
       </c>
       <c r="R7" t="s" s="4">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S7" s="5">
         <v>105</v>
       </c>
       <c r="T7" t="s" s="4">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="V7" t="s" s="4">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="W7" t="s" s="4">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s" s="4">
         <v>29</v>
@@ -2554,7 +2527,7 @@
         <v>50</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="5">
         <v>7</v>
@@ -2563,7 +2536,7 @@
         <v>44105</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" t="s" s="4">
@@ -2579,51 +2552,51 @@
         <v>145</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S8" s="5">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="4">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="57.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s" s="4">
         <v>31</v>
@@ -2632,68 +2605,68 @@
         <v>200</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J9" s="5">
         <v>8</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" t="s" s="4">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" t="s" s="4">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="5">
         <v>240</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S9" s="5">
         <v>75</v>
       </c>
       <c r="T9" t="s" s="4">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="57.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s" s="4">
         <v>29</v>
@@ -2708,7 +2681,7 @@
         <v>650</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J10" s="5">
         <v>9</v>
@@ -2717,14 +2690,14 @@
         <v>43435</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" t="s" s="4">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="4">
         <v>36</v>
@@ -2733,51 +2706,51 @@
         <v>410</v>
       </c>
       <c r="R10" t="s" s="4">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="S10" s="5">
         <v>60</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="57.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s" s="4">
         <v>31</v>
@@ -2786,21 +2759,21 @@
         <v>660</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J11" s="5">
         <v>10</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" t="s" s="4">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" t="s" s="4">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P11" t="s" s="4">
         <v>36</v>
@@ -2809,45 +2782,45 @@
         <v>355</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="S11" s="5">
         <v>100</v>
       </c>
       <c r="T11" t="s" s="4">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s" s="4">
         <v>29</v>
@@ -2862,7 +2835,7 @@
         <v>720</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J12" s="5">
         <v>11</v>
@@ -2871,14 +2844,14 @@
         <v>43435</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" t="s" s="4">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="4">
         <v>36</v>
@@ -2887,39 +2860,39 @@
         <v>430</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="S12" s="5">
         <v>115</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2949,39 +2922,39 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="46.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s" s="4">
         <v>31</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -2989,13 +2962,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" t="s" s="4">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="4"/>
@@ -3003,45 +2976,45 @@
         <v>105</v>
       </c>
       <c r="T14" t="s" s="4">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="W14" t="s" s="4">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y14" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="46.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="4">
         <v>31</v>
@@ -3050,24 +3023,24 @@
         <v>110</v>
       </c>
       <c r="I15" t="s" s="4">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="6">
         <v>42736</v>
       </c>
       <c r="L15" t="s" s="4">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" t="s" s="4">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s" s="4">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="4"/>
@@ -3075,39 +3048,39 @@
         <v>60</v>
       </c>
       <c r="T15" t="s" s="4">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="U15" t="s" s="4">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="V15" t="s" s="4">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="W15" t="s" s="4">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s" s="4">
         <v>29</v>
@@ -3122,7 +3095,7 @@
         <v>320</v>
       </c>
       <c r="I16" t="s" s="4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="6">
@@ -3131,13 +3104,13 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" t="s" s="4">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P16" t="s" s="4">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="4"/>
@@ -3145,39 +3118,39 @@
         <v>45</v>
       </c>
       <c r="T16" t="s" s="4">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="U16" t="s" s="4">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="V16" t="s" s="4">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="W16" t="s" s="4">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y16" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s" s="4">
         <v>29</v>
@@ -3192,22 +3165,22 @@
         <v>110</v>
       </c>
       <c r="I17" t="s" s="4">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
       <c r="L17" t="s" s="4">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" t="s" s="4">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="4"/>
@@ -3215,45 +3188,45 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="4">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s" s="4">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="V17" t="s" s="4">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="W17" t="s" s="4">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="46.65" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s" s="4">
         <v>31</v>
@@ -3262,24 +3235,24 @@
         <v>170</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6">
         <v>43282</v>
       </c>
       <c r="L18" t="s" s="4">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" t="s" s="4">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="4">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="4">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="4"/>
@@ -3287,45 +3260,45 @@
         <v>30</v>
       </c>
       <c r="T18" t="s" s="4">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="4">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="V18" t="s" s="4">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="W18" t="s" s="4">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y18" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="46.65" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="4">
         <v>31</v>
@@ -3334,21 +3307,21 @@
         <v>1020</v>
       </c>
       <c r="I19" t="s" s="4">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="6">
         <v>43709</v>
       </c>
       <c r="L19" t="s" s="4">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" t="s" s="4">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s" s="4">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s" s="4">
         <v>36</v>
@@ -3359,45 +3332,45 @@
         <v>115</v>
       </c>
       <c r="T19" t="s" s="4">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="U19" t="s" s="4">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="V19" t="s" s="4">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="W19" t="s" s="4">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="46.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s" s="4">
         <v>31</v>
@@ -3406,26 +3379,26 @@
         <v>150</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="6">
         <v>43435</v>
       </c>
       <c r="L20" t="s" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M20" t="s" s="4">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s" s="4">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s" s="4">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="4"/>
@@ -3433,45 +3406,45 @@
         <v>30</v>
       </c>
       <c r="T20" t="s" s="4">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="U20" t="s" s="4">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="V20" t="s" s="4">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="W20" t="s" s="4">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s" s="4">
         <v>31</v>
@@ -3480,24 +3453,24 @@
         <v>60</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6">
         <v>43922</v>
       </c>
       <c r="L21" t="s" s="4">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" t="s" s="4">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P21" t="s" s="4">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="4"/>
@@ -3505,25 +3478,25 @@
         <v>20</v>
       </c>
       <c r="T21" t="s" s="4">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="U21" t="s" s="4">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="V21" t="s" s="4">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="W21" t="s" s="4">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="X21" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>code_projet</t>
   </si>
@@ -112,7 +112,7 @@
     <t>350 000</t>
   </si>
   <si>
-    <t>DCE,  Livraison Janvier 2021</t>
+    <t>DCE,  Livraison Printemps 2022</t>
   </si>
   <si>
     <t>Béton sablé</t>
@@ -235,7 +235,10 @@
     <t>Concours International</t>
   </si>
   <si>
-    <t>ER00-COM-MATIEREBASEDEDONNEE.jpg</t>
+    <t>ER00-COM-CAROTTE.jpg</t>
+  </si>
+  <si>
+    <t>ER01-COM-MATIEREBASEDEDONNEE.jpg</t>
   </si>
   <si>
     <t>PAYSAGES-3</t>
@@ -262,7 +265,7 @@
     <t>02</t>
   </si>
   <si>
-    <t>DET, Livraison Juillet 2020</t>
+    <t>DET, Livraison Octobre 2020</t>
   </si>
   <si>
     <t>Maud Saget Architecte</t>
@@ -2326,16 +2329,16 @@
         <v>50</v>
       </c>
       <c r="T5" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="4">
         <v>41</v>
@@ -2349,22 +2352,22 @@
     </row>
     <row r="6" ht="46.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>31</v>
@@ -2377,16 +2380,16 @@
         <v>5</v>
       </c>
       <c r="K6" s="6">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s" s="4">
         <v>35</v>
@@ -2398,22 +2401,22 @@
         <v>155</v>
       </c>
       <c r="R6" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S6" s="5">
         <v>25</v>
       </c>
       <c r="T6" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s" s="4">
         <v>42</v>
@@ -2427,22 +2430,22 @@
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>31</v>
@@ -2451,18 +2454,18 @@
         <v>150</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J7" s="5">
         <v>6</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s" s="4">
         <v>35</v>
@@ -2474,22 +2477,22 @@
         <v>220</v>
       </c>
       <c r="R7" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S7" s="5">
         <v>105</v>
       </c>
       <c r="T7" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V7" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W7" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s" s="4">
         <v>41</v>
@@ -2503,16 +2506,16 @@
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s" s="4">
         <v>29</v>
@@ -2527,7 +2530,7 @@
         <v>50</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J8" s="5">
         <v>7</v>
@@ -2536,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" t="s" s="4">
@@ -2552,22 +2555,22 @@
         <v>145</v>
       </c>
       <c r="R8" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S8" s="5">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s" s="4">
         <v>41</v>
@@ -2581,22 +2584,22 @@
     </row>
     <row r="9" ht="57.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s" s="4">
         <v>31</v>
@@ -2605,45 +2608,45 @@
         <v>200</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J9" s="5">
         <v>8</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="5">
         <v>240</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S9" s="5">
         <v>75</v>
       </c>
       <c r="T9" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s" s="4">
         <v>41</v>
@@ -2657,16 +2660,16 @@
     </row>
     <row r="10" ht="57.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s" s="4">
         <v>29</v>
@@ -2681,7 +2684,7 @@
         <v>650</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J10" s="5">
         <v>9</v>
@@ -2690,14 +2693,14 @@
         <v>43435</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="4">
         <v>36</v>
@@ -2706,22 +2709,22 @@
         <v>410</v>
       </c>
       <c r="R10" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S10" s="5">
         <v>60</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s" s="4">
         <v>41</v>
@@ -2735,22 +2738,22 @@
     </row>
     <row r="11" ht="57.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s" s="4">
         <v>31</v>
@@ -2759,21 +2762,21 @@
         <v>660</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J11" s="5">
         <v>10</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s" s="4">
         <v>36</v>
@@ -2782,22 +2785,22 @@
         <v>355</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S11" s="5">
         <v>100</v>
       </c>
       <c r="T11" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s" s="4">
         <v>41</v>
@@ -2811,16 +2814,16 @@
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s" s="4">
         <v>29</v>
@@ -2835,7 +2838,7 @@
         <v>720</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J12" s="5">
         <v>11</v>
@@ -2844,14 +2847,14 @@
         <v>43435</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="4">
         <v>36</v>
@@ -2860,22 +2863,22 @@
         <v>430</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S12" s="5">
         <v>115</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s" s="4">
         <v>41</v>
@@ -2889,10 +2892,10 @@
     </row>
     <row r="13" ht="46.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2933,28 +2936,28 @@
     </row>
     <row r="14" ht="46.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s" s="4">
         <v>31</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -2962,13 +2965,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="4">
         <v>72</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="4"/>
@@ -2976,16 +2979,16 @@
         <v>105</v>
       </c>
       <c r="T14" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W14" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s" s="4">
         <v>42</v>
@@ -2999,19 +3002,19 @@
     </row>
     <row r="15" ht="46.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="4">
         <v>57</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s" s="4">
         <v>47</v>
@@ -3023,24 +3026,24 @@
         <v>110</v>
       </c>
       <c r="I15" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="6">
         <v>42736</v>
       </c>
       <c r="L15" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s" s="4">
         <v>51</v>
       </c>
       <c r="P15" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="4"/>
@@ -3048,16 +3051,16 @@
         <v>60</v>
       </c>
       <c r="T15" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U15" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V15" t="s" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W15" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s" s="4">
         <v>42</v>
@@ -3071,16 +3074,16 @@
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s" s="4">
         <v>29</v>
@@ -3095,7 +3098,7 @@
         <v>320</v>
       </c>
       <c r="I16" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="6">
@@ -3104,13 +3107,13 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P16" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="4"/>
@@ -3118,16 +3121,16 @@
         <v>45</v>
       </c>
       <c r="T16" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V16" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W16" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s" s="4">
         <v>42</v>
@@ -3141,16 +3144,16 @@
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s" s="4">
         <v>29</v>
@@ -3165,22 +3168,22 @@
         <v>110</v>
       </c>
       <c r="I17" t="s" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
       <c r="L17" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="4"/>
@@ -3188,16 +3191,16 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U17" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V17" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W17" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s" s="4">
         <v>42</v>
@@ -3211,22 +3214,22 @@
     </row>
     <row r="18" ht="46.65" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s" s="4">
         <v>31</v>
@@ -3235,24 +3238,24 @@
         <v>170</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6">
         <v>43282</v>
       </c>
       <c r="L18" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" t="s" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O18" t="s" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="4"/>
@@ -3260,16 +3263,16 @@
         <v>30</v>
       </c>
       <c r="T18" t="s" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V18" t="s" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W18" t="s" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s" s="4">
         <v>42</v>
@@ -3283,22 +3286,22 @@
     </row>
     <row r="19" ht="46.65" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s" s="4">
         <v>31</v>
@@ -3307,21 +3310,21 @@
         <v>1020</v>
       </c>
       <c r="I19" t="s" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="6">
         <v>43709</v>
       </c>
       <c r="L19" t="s" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" t="s" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" t="s" s="4">
         <v>36</v>
@@ -3332,16 +3335,16 @@
         <v>115</v>
       </c>
       <c r="T19" t="s" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U19" t="s" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V19" t="s" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W19" t="s" s="4">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="X19" t="s" s="4">
         <v>42</v>
@@ -3355,16 +3358,16 @@
     </row>
     <row r="20" ht="46.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20" t="s" s="4">
         <v>58</v>
@@ -3379,7 +3382,7 @@
         <v>150</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="6">
@@ -3389,16 +3392,16 @@
         <v>49</v>
       </c>
       <c r="M20" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="4"/>
@@ -3406,16 +3409,16 @@
         <v>30</v>
       </c>
       <c r="T20" t="s" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U20" t="s" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="V20" t="s" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="W20" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X20" t="s" s="4">
         <v>42</v>
@@ -3429,22 +3432,22 @@
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s" s="4">
         <v>31</v>
@@ -3453,24 +3456,24 @@
         <v>60</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6">
         <v>43922</v>
       </c>
       <c r="L21" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" t="s" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P21" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="4"/>
@@ -3478,16 +3481,16 @@
         <v>20</v>
       </c>
       <c r="T21" t="s" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U21" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V21" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="W21" t="s" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="X21" t="s" s="4">
         <v>42</v>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -334,7 +334,7 @@
     <t>200 000</t>
   </si>
   <si>
-    <t>Chantier,  Livraison Janvier 2020</t>
+    <t>Chantier,  Livraison Octobre 2020</t>
   </si>
   <si>
     <t>00-VB11-COM-CAROTTEMATIERE.jpg</t>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>code_projet</t>
   </si>
@@ -49,6 +49,9 @@
     <t>etat</t>
   </si>
   <si>
+    <t>MOE</t>
+  </si>
+  <si>
     <t>collab</t>
   </si>
   <si>
@@ -91,6 +94,96 @@
     <t>in_db</t>
   </si>
   <si>
+    <t>BH09</t>
+  </si>
+  <si>
+    <t>RÉNOVATION  DE L’HEMICYCLE DE L’HÔTEL DE LA REGION CENTRE-VAL DE LOIRE</t>
+  </si>
+  <si>
+    <t>Orléans</t>
+  </si>
+  <si>
+    <t>Loiret</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>830 000</t>
+  </si>
+  <si>
+    <t>DIAG, Livraison Juillet 2022</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Hôtel</t>
+  </si>
+  <si>
+    <t>Complète + OPC + Mobilier</t>
+  </si>
+  <si>
+    <t>BH09_FRESQUE</t>
+  </si>
+  <si>
+    <t>HOTELS-2</t>
+  </si>
+  <si>
+    <t>2021-2</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>BV09</t>
+  </si>
+  <si>
+    <t>REHABILITATION LOURDE D’UNE HABITATION</t>
+  </si>
+  <si>
+    <t>Versailles</t>
+  </si>
+  <si>
+    <t>Yvelines</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>440 000</t>
+  </si>
+  <si>
+    <t>PRO, Livraison Février 2022</t>
+  </si>
+  <si>
+    <t>ADT + Anna Saint Pierre</t>
+  </si>
+  <si>
+    <t>Béton de chamotte, réemploi</t>
+  </si>
+  <si>
+    <t>Maison privée</t>
+  </si>
+  <si>
+    <t>BV09-BETON-CHAMOTTE-REEMPLOI.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-9</t>
+  </si>
+  <si>
+    <t>2021-1</t>
+  </si>
+  <si>
+    <t>BETON-4</t>
+  </si>
+  <si>
     <t>VD232</t>
   </si>
   <si>
@@ -100,15 +193,6 @@
     <t>Saint-Denis-En-Val</t>
   </si>
   <si>
-    <t>Loiret</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>350 000</t>
   </si>
   <si>
@@ -118,9 +202,6 @@
     <t>Béton sablé</t>
   </si>
   <si>
-    <t>Maison privée</t>
-  </si>
-  <si>
     <t>Complète + mobilier</t>
   </si>
   <si>
@@ -136,12 +217,6 @@
     <t>SABLE-2</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>AM03</t>
   </si>
   <si>
@@ -328,9 +403,6 @@
     <t>EXTENSION ET RÉHABILITATION D'UNE MAISON FACE À LA LOIRE</t>
   </si>
   <si>
-    <t>Orléans</t>
-  </si>
-  <si>
     <t>200 000</t>
   </si>
   <si>
@@ -427,21 +499,15 @@
     <t>1 300 000</t>
   </si>
   <si>
-    <t>Début chantier Octobre 2020</t>
+    <t>DET, Livraison 2022</t>
   </si>
   <si>
     <t>Granit réemploi</t>
   </si>
   <si>
-    <t>Hôtel</t>
-  </si>
-  <si>
     <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
-    <t>HOTELS-2</t>
-  </si>
-  <si>
     <t>2020-8</t>
   </si>
   <si>
@@ -460,7 +526,7 @@
     <t>1 400 000</t>
   </si>
   <si>
-    <t>Chantier, Livraison Octobre 2020</t>
+    <t>Livré Mars 2021</t>
   </si>
   <si>
     <t>Bois thermo-chauffé</t>
@@ -811,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -834,13 +900,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -865,6 +946,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,6 +970,7 @@
       <rgbColor rgb="ffa7a7a7"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1950,22 +2035,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.0234" style="1" customWidth="1"/>
-    <col min="4" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="66.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="54" style="1" customWidth="1"/>
-    <col min="21" max="26" width="16.3516" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="18" width="16.3516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="66.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="54" style="1" customWidth="1"/>
+    <col min="22" max="27" width="16.3516" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -2047,65 +2130,66 @@
       <c r="Z1" t="s" s="3">
         <v>25</v>
       </c>
+      <c r="AA1" t="s" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K2" s="6">
-        <v>44621</v>
+        <v>44743</v>
       </c>
       <c r="L2" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="M2" t="s" s="4">
         <v>35</v>
       </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="4"/>
       <c r="P2" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="Q2" s="5">
-        <v>170</v>
-      </c>
-      <c r="R2" t="s" s="4">
+      <c r="Q2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="S2" s="5">
-        <v>60</v>
-      </c>
-      <c r="T2" t="s" s="4">
-        <v>37</v>
+      <c r="R2" s="5">
+        <v>150</v>
+      </c>
+      <c r="S2" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="T2" s="5">
+        <v>50</v>
       </c>
       <c r="U2" t="s" s="4">
         <v>38</v>
@@ -2116,17 +2200,18 @@
       <c r="W2" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="X2" t="s" s="4">
-        <v>41</v>
-      </c>
+      <c r="X2" s="4"/>
       <c r="Y2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="Z2" t="s" s="4">
-        <v>42</v>
-      </c>
     </row>
-    <row r="3" ht="35.65" customHeight="1">
+    <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>43</v>
       </c>
@@ -2146,44 +2231,44 @@
         <v>47</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s" s="4">
         <v>48</v>
       </c>
       <c r="J3" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>43405</v>
+        <v>44593</v>
       </c>
       <c r="L3" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" t="s" s="4">
+      <c r="M3" t="s" s="4">
         <v>50</v>
       </c>
+      <c r="N3" s="7"/>
       <c r="O3" t="s" s="4">
         <v>51</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>90</v>
-      </c>
-      <c r="R3" t="s" s="4">
         <v>52</v>
       </c>
-      <c r="S3" s="5">
-        <v>20</v>
-      </c>
-      <c r="T3" t="s" s="4">
-        <v>52</v>
+      <c r="Q3" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="R3" s="5">
+        <v>150</v>
+      </c>
+      <c r="S3" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="T3" s="5">
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="4">
         <v>53</v>
@@ -2195,73 +2280,74 @@
         <v>55</v>
       </c>
       <c r="X3" t="s" s="4">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z3" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="I4" t="s" s="4">
         <v>60</v>
       </c>
       <c r="J4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="6">
-        <v>43983</v>
+        <v>44621</v>
       </c>
       <c r="L4" t="s" s="4">
         <v>61</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" t="s" s="4">
+      <c r="N4" s="7"/>
+      <c r="O4" t="s" s="4">
         <v>62</v>
       </c>
-      <c r="O4" t="s" s="4">
-        <v>51</v>
-      </c>
       <c r="P4" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>185</v>
-      </c>
-      <c r="R4" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="S4" s="5">
-        <v>25</v>
-      </c>
-      <c r="T4" t="s" s="4">
-        <v>63</v>
+      <c r="R4" s="5">
+        <v>170</v>
+      </c>
+      <c r="S4" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="T4" s="5">
+        <v>60</v>
       </c>
       <c r="U4" t="s" s="4">
         <v>64</v>
@@ -2273,141 +2359,153 @@
         <v>66</v>
       </c>
       <c r="X4" t="s" s="4">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z4" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA4" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" ht="46.65" customHeight="1">
+    <row r="5" ht="35.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>72</v>
+      </c>
       <c r="G5" t="s" s="4">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5">
-        <v>500</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="I5" t="s" s="4">
+        <v>73</v>
+      </c>
       <c r="J5" s="5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>43405</v>
+      </c>
+      <c r="L5" t="s" s="4">
+        <v>74</v>
+      </c>
       <c r="M5" s="7"/>
-      <c r="N5" t="s" s="4">
-        <v>71</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" t="s" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>290</v>
-      </c>
-      <c r="R5" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="S5" s="5">
-        <v>50</v>
-      </c>
-      <c r="T5" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R5" s="5">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="T5" s="5">
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="4">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z5" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA5" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="46.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="5">
-        <v>100</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="I6" t="s" s="4">
+        <v>85</v>
+      </c>
       <c r="J6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="6">
-        <v>44105</v>
+        <v>43983</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="N6" t="s" s="4">
         <v>86</v>
       </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" t="s" s="4">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>155</v>
-      </c>
-      <c r="R6" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="S6" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q6" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R6" s="5">
+        <v>185</v>
+      </c>
+      <c r="S6" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="T6" s="5">
         <v>25</v>
-      </c>
-      <c r="T6" t="s" s="4">
-        <v>87</v>
       </c>
       <c r="U6" t="s" s="4">
         <v>88</v>
@@ -2419,71 +2517,64 @@
         <v>90</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z6" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s" s="4">
         <v>94</v>
       </c>
-      <c r="F7" t="s" s="4">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s" s="4">
         <v>95</v>
       </c>
-      <c r="G7" t="s" s="4">
-        <v>31</v>
-      </c>
       <c r="H7" s="5">
-        <v>150</v>
-      </c>
-      <c r="I7" t="s" s="4">
+        <v>500</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" t="s" s="4">
         <v>96</v>
       </c>
-      <c r="J7" s="5">
-        <v>6</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" t="s" s="4">
+      <c r="P7" t="s" s="4">
         <v>97</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" t="s" s="4">
+      <c r="Q7" t="s" s="4">
         <v>98</v>
       </c>
-      <c r="O7" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>220</v>
-      </c>
-      <c r="R7" t="s" s="4">
+      <c r="R7" s="5">
+        <v>290</v>
+      </c>
+      <c r="S7" t="s" s="4">
         <v>99</v>
       </c>
-      <c r="S7" s="5">
-        <v>105</v>
-      </c>
-      <c r="T7" t="s" s="4">
-        <v>99</v>
+      <c r="T7" s="5">
+        <v>50</v>
       </c>
       <c r="U7" t="s" s="4">
         <v>100</v>
@@ -2495,227 +2586,230 @@
         <v>102</v>
       </c>
       <c r="X7" t="s" s="4">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z7" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA7" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s" s="4">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="6">
         <v>44105</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>107</v>
-      </c>
-      <c r="M8" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" t="s" s="4">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>145</v>
-      </c>
-      <c r="R8" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="S8" s="5">
-        <v>30</v>
-      </c>
-      <c r="T8" t="s" s="4">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R8" s="5">
+        <v>155</v>
+      </c>
+      <c r="S8" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="T8" s="5">
+        <v>25</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s" s="4">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA8" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" ht="57.65" customHeight="1">
+    <row r="9" ht="46.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J9" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" t="s" s="4">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" t="s" s="4">
-        <v>119</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" t="s" s="4">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>240</v>
-      </c>
-      <c r="R9" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="S9" s="5">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s" s="4">
-        <v>121</v>
+        <v>52</v>
+      </c>
+      <c r="Q9" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R9" s="5">
+        <v>220</v>
+      </c>
+      <c r="S9" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="T9" s="5">
+        <v>105</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s" s="4">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z9" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA9" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" ht="57.65" customHeight="1">
+    <row r="10" ht="46.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6">
+        <v>44105</v>
+      </c>
+      <c r="L10" t="s" s="4">
+        <v>131</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R10" s="5">
+        <v>145</v>
+      </c>
+      <c r="S10" t="s" s="4">
+        <v>132</v>
+      </c>
+      <c r="T10" s="5">
         <v>30</v>
-      </c>
-      <c r="G10" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5">
-        <v>650</v>
-      </c>
-      <c r="I10" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="J10" s="5">
-        <v>9</v>
-      </c>
-      <c r="K10" s="6">
-        <v>43435</v>
-      </c>
-      <c r="L10" t="s" s="4">
-        <v>128</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" t="s" s="4">
-        <v>129</v>
-      </c>
-      <c r="O10" t="s" s="4">
-        <v>130</v>
-      </c>
-      <c r="P10" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>410</v>
-      </c>
-      <c r="R10" t="s" s="4">
-        <v>131</v>
-      </c>
-      <c r="S10" s="5">
-        <v>60</v>
-      </c>
-      <c r="T10" t="s" s="4">
-        <v>131</v>
       </c>
       <c r="U10" t="s" s="4">
         <v>132</v>
@@ -2727,205 +2821,240 @@
         <v>134</v>
       </c>
       <c r="X10" t="s" s="4">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA10" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="57.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="5">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" t="s" s="4">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" t="s" s="4">
-        <v>139</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" t="s" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>355</v>
-      </c>
-      <c r="R11" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="S11" s="5">
-        <v>100</v>
-      </c>
-      <c r="T11" t="s" s="4">
-        <v>141</v>
+        <v>52</v>
+      </c>
+      <c r="Q11" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="R11" s="5">
+        <v>240</v>
+      </c>
+      <c r="S11" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="T11" s="5">
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s" s="4">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z11" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA11" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="5">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="6">
         <v>43435</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" t="s" s="4">
-        <v>150</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" t="s" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>430</v>
-      </c>
-      <c r="R12" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="S12" s="5">
-        <v>115</v>
-      </c>
-      <c r="T12" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Q12" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R12" s="5">
+        <v>410</v>
+      </c>
+      <c r="S12" t="s" s="4">
+        <v>155</v>
+      </c>
+      <c r="T12" s="5">
+        <v>60</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z12" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA12" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" ht="46.65" customHeight="1">
+    <row r="13" ht="57.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5">
+        <v>660</v>
+      </c>
+      <c r="I13" t="s" s="4">
+        <v>161</v>
+      </c>
       <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>42736</v>
-      </c>
-      <c r="L13" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" t="s" s="4">
+        <v>162</v>
+      </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5">
+      <c r="N13" s="7"/>
+      <c r="O13" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="P13" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R13" s="5">
+        <v>355</v>
+      </c>
+      <c r="S13" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="T13" s="5">
         <v>100</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+      <c r="U13" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="V13" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s" s="4">
+        <v>165</v>
+      </c>
       <c r="X13" t="s" s="4">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="4">
         <v>42</v>
@@ -2933,148 +3062,137 @@
       <c r="Z13" t="s" s="4">
         <v>41</v>
       </c>
+      <c r="AA13" t="s" s="4">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" ht="46.65" customHeight="1">
+    <row r="14" ht="57.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="H14" s="5">
+        <v>720</v>
+      </c>
+      <c r="I14" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="J14" s="5">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6">
+        <v>43435</v>
+      </c>
+      <c r="L14" t="s" s="4">
+        <v>171</v>
+      </c>
       <c r="M14" s="7"/>
-      <c r="N14" t="s" s="4">
-        <v>166</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" t="s" s="4">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5">
-        <v>105</v>
-      </c>
-      <c r="T14" t="s" s="4">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="Q14" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R14" s="5">
+        <v>430</v>
+      </c>
+      <c r="S14" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="T14" s="5">
+        <v>115</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="W14" t="s" s="4">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="X14" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="Y14" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="Y14" t="s" s="4">
-        <v>41</v>
-      </c>
       <c r="Z14" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="46.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="E15" t="s" s="4">
-        <v>174</v>
-      </c>
-      <c r="F15" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
       <c r="K15" s="6">
         <v>42736</v>
       </c>
-      <c r="L15" t="s" s="4">
-        <v>176</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="7"/>
-      <c r="N15" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="P15" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="5">
-        <v>60</v>
-      </c>
-      <c r="T15" t="s" s="4">
-        <v>178</v>
-      </c>
-      <c r="U15" t="s" s="4">
-        <v>179</v>
-      </c>
-      <c r="V15" t="s" s="4">
-        <v>180</v>
-      </c>
-      <c r="W15" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="X15" t="s" s="4">
+      <c r="N15" s="7"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5">
+        <v>100</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="Y15" t="s" s="4">
-        <v>41</v>
-      </c>
       <c r="Z15" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>182</v>
@@ -3083,277 +3201,275 @@
         <v>183</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s" s="4">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5">
-        <v>320</v>
-      </c>
-      <c r="I16" t="s" s="4">
-        <v>106</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H16" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="6">
-        <v>43191</v>
-      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" t="s" s="4">
-        <v>184</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" t="s" s="4">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="5">
-        <v>45</v>
-      </c>
-      <c r="T16" t="s" s="4">
-        <v>185</v>
+        <v>97</v>
+      </c>
+      <c r="Q16" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="5">
+        <v>105</v>
       </c>
       <c r="U16" t="s" s="4">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="V16" t="s" s="4">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="W16" t="s" s="4">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s" s="4">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s" s="4">
         <v>41</v>
       </c>
       <c r="Z16" t="s" s="4">
         <v>42</v>
+      </c>
+      <c r="AA16" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="5">
         <v>110</v>
       </c>
       <c r="I17" t="s" s="4">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6">
+        <v>42736</v>
+      </c>
       <c r="L17" t="s" s="4">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" t="s" s="4">
-        <v>194</v>
-      </c>
+      <c r="N17" s="7"/>
       <c r="O17" t="s" s="4">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="5">
-        <v>40</v>
-      </c>
-      <c r="T17" t="s" s="4">
-        <v>195</v>
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5">
+        <v>60</v>
       </c>
       <c r="U17" t="s" s="4">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="V17" t="s" s="4">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="W17" t="s" s="4">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s" s="4">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s" s="4">
         <v>41</v>
       </c>
       <c r="Z17" t="s" s="4">
         <v>42</v>
+      </c>
+      <c r="AA17" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="46.65" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="5">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6">
-        <v>43282</v>
-      </c>
-      <c r="L18" t="s" s="4">
-        <v>205</v>
-      </c>
+        <v>43191</v>
+      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" t="s" s="4">
+      <c r="N18" s="7"/>
+      <c r="O18" t="s" s="4">
         <v>206</v>
       </c>
-      <c r="O18" t="s" s="4">
+      <c r="P18" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q18" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="5">
+        <v>45</v>
+      </c>
+      <c r="U18" t="s" s="4">
         <v>207</v>
       </c>
-      <c r="P18" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="5">
-        <v>30</v>
-      </c>
-      <c r="T18" t="s" s="4">
+      <c r="V18" t="s" s="4">
         <v>208</v>
       </c>
-      <c r="U18" t="s" s="4">
+      <c r="W18" t="s" s="4">
         <v>209</v>
       </c>
-      <c r="V18" t="s" s="4">
+      <c r="X18" t="s" s="4">
         <v>210</v>
-      </c>
-      <c r="W18" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="X18" t="s" s="4">
-        <v>42</v>
       </c>
       <c r="Y18" t="s" s="4">
         <v>41</v>
       </c>
       <c r="Z18" t="s" s="4">
         <v>42</v>
+      </c>
+      <c r="AA18" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="46.65" customHeight="1">
       <c r="A19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s" s="4">
         <v>212</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s" s="4">
+      <c r="D19" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="D19" t="s" s="4">
-        <v>93</v>
-      </c>
       <c r="E19" t="s" s="4">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="I19" t="s" s="4">
         <v>214</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="6">
-        <v>43709</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" t="s" s="4">
         <v>215</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" t="s" s="4">
+      <c r="N19" s="7"/>
+      <c r="O19" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="O19" t="s" s="4">
-        <v>140</v>
-      </c>
       <c r="P19" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="5">
-        <v>115</v>
-      </c>
-      <c r="T19" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q19" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="5">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="U19" t="s" s="4">
+      <c r="V19" t="s" s="4">
         <v>218</v>
       </c>
-      <c r="V19" t="s" s="4">
+      <c r="W19" t="s" s="4">
         <v>219</v>
       </c>
-      <c r="W19" t="s" s="4">
+      <c r="X19" t="s" s="4">
         <v>220</v>
-      </c>
-      <c r="X19" t="s" s="4">
-        <v>42</v>
       </c>
       <c r="Y19" t="s" s="4">
         <v>41</v>
       </c>
       <c r="Z19" t="s" s="4">
         <v>42</v>
+      </c>
+      <c r="AA19" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="46.65" customHeight="1">
@@ -3370,130 +3486,127 @@
         <v>223</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="5">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="6">
-        <v>43435</v>
+        <v>43282</v>
       </c>
       <c r="L20" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="M20" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="N20" t="s" s="4">
-        <v>225</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20" t="s" s="4">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5">
+        <v>229</v>
+      </c>
+      <c r="Q20" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="5">
         <v>30</v>
       </c>
-      <c r="T20" t="s" s="4">
-        <v>227</v>
-      </c>
       <c r="U20" t="s" s="4">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="V20" t="s" s="4">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="W20" t="s" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="X20" t="s" s="4">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="Y20" t="s" s="4">
         <v>41</v>
       </c>
       <c r="Z20" t="s" s="4">
         <v>42</v>
+      </c>
+      <c r="AA20" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="5">
-        <v>60</v>
+        <v>1020</v>
       </c>
       <c r="I21" t="s" s="4">
         <v>236</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6">
-        <v>43922</v>
+        <v>43709</v>
       </c>
       <c r="L21" t="s" s="4">
         <v>237</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" t="s" s="4">
+      <c r="N21" s="7"/>
+      <c r="O21" t="s" s="4">
         <v>238</v>
       </c>
-      <c r="O21" t="s" s="4">
-        <v>35</v>
-      </c>
       <c r="P21" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="5">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="5">
+        <v>115</v>
+      </c>
+      <c r="U21" t="s" s="4">
         <v>239</v>
       </c>
-      <c r="U21" t="s" s="4">
+      <c r="V21" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="V21" t="s" s="4">
+      <c r="W21" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="W21" t="s" s="4">
+      <c r="X21" t="s" s="4">
         <v>242</v>
-      </c>
-      <c r="X21" t="s" s="4">
-        <v>42</v>
       </c>
       <c r="Y21" t="s" s="4">
         <v>41</v>
@@ -3501,6 +3614,186 @@
       <c r="Z21" t="s" s="4">
         <v>42</v>
       </c>
+      <c r="AA21" t="s" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="46.65" customHeight="1">
+      <c r="A22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C22" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="D22" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="E22" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="H22" s="5">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6">
+        <v>43435</v>
+      </c>
+      <c r="L22" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="P22" t="s" s="4">
+        <v>248</v>
+      </c>
+      <c r="Q22" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="5">
+        <v>30</v>
+      </c>
+      <c r="U22" t="s" s="4">
+        <v>249</v>
+      </c>
+      <c r="V22" t="s" s="4">
+        <v>250</v>
+      </c>
+      <c r="W22" t="s" s="4">
+        <v>251</v>
+      </c>
+      <c r="X22" t="s" s="4">
+        <v>252</v>
+      </c>
+      <c r="Y22" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Z22" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA22" t="s" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="46.65" customHeight="1">
+      <c r="A23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C23" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="D23" t="s" s="4">
+        <v>255</v>
+      </c>
+      <c r="E23" t="s" s="4">
+        <v>256</v>
+      </c>
+      <c r="F23" t="s" s="4">
+        <v>257</v>
+      </c>
+      <c r="G23" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="H23" s="5">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s" s="4">
+        <v>258</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6">
+        <v>43922</v>
+      </c>
+      <c r="L23" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" t="s" s="4">
+        <v>260</v>
+      </c>
+      <c r="P23" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q23" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="5">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s" s="4">
+        <v>261</v>
+      </c>
+      <c r="V23" t="s" s="4">
+        <v>262</v>
+      </c>
+      <c r="W23" t="s" s="4">
+        <v>263</v>
+      </c>
+      <c r="X23" t="s" s="4">
+        <v>264</v>
+      </c>
+      <c r="Y23" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA23" t="s" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" ht="46.65" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>code_projet</t>
   </si>
@@ -175,13 +175,49 @@
     <t>BV09-BETON-CHAMOTTE-REEMPLOI.jpg</t>
   </si>
   <si>
+    <t>MAISONS PRIVÉES-10</t>
+  </si>
+  <si>
+    <t>BETON-4</t>
+  </si>
+  <si>
+    <t>GM08</t>
+  </si>
+  <si>
+    <t>REHABILITATION ET EXTENSION D’UN PAVILLON</t>
+  </si>
+  <si>
+    <t>Lancieux</t>
+  </si>
+  <si>
+    <t>Côtes d'Armor</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>500 000</t>
+  </si>
+  <si>
+    <t>Projet arrêté en phase APD</t>
+  </si>
+  <si>
+    <t>Granit, réemploi</t>
+  </si>
+  <si>
+    <t>GM08-Colonne-granit.jpg</t>
+  </si>
+  <si>
+    <t>GM08-Colonne-granit-bdd.jpg</t>
+  </si>
+  <si>
     <t>MAISONS PRIVÉES-9</t>
   </si>
   <si>
     <t>2021-1</t>
   </si>
   <si>
-    <t>BETON-4</t>
+    <t>GRANIT-2</t>
   </si>
   <si>
     <t>VD232</t>
@@ -2035,7 +2071,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2163,7 +2199,7 @@
         <v>33</v>
       </c>
       <c r="J2" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="6">
         <v>44743</v>
@@ -2240,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="J3" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="6">
         <v>44593</v>
@@ -2277,10 +2313,10 @@
         <v>54</v>
       </c>
       <c r="W3" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s" s="4">
         <v>55</v>
-      </c>
-      <c r="X3" t="s" s="4">
-        <v>56</v>
       </c>
       <c r="Y3" t="s" s="4">
         <v>42</v>
@@ -2294,72 +2330,70 @@
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="4">
+      <c r="D4" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="E4" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="4">
-        <v>30</v>
-      </c>
       <c r="F4" t="s" s="4">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H4" s="5">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" s="5">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>44621</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K4" s="6"/>
       <c r="L4" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s" s="4">
         <v>52</v>
       </c>
       <c r="Q4" t="s" s="4">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="R4" s="5">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="S4" t="s" s="4">
         <v>64</v>
       </c>
       <c r="T4" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s" s="4">
         <v>42</v>
@@ -2371,74 +2405,74 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="35.65" customHeight="1">
+    <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H5" s="5">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>44621</v>
+      </c>
+      <c r="L5" t="s" s="4">
         <v>73</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>43405</v>
-      </c>
-      <c r="L5" t="s" s="4">
-        <v>74</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s" s="4">
         <v>75</v>
       </c>
-      <c r="P5" t="s" s="4">
+      <c r="R5" s="5">
+        <v>170</v>
+      </c>
+      <c r="S5" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="Q5" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="R5" s="5">
-        <v>90</v>
-      </c>
-      <c r="S5" t="s" s="4">
+      <c r="T5" s="5">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="T5" s="5">
-        <v>20</v>
-      </c>
-      <c r="U5" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s" s="4">
+      <c r="W5" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="W5" t="s" s="4">
+      <c r="X5" t="s" s="4">
         <v>79</v>
-      </c>
-      <c r="X5" t="s" s="4">
-        <v>80</v>
       </c>
       <c r="Y5" t="s" s="4">
         <v>42</v>
@@ -2450,18 +2484,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="46.65" customHeight="1">
+    <row r="6" ht="35.65" customHeight="1">
       <c r="A6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="D6" t="s" s="4">
         <v>82</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>70</v>
       </c>
       <c r="E6" t="s" s="4">
         <v>83</v>
@@ -2473,16 +2507,16 @@
         <v>32</v>
       </c>
       <c r="H6" s="5">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s" s="4">
         <v>85</v>
       </c>
       <c r="J6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="6">
-        <v>43983</v>
+        <v>43405</v>
       </c>
       <c r="L6" t="s" s="4">
         <v>86</v>
@@ -2493,31 +2527,31 @@
         <v>87</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="R6" s="5">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T6" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s" s="4">
         <v>42</v>
@@ -2531,50 +2565,60 @@
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>96</v>
+      </c>
       <c r="G7" t="s" s="4">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5">
-        <v>500</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="4">
+        <v>97</v>
+      </c>
       <c r="J7" s="5">
-        <v>5</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>43983</v>
+      </c>
+      <c r="L7" t="s" s="4">
+        <v>98</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" t="s" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s" s="4">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="R7" s="5">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="S7" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T7" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U7" t="s" s="4">
         <v>100</v>
@@ -2611,49 +2655,39 @@
       <c r="D8" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="E8" t="s" s="4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="F8" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s" s="4">
-        <v>32</v>
-      </c>
       <c r="H8" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6">
-        <v>44105</v>
-      </c>
-      <c r="L8" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s" s="4">
         <v>109</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" t="s" s="4">
+      <c r="Q8" t="s" s="4">
         <v>110</v>
       </c>
-      <c r="O8" t="s" s="4">
+      <c r="R8" s="5">
+        <v>290</v>
+      </c>
+      <c r="S8" t="s" s="4">
         <v>111</v>
       </c>
-      <c r="P8" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="Q8" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="R8" s="5">
-        <v>155</v>
-      </c>
-      <c r="S8" t="s" s="4">
-        <v>112</v>
-      </c>
       <c r="T8" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s" s="4">
         <v>112</v>
@@ -2668,7 +2702,7 @@
         <v>115</v>
       </c>
       <c r="Y8" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="s" s="4">
         <v>41</v>
@@ -2700,20 +2734,22 @@
         <v>32</v>
       </c>
       <c r="H9" s="5">
-        <v>150</v>
-      </c>
-      <c r="I9" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6">
+        <v>44105</v>
+      </c>
+      <c r="L9" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="J9" s="5">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" t="s" s="4">
+      <c r="M9" s="4"/>
+      <c r="N9" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
       <c r="O9" t="s" s="4">
         <v>123</v>
       </c>
@@ -2721,16 +2757,16 @@
         <v>52</v>
       </c>
       <c r="Q9" t="s" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="R9" s="5">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="S9" t="s" s="4">
         <v>124</v>
       </c>
       <c r="T9" s="5">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="U9" t="s" s="4">
         <v>124</v>
@@ -2745,7 +2781,7 @@
         <v>127</v>
       </c>
       <c r="Y9" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="4">
         <v>41</v>
@@ -2765,63 +2801,61 @@
         <v>129</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H10" s="5">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J10" s="5">
-        <v>8</v>
-      </c>
-      <c r="K10" s="6">
-        <v>44105</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K10" s="6"/>
       <c r="L10" t="s" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" t="s" s="4">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s" s="4">
         <v>52</v>
       </c>
       <c r="Q10" t="s" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="R10" s="5">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="S10" t="s" s="4">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="T10" s="5">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="s" s="4">
         <v>42</v>
@@ -2833,72 +2867,74 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="57.65" customHeight="1">
+    <row r="11" ht="46.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H11" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J11" s="5">
-        <v>9</v>
-      </c>
-      <c r="K11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="6">
+        <v>44105</v>
+      </c>
       <c r="L11" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" t="s" s="4">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s" s="4">
         <v>52</v>
       </c>
       <c r="Q11" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="R11" s="5">
+        <v>145</v>
+      </c>
+      <c r="S11" t="s" s="4">
         <v>144</v>
       </c>
-      <c r="R11" s="5">
-        <v>240</v>
-      </c>
-      <c r="S11" t="s" s="4">
+      <c r="T11" s="5">
+        <v>30</v>
+      </c>
+      <c r="U11" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="V11" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="T11" s="5">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="V11" t="s" s="4">
+      <c r="W11" t="s" s="4">
         <v>146</v>
       </c>
-      <c r="W11" t="s" s="4">
+      <c r="X11" t="s" s="4">
         <v>147</v>
-      </c>
-      <c r="X11" t="s" s="4">
-        <v>148</v>
       </c>
       <c r="Y11" t="s" s="4">
         <v>42</v>
@@ -2912,72 +2948,70 @@
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s" s="4">
         <v>149</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="4">
+      <c r="D12" t="s" s="4">
         <v>150</v>
       </c>
-      <c r="D12" t="s" s="4">
-        <v>29</v>
-      </c>
       <c r="E12" t="s" s="4">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H12" s="5">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J12" s="5">
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
-        <v>43435</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K12" s="6"/>
       <c r="L12" t="s" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" t="s" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s" s="4">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="R12" s="5">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="S12" t="s" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T12" s="5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="4">
         <v>42</v>
@@ -2991,70 +3025,72 @@
     </row>
     <row r="13" ht="57.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H13" s="5">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" s="5">
-        <v>11</v>
-      </c>
-      <c r="K13" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="6">
+        <v>43435</v>
+      </c>
       <c r="L13" t="s" s="4">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" t="s" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="R13" s="5">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="S13" t="s" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="T13" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V13" t="s" s="4">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="W13" t="s" s="4">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X13" t="s" s="4">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="4">
         <v>42</v>
@@ -3068,66 +3104,64 @@
     </row>
     <row r="14" ht="57.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H14" s="5">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J14" s="5">
-        <v>12</v>
-      </c>
-      <c r="K14" s="6">
-        <v>43435</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="K14" s="6"/>
       <c r="L14" t="s" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" t="s" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s" s="4">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="R14" s="5">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="S14" t="s" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T14" s="5">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="4">
         <v>177</v>
@@ -3145,180 +3179,186 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="46.65" customHeight="1">
+    <row r="15" ht="57.65" customHeight="1">
       <c r="A15" t="s" s="2">
         <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s" s="4">
         <v>180</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="4"/>
+      <c r="D15" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5">
+        <v>720</v>
+      </c>
+      <c r="I15" t="s" s="4">
+        <v>182</v>
+      </c>
       <c r="J15" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K15" s="6">
-        <v>42736</v>
-      </c>
-      <c r="L15" s="4"/>
+        <v>43435</v>
+      </c>
+      <c r="L15" t="s" s="4">
+        <v>183</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="O15" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="P15" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="Q15" t="s" s="4">
+        <v>75</v>
+      </c>
       <c r="R15" s="5">
-        <v>100</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+        <v>430</v>
+      </c>
+      <c r="S15" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="T15" s="5">
+        <v>115</v>
+      </c>
+      <c r="U15" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="V15" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="W15" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="X15" t="s" s="4">
+        <v>190</v>
+      </c>
       <c r="Y15" t="s" s="4">
         <v>42</v>
       </c>
       <c r="Z15" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C16" t="s" s="4">
-        <v>183</v>
-      </c>
-      <c r="D16" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="E16" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s" s="4">
-        <v>186</v>
-      </c>
-      <c r="G16" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s" s="4">
-        <v>187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>42736</v>
+      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" t="s" s="4">
-        <v>188</v>
-      </c>
-      <c r="P16" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="Q16" t="s" s="4">
-        <v>189</v>
-      </c>
-      <c r="R16" s="7"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5">
+        <v>100</v>
+      </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="5">
-        <v>105</v>
-      </c>
-      <c r="U16" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="V16" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="W16" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="X16" t="s" s="4">
-        <v>193</v>
-      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
       <c r="Y16" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="s" s="4">
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>194</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="H17" s="5">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s" s="4">
-        <v>197</v>
-      </c>
+      <c r="H17" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="6">
-        <v>42736</v>
-      </c>
-      <c r="L17" t="s" s="4">
-        <v>198</v>
-      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s" s="4">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
       <c r="T17" s="5">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="U17" t="s" s="4">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V17" t="s" s="4">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W17" t="s" s="4">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s" s="4">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="s" s="4">
         <v>41</v>
@@ -3332,64 +3372,66 @@
     </row>
     <row r="18" ht="46.65" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H18" s="5">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6">
-        <v>43191</v>
-      </c>
-      <c r="L18" s="7"/>
+        <v>42736</v>
+      </c>
+      <c r="L18" t="s" s="4">
+        <v>210</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" t="s" s="4">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s" s="4">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s" s="4">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
       <c r="T18" s="5">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s" s="4">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="V18" t="s" s="4">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="W18" t="s" s="4">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="X18" t="s" s="4">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Y18" t="s" s="4">
         <v>41</v>
@@ -3403,16 +3445,16 @@
     </row>
     <row r="19" ht="46.65" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s" s="4">
         <v>30</v>
@@ -3424,43 +3466,43 @@
         <v>32</v>
       </c>
       <c r="H19" s="5">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="I19" t="s" s="4">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" t="s" s="4">
-        <v>215</v>
-      </c>
+      <c r="K19" s="6">
+        <v>43191</v>
+      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" t="s" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P19" t="s" s="4">
         <v>52</v>
       </c>
       <c r="Q19" t="s" s="4">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
       <c r="T19" s="5">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V19" t="s" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W19" t="s" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="X19" t="s" s="4">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s" s="4">
         <v>41</v>
@@ -3474,36 +3516,34 @@
     </row>
     <row r="20" ht="46.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H20" s="5">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s" s="4">
         <v>226</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="6">
-        <v>43282</v>
-      </c>
+      <c r="K20" s="6"/>
       <c r="L20" t="s" s="4">
         <v>227</v>
       </c>
@@ -3513,27 +3553,27 @@
         <v>228</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s" s="4">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
       <c r="T20" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U20" t="s" s="4">
+        <v>229</v>
+      </c>
+      <c r="V20" t="s" s="4">
         <v>230</v>
       </c>
-      <c r="V20" t="s" s="4">
+      <c r="W20" t="s" s="4">
         <v>231</v>
       </c>
-      <c r="W20" t="s" s="4">
+      <c r="X20" t="s" s="4">
         <v>232</v>
-      </c>
-      <c r="X20" t="s" s="4">
-        <v>233</v>
       </c>
       <c r="Y20" t="s" s="4">
         <v>41</v>
@@ -3547,66 +3587,66 @@
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C21" t="s" s="4">
         <v>234</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C21" t="s" s="4">
+      <c r="D21" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="D21" t="s" s="4">
-        <v>118</v>
-      </c>
       <c r="E21" t="s" s="4">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="G21" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H21" s="5">
-        <v>1020</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6">
-        <v>43709</v>
+        <v>43282</v>
       </c>
       <c r="L21" t="s" s="4">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" t="s" s="4">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P21" t="s" s="4">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="Q21" t="s" s="4">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
       <c r="T21" s="5">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="U21" t="s" s="4">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="V21" t="s" s="4">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="W21" t="s" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X21" t="s" s="4">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y21" t="s" s="4">
         <v>41</v>
@@ -3620,68 +3660,66 @@
     </row>
     <row r="22" ht="46.65" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H22" s="5">
-        <v>150</v>
+        <v>1020</v>
       </c>
       <c r="I22" t="s" s="4">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="6">
-        <v>43435</v>
+        <v>43709</v>
       </c>
       <c r="L22" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" t="s" s="4">
-        <v>110</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22" t="s" s="4">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P22" t="s" s="4">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s" s="4">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
       <c r="T22" s="5">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="U22" t="s" s="4">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V22" t="s" s="4">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W22" t="s" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="X22" t="s" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Y22" t="s" s="4">
         <v>41</v>
@@ -3695,54 +3733,56 @@
     </row>
     <row r="23" ht="46.65" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H23" s="5">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I23" t="s" s="4">
         <v>258</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="6">
-        <v>43922</v>
+        <v>43435</v>
       </c>
       <c r="L23" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" t="s" s="4">
+        <v>122</v>
+      </c>
+      <c r="O23" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" t="s" s="4">
+      <c r="P23" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="P23" t="s" s="4">
-        <v>52</v>
-      </c>
       <c r="Q23" t="s" s="4">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
       <c r="T23" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U23" t="s" s="4">
         <v>261</v>
@@ -3767,33 +3807,106 @@
       </c>
     </row>
     <row r="24" ht="46.65" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4"/>
+      <c r="A24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>266</v>
+      </c>
+      <c r="D24" t="s" s="4">
+        <v>267</v>
+      </c>
+      <c r="E24" t="s" s="4">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s" s="4">
+        <v>269</v>
+      </c>
+      <c r="G24" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="H24" s="5">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s" s="4">
+        <v>270</v>
+      </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="6">
+        <v>43922</v>
+      </c>
+      <c r="L24" t="s" s="4">
+        <v>271</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="O24" t="s" s="4">
+        <v>272</v>
+      </c>
+      <c r="P24" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q24" t="s" s="4">
+        <v>201</v>
+      </c>
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
+      <c r="T24" s="5">
+        <v>20</v>
+      </c>
+      <c r="U24" t="s" s="4">
+        <v>273</v>
+      </c>
+      <c r="V24" t="s" s="4">
+        <v>274</v>
+      </c>
+      <c r="W24" t="s" s="4">
+        <v>275</v>
+      </c>
+      <c r="X24" t="s" s="4">
+        <v>276</v>
+      </c>
+      <c r="Y24" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Z24" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA24" t="s" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" ht="46.65" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -94,6 +94,60 @@
     <t>in_db</t>
   </si>
   <si>
+    <t>GM08</t>
+  </si>
+  <si>
+    <t>REHABILITATION ET EXTENSION D’UN PAVILLON</t>
+  </si>
+  <si>
+    <t>Lancieux</t>
+  </si>
+  <si>
+    <t>Côtes d'Armor</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>500 000</t>
+  </si>
+  <si>
+    <t>Projet arrêté en phase APD</t>
+  </si>
+  <si>
+    <t>Granit, réemploi</t>
+  </si>
+  <si>
+    <t>Maison privée</t>
+  </si>
+  <si>
+    <t>Complète + OPC + Mobilier</t>
+  </si>
+  <si>
+    <t>GM08-Colonne-granit.jpg</t>
+  </si>
+  <si>
+    <t>GM08-Colonne-granit-bdd.jpg</t>
+  </si>
+  <si>
+    <t>MAISONS PRIVÉES-9</t>
+  </si>
+  <si>
+    <t>2021-1</t>
+  </si>
+  <si>
+    <t>GRANIT-2</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>BH09</t>
   </si>
   <si>
@@ -109,9 +163,6 @@
     <t>45</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>830 000</t>
   </si>
   <si>
@@ -121,12 +172,12 @@
     <t>ADT</t>
   </si>
   <si>
+    <t>À définir</t>
+  </si>
+  <si>
     <t>Hôtel</t>
   </si>
   <si>
-    <t>Complète + OPC + Mobilier</t>
-  </si>
-  <si>
     <t>BH09_FRESQUE</t>
   </si>
   <si>
@@ -136,12 +187,6 @@
     <t>2021-2</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>BV09</t>
   </si>
   <si>
@@ -169,9 +214,6 @@
     <t>Béton de chamotte, réemploi</t>
   </si>
   <si>
-    <t>Maison privée</t>
-  </si>
-  <si>
     <t>BV09-BETON-CHAMOTTE-REEMPLOI.jpg</t>
   </si>
   <si>
@@ -181,45 +223,6 @@
     <t>BETON-4</t>
   </si>
   <si>
-    <t>GM08</t>
-  </si>
-  <si>
-    <t>REHABILITATION ET EXTENSION D’UN PAVILLON</t>
-  </si>
-  <si>
-    <t>Lancieux</t>
-  </si>
-  <si>
-    <t>Côtes d'Armor</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>500 000</t>
-  </si>
-  <si>
-    <t>Projet arrêté en phase APD</t>
-  </si>
-  <si>
-    <t>Granit, réemploi</t>
-  </si>
-  <si>
-    <t>GM08-Colonne-granit.jpg</t>
-  </si>
-  <si>
-    <t>GM08-Colonne-granit-bdd.jpg</t>
-  </si>
-  <si>
-    <t>MAISONS PRIVÉES-9</t>
-  </si>
-  <si>
-    <t>2021-1</t>
-  </si>
-  <si>
-    <t>GRANIT-2</t>
-  </si>
-  <si>
     <t>VD232</t>
   </si>
   <si>
@@ -605,9 +608,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Côtes d'Armor</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>10000</t>
@@ -2193,7 +2193,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="5">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s" s="4">
         <v>33</v>
@@ -2201,17 +2201,15 @@
       <c r="J2" s="5">
         <v>15</v>
       </c>
-      <c r="K2" s="6">
-        <v>44743</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="4"/>
       <c r="P2" t="s" s="4">
         <v>36</v>
       </c>
@@ -2219,210 +2217,214 @@
         <v>37</v>
       </c>
       <c r="R2" s="5">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="S2" t="s" s="4">
         <v>38</v>
       </c>
       <c r="T2" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="X2" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="X2" t="s" s="4">
+        <v>42</v>
+      </c>
       <c r="Y2" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H3" s="5">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" s="5">
         <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>44593</v>
+        <v>44743</v>
       </c>
       <c r="L3" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s" s="4">
         <v>37</v>
       </c>
       <c r="R3" s="5">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="S3" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="X3" t="s" s="4">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X3" s="4"/>
       <c r="Y3" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>32</v>
       </c>
       <c r="H4" s="5">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" s="5">
         <v>13</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>44593</v>
+      </c>
       <c r="L4" t="s" s="4">
-        <v>62</v>
-      </c>
-      <c r="M4" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="M4" t="s" s="4">
+        <v>65</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" t="s" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s" s="4">
         <v>37</v>
       </c>
       <c r="R4" s="5">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="S4" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T4" s="5">
         <v>40</v>
       </c>
       <c r="U4" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V4" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s" s="4">
         <v>32</v>
@@ -2431,7 +2433,7 @@
         <v>200</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
@@ -2440,68 +2442,68 @@
         <v>44621</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" s="5">
         <v>170</v>
       </c>
       <c r="S5" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" s="5">
         <v>60</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="35.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>32</v>
@@ -2510,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
@@ -2519,68 +2521,68 @@
         <v>43405</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" s="5">
         <v>90</v>
       </c>
       <c r="S6" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T6" s="5">
         <v>20</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V6" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>32</v>
@@ -2589,7 +2591,7 @@
         <v>78</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" s="5">
         <v>4</v>
@@ -2598,67 +2600,67 @@
         <v>43983</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" s="5">
         <v>185</v>
       </c>
       <c r="S7" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T7" s="5">
         <v>25</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V7" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W7" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H8" s="5">
         <v>500</v>
@@ -2672,63 +2674,63 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R8" s="5">
         <v>290</v>
       </c>
       <c r="S8" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T8" s="5">
         <v>50</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W8" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z8" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="46.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s" s="4">
         <v>32</v>
@@ -2744,70 +2746,70 @@
         <v>44105</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" s="5">
         <v>155</v>
       </c>
       <c r="S9" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T9" s="5">
         <v>25</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V9" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W9" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="46.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s" s="4">
         <v>32</v>
@@ -2816,75 +2818,75 @@
         <v>150</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" s="5">
         <v>220</v>
       </c>
       <c r="S10" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T10" s="5">
         <v>105</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X10" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y10" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="46.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="4">
         <v>32</v>
@@ -2893,7 +2895,7 @@
         <v>50</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J11" s="5">
         <v>8</v>
@@ -2902,68 +2904,68 @@
         <v>44105</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" s="5">
         <v>145</v>
       </c>
       <c r="S11" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T11" s="5">
         <v>30</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z11" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s" s="4">
         <v>32</v>
@@ -2972,75 +2974,75 @@
         <v>200</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R12" s="5">
         <v>240</v>
       </c>
       <c r="S12" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" s="5">
         <v>75</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z12" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="57.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="4">
         <v>32</v>
@@ -3049,7 +3051,7 @@
         <v>650</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J13" s="5">
         <v>10</v>
@@ -3058,68 +3060,68 @@
         <v>43435</v>
       </c>
       <c r="L13" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" s="5">
         <v>410</v>
       </c>
       <c r="S13" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T13" s="5">
         <v>60</v>
       </c>
       <c r="U13" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V13" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W13" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X13" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="57.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s" s="4">
         <v>32</v>
@@ -3128,75 +3130,75 @@
         <v>660</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J14" s="5">
         <v>11</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" s="5">
         <v>355</v>
       </c>
       <c r="S14" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T14" s="5">
         <v>100</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X14" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y14" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z14" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="57.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="4">
         <v>32</v>
@@ -3205,7 +3207,7 @@
         <v>720</v>
       </c>
       <c r="I15" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J15" s="5">
         <v>12</v>
@@ -3214,56 +3216,56 @@
         <v>43435</v>
       </c>
       <c r="L15" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P15" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R15" s="5">
         <v>430</v>
       </c>
       <c r="S15" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T15" s="5">
         <v>115</v>
       </c>
       <c r="U15" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W15" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X15" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y15" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z15" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3294,33 +3296,33 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z16" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA16" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s" s="4">
         <v>32</v>
@@ -3338,7 +3340,7 @@
         <v>200</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" t="s" s="4">
         <v>201</v>
@@ -3361,13 +3363,13 @@
         <v>205</v>
       </c>
       <c r="Y17" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA17" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="46.65" customHeight="1">
@@ -3378,7 +3380,7 @@
         <v>206</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s" s="4">
         <v>207</v>
@@ -3387,7 +3389,7 @@
         <v>208</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="4">
         <v>32</v>
@@ -3411,10 +3413,10 @@
         <v>211</v>
       </c>
       <c r="P18" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
@@ -3434,13 +3436,13 @@
         <v>215</v>
       </c>
       <c r="Y18" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA18" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="46.65" customHeight="1">
@@ -3454,13 +3456,13 @@
         <v>217</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="4">
         <v>32</v>
@@ -3469,7 +3471,7 @@
         <v>320</v>
       </c>
       <c r="I19" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="6">
@@ -3482,7 +3484,7 @@
         <v>218</v>
       </c>
       <c r="P19" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s" s="4">
         <v>201</v>
@@ -3505,13 +3507,13 @@
         <v>222</v>
       </c>
       <c r="Y19" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA19" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="46.65" customHeight="1">
@@ -3528,10 +3530,10 @@
         <v>225</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="4">
         <v>32</v>
@@ -3553,10 +3555,10 @@
         <v>228</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
@@ -3576,13 +3578,13 @@
         <v>232</v>
       </c>
       <c r="Y20" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA20" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="46.65" customHeight="1">
@@ -3649,13 +3651,13 @@
         <v>245</v>
       </c>
       <c r="Y21" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA21" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="46.65" customHeight="1">
@@ -3669,13 +3671,13 @@
         <v>247</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s" s="4">
         <v>32</v>
@@ -3699,10 +3701,10 @@
         <v>250</v>
       </c>
       <c r="P22" t="s" s="4">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
@@ -3722,13 +3724,13 @@
         <v>254</v>
       </c>
       <c r="Y22" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA22" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="46.65" customHeight="1">
@@ -3745,10 +3747,10 @@
         <v>257</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s" s="4">
         <v>32</v>
@@ -3764,11 +3766,11 @@
         <v>43435</v>
       </c>
       <c r="L23" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O23" t="s" s="4">
         <v>259</v>
@@ -3777,7 +3779,7 @@
         <v>260</v>
       </c>
       <c r="Q23" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
@@ -3797,13 +3799,13 @@
         <v>264</v>
       </c>
       <c r="Y23" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA23" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="46.65" customHeight="1">
@@ -3847,7 +3849,7 @@
         <v>272</v>
       </c>
       <c r="P24" t="s" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s" s="4">
         <v>201</v>
@@ -3870,13 +3872,13 @@
         <v>276</v>
       </c>
       <c r="Y24" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA24" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="46.65" customHeight="1">

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>code_projet</t>
   </si>
@@ -43,6 +43,9 @@
     <t>classement_page_projets</t>
   </si>
   <si>
+    <t>classement_page_bdd</t>
+  </si>
+  <si>
     <t>livraison_YYYY-MM-DD</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>hauteur_page_bdd_px</t>
   </si>
   <si>
+    <t>nom_fichier_page_new_bdd</t>
+  </si>
+  <si>
     <t>nom_fichier_page_bdd</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>GM08-Colonne-granit.jpg</t>
   </si>
   <si>
+    <t>05-GM08.jpg</t>
+  </si>
+  <si>
     <t>GM08-Colonne-granit-bdd.jpg</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>BH09_FRESQUE</t>
   </si>
   <si>
+    <t>03_Projet-Hemicycle.jpg</t>
+  </si>
+  <si>
     <t>HOTELS-2</t>
   </si>
   <si>
@@ -217,6 +229,9 @@
     <t>BV09-BETON-CHAMOTTE-REEMPLOI.jpg</t>
   </si>
   <si>
+    <t>04-BV09.jpg</t>
+  </si>
+  <si>
     <t>MAISONS PRIVÉES-10</t>
   </si>
   <si>
@@ -466,7 +481,7 @@
     <t>CONSTRUCTION D’UNE MAISON EN FORÊT DE FONTAINEBLEAU</t>
   </si>
   <si>
-    <t>Noisy-sur-Ecole</t>
+    <t>Noisy-sur-École</t>
   </si>
   <si>
     <t>Seine et Marne</t>
@@ -490,6 +505,9 @@
     <t>00-VG14-COM-CAROTTE.jpg</t>
   </si>
   <si>
+    <t>04-VG14-COM-ATELIERDELALANDETABOURIN.jpg</t>
+  </si>
+  <si>
     <t>MAISONS PRIVÉES-8</t>
   </si>
   <si>
@@ -520,6 +538,9 @@
     <t>00-BE69-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
+    <t>04-BE69-COM.jpg</t>
+  </si>
+  <si>
     <t>BUREAUX-2</t>
   </si>
   <si>
@@ -547,6 +568,9 @@
     <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
+    <t>04-GL11-COM-ATELIERDELALANDETABOURIN.jpg</t>
+  </si>
+  <si>
     <t>2020-8</t>
   </si>
   <si>
@@ -577,6 +601,9 @@
     <t>00-EB12-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
+    <t>04-EB12-COM-ATELIERDELALANDETABOURIN.jpg</t>
+  </si>
+  <si>
     <t>00-EB12-COM-BDD.jpg</t>
   </si>
   <si>
@@ -664,7 +691,7 @@
     <t>VH16</t>
   </si>
   <si>
-    <t>CONSTRUCTION D’UNE MAISON PRIVéE</t>
+    <t>CONSTRUCTION D’UNE MAISON PRIVÉE</t>
   </si>
   <si>
     <t>Enduit balayé</t>
@@ -771,6 +798,9 @@
   </si>
   <si>
     <t>Granit</t>
+  </si>
+  <si>
+    <t>00-COM-AUTRESPROJETS-ATELIERDELALANDETABOURIN.jpg</t>
   </si>
   <si>
     <t>HD11-granit-BASEDEDONNEES.jpg</t>
@@ -859,7 +889,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -883,6 +913,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -957,7 +997,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -980,6 +1020,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2071,7 +2120,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2079,12 +2128,12 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="18" width="16.3516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="66.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="54" style="1" customWidth="1"/>
-    <col min="22" max="27" width="16.3516" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="19" width="16.3516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="66.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.3516" style="1" customWidth="1"/>
+    <col min="22" max="23" width="54" style="1" customWidth="1"/>
+    <col min="24" max="29" width="16.3516" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -2169,498 +2218,528 @@
       <c r="AA1" t="s" s="3">
         <v>26</v>
       </c>
+      <c r="AB1" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" s="5">
         <v>240</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5">
         <v>15</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="M2" s="7"/>
+      <c r="K2" s="5">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" t="s" s="4">
+        <v>36</v>
+      </c>
       <c r="N2" s="7"/>
-      <c r="O2" t="s" s="4">
-        <v>35</v>
-      </c>
+      <c r="O2" s="7"/>
       <c r="P2" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="R2" s="5">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5">
         <v>390</v>
       </c>
-      <c r="S2" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="T2" s="5">
+      <c r="T2" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="U2" t="s" s="4">
-        <v>39</v>
+      <c r="U2" s="5">
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC2" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="5">
         <v>750</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3" s="5">
         <v>14</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6">
         <v>44743</v>
       </c>
-      <c r="L3" t="s" s="4">
-        <v>51</v>
-      </c>
       <c r="M3" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" t="s" s="4">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="N3" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="O3" s="7"/>
       <c r="P3" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="R3" s="5">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="S3" s="5">
         <v>380</v>
       </c>
-      <c r="S3" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="T3" s="5">
+      <c r="T3" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="U3" s="5">
         <v>50</v>
       </c>
-      <c r="U3" t="s" s="4">
-        <v>55</v>
-      </c>
       <c r="V3" t="s" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="X3" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="X3" t="s" s="4">
+        <v>60</v>
+      </c>
       <c r="Y3" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="Z3" t="s" s="4">
-        <v>44</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="Z3" s="4"/>
       <c r="AA3" t="s" s="4">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="AB3" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC3" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="5">
         <v>300</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" s="5">
         <v>13</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
         <v>44593</v>
       </c>
-      <c r="L4" t="s" s="4">
-        <v>64</v>
-      </c>
       <c r="M4" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" t="s" s="4">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="N4" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="O4" s="7"/>
       <c r="P4" t="s" s="4">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="R4" s="5">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="S4" s="5">
         <v>290</v>
       </c>
-      <c r="S4" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="T4" s="5">
+      <c r="T4" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="U4" s="5">
         <v>40</v>
       </c>
-      <c r="U4" t="s" s="4">
-        <v>67</v>
-      </c>
       <c r="V4" t="s" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="4">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="4">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="Z4" t="s" s="4">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC4" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="5">
         <v>200</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7"/>
+      <c r="L5" s="6">
         <v>44621</v>
       </c>
-      <c r="L5" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="M5" s="7"/>
+      <c r="M5" t="s" s="4">
+        <v>79</v>
+      </c>
       <c r="N5" s="7"/>
-      <c r="O5" t="s" s="4">
-        <v>75</v>
-      </c>
+      <c r="O5" s="7"/>
       <c r="P5" t="s" s="4">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R5" s="5">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S5" s="5">
         <v>170</v>
       </c>
-      <c r="S5" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="T5" s="5">
+      <c r="T5" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="U5" s="5">
         <v>60</v>
       </c>
-      <c r="U5" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s" s="4">
-        <v>78</v>
-      </c>
+      <c r="V5" s="4"/>
       <c r="W5" t="s" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s" s="4">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="Z5" t="s" s="4">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC5" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="35.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5">
         <v>90</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7"/>
+      <c r="L6" s="6">
         <v>43405</v>
       </c>
-      <c r="L6" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="M6" s="7"/>
+      <c r="M6" t="s" s="4">
+        <v>92</v>
+      </c>
       <c r="N6" s="7"/>
-      <c r="O6" t="s" s="4">
-        <v>88</v>
-      </c>
+      <c r="O6" s="7"/>
       <c r="P6" t="s" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R6" s="5">
+        <v>94</v>
+      </c>
+      <c r="R6" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S6" s="5">
         <v>90</v>
       </c>
-      <c r="S6" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="T6" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="U6" s="5">
         <v>20</v>
       </c>
-      <c r="U6" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="V6" t="s" s="4">
-        <v>91</v>
-      </c>
+      <c r="V6" s="4"/>
       <c r="W6" t="s" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s" s="4">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="Z6" t="s" s="4">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="AA6" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB6" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC6" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5">
         <v>78</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7"/>
+      <c r="L7" s="6">
         <v>43983</v>
       </c>
-      <c r="L7" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="M7" s="7"/>
+      <c r="M7" t="s" s="4">
+        <v>104</v>
+      </c>
       <c r="N7" s="7"/>
-      <c r="O7" t="s" s="4">
-        <v>100</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" t="s" s="4">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="Q7" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R7" s="5">
+        <v>94</v>
+      </c>
+      <c r="R7" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S7" s="5">
         <v>185</v>
       </c>
-      <c r="S7" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="T7" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="U7" s="5">
         <v>25</v>
       </c>
-      <c r="U7" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="V7" t="s" s="4">
-        <v>102</v>
-      </c>
+      <c r="V7" s="4"/>
       <c r="W7" t="s" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s" s="4">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="Z7" t="s" s="4">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AA7" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC7" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" t="s" s="4">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H8" s="5">
         <v>500</v>
@@ -2669,71 +2748,73 @@
       <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="7"/>
-      <c r="O8" t="s" s="4">
-        <v>109</v>
-      </c>
+      <c r="O8" s="7"/>
       <c r="P8" t="s" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s" s="4">
-        <v>111</v>
-      </c>
-      <c r="R8" s="5">
+        <v>115</v>
+      </c>
+      <c r="R8" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="S8" s="5">
         <v>290</v>
       </c>
-      <c r="S8" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="T8" t="s" s="4">
+        <v>117</v>
+      </c>
+      <c r="U8" s="5">
         <v>50</v>
       </c>
-      <c r="U8" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="V8" t="s" s="4">
-        <v>114</v>
-      </c>
+      <c r="V8" s="4"/>
       <c r="W8" t="s" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X8" t="s" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y8" t="s" s="4">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="Z8" t="s" s="4">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="AA8" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC8" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="46.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5">
         <v>100</v>
@@ -2742,530 +2823,560 @@
       <c r="J9" s="5">
         <v>6</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7"/>
+      <c r="L9" s="6">
         <v>44105</v>
       </c>
-      <c r="L9" t="s" s="4">
-        <v>122</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" t="s" s="4">
-        <v>123</v>
-      </c>
+      <c r="M9" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" t="s" s="4">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="Q9" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R9" s="5">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S9" s="5">
         <v>155</v>
       </c>
-      <c r="S9" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="T9" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="U9" s="5">
         <v>25</v>
       </c>
-      <c r="U9" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="V9" t="s" s="4">
-        <v>126</v>
-      </c>
+      <c r="V9" s="4"/>
       <c r="W9" t="s" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X9" t="s" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y9" t="s" s="4">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="Z9" t="s" s="4">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AA9" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB9" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC9" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="46.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5">
         <v>150</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="M10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" t="s" s="4">
+        <v>140</v>
+      </c>
       <c r="N10" s="7"/>
-      <c r="O10" t="s" s="4">
-        <v>136</v>
-      </c>
+      <c r="O10" s="7"/>
       <c r="P10" t="s" s="4">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="Q10" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R10" s="5">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S10" s="5">
         <v>220</v>
       </c>
-      <c r="S10" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="T10" s="5">
+      <c r="T10" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="U10" s="5">
         <v>105</v>
       </c>
-      <c r="U10" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="V10" t="s" s="4">
-        <v>138</v>
-      </c>
+      <c r="V10" s="4"/>
       <c r="W10" t="s" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="X10" t="s" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Y10" t="s" s="4">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="AA10" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC10" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="46.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5">
         <v>50</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>143</v>
-      </c>
-      <c r="J11" s="5">
+        <v>148</v>
+      </c>
+      <c r="J11" s="8">
         <v>8</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7"/>
+      <c r="L11" s="6">
         <v>44105</v>
       </c>
-      <c r="L11" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="M11" s="7"/>
+      <c r="M11" t="s" s="4">
+        <v>149</v>
+      </c>
       <c r="N11" s="7"/>
-      <c r="O11" t="s" s="4">
-        <v>75</v>
-      </c>
+      <c r="O11" s="7"/>
       <c r="P11" t="s" s="4">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R11" s="5">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S11" s="5">
         <v>145</v>
       </c>
-      <c r="S11" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="T11" s="5">
+      <c r="T11" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="U11" s="5">
         <v>30</v>
       </c>
-      <c r="U11" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="V11" t="s" s="4">
-        <v>146</v>
-      </c>
+      <c r="V11" s="9"/>
       <c r="W11" t="s" s="4">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X11" t="s" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="4">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="4">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC11" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" s="5">
         <v>200</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" t="s" s="4">
-        <v>155</v>
-      </c>
-      <c r="M12" s="7"/>
+      <c r="K12" s="5">
+        <v>7</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" t="s" s="4">
+        <v>160</v>
+      </c>
       <c r="N12" s="7"/>
-      <c r="O12" t="s" s="4">
-        <v>156</v>
-      </c>
+      <c r="O12" s="7"/>
       <c r="P12" t="s" s="4">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="R12" s="5">
+        <v>38</v>
+      </c>
+      <c r="R12" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="S12" s="5">
         <v>240</v>
       </c>
-      <c r="S12" t="s" s="4">
-        <v>158</v>
-      </c>
-      <c r="T12" s="5">
+      <c r="T12" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="U12" s="5">
         <v>75</v>
       </c>
-      <c r="U12" t="s" s="4">
-        <v>158</v>
-      </c>
       <c r="V12" t="s" s="4">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Y12" t="s" s="4">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="Z12" t="s" s="4">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="AA12" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB12" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC12" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="57.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" s="5">
         <v>650</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J13" s="5">
         <v>10</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6">
         <v>43435</v>
       </c>
-      <c r="L13" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="M13" s="7"/>
+      <c r="M13" t="s" s="4">
+        <v>171</v>
+      </c>
       <c r="N13" s="7"/>
-      <c r="O13" t="s" s="4">
-        <v>166</v>
-      </c>
+      <c r="O13" s="7"/>
       <c r="P13" t="s" s="4">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q13" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R13" s="5">
+        <v>173</v>
+      </c>
+      <c r="R13" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S13" s="5">
         <v>410</v>
       </c>
-      <c r="S13" t="s" s="4">
-        <v>168</v>
-      </c>
-      <c r="T13" s="5">
+      <c r="T13" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="U13" s="5">
         <v>60</v>
       </c>
-      <c r="U13" t="s" s="4">
-        <v>168</v>
-      </c>
       <c r="V13" t="s" s="4">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="W13" t="s" s="4">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="X13" t="s" s="4">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y13" t="s" s="4">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="Z13" t="s" s="4">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="AA13" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC13" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="57.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14" s="5">
         <v>660</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J14" s="5">
         <v>11</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="M14" s="7"/>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" t="s" s="4">
+        <v>182</v>
+      </c>
       <c r="N14" s="7"/>
-      <c r="O14" t="s" s="4">
-        <v>176</v>
-      </c>
+      <c r="O14" s="7"/>
       <c r="P14" t="s" s="4">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="Q14" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R14" s="5">
+        <v>57</v>
+      </c>
+      <c r="R14" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S14" s="5">
         <v>355</v>
       </c>
-      <c r="S14" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="T14" s="5">
+      <c r="T14" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="U14" s="5">
         <v>100</v>
       </c>
-      <c r="U14" t="s" s="4">
-        <v>177</v>
-      </c>
       <c r="V14" t="s" s="4">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="W14" t="s" s="4">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X14" t="s" s="4">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="Y14" t="s" s="4">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="Z14" t="s" s="4">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="AA14" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB14" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC14" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="57.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" s="5">
         <v>720</v>
       </c>
       <c r="I15" t="s" s="4">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J15" s="5">
         <v>12</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
         <v>43435</v>
       </c>
-      <c r="L15" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="M15" s="7"/>
+      <c r="M15" t="s" s="4">
+        <v>192</v>
+      </c>
       <c r="N15" s="7"/>
-      <c r="O15" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="P15" t="s" s="4">
-        <v>186</v>
+      <c r="O15" s="7"/>
+      <c r="P15" t="s" s="10">
+        <v>193</v>
       </c>
       <c r="Q15" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R15" s="5">
+        <v>194</v>
+      </c>
+      <c r="R15" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S15" s="5">
         <v>430</v>
       </c>
-      <c r="S15" t="s" s="4">
-        <v>187</v>
-      </c>
-      <c r="T15" s="5">
+      <c r="T15" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="U15" s="5">
         <v>115</v>
       </c>
-      <c r="U15" t="s" s="4">
-        <v>188</v>
-      </c>
       <c r="V15" t="s" s="4">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="W15" t="s" s="4">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="X15" t="s" s="4">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Y15" t="s" s="4">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="Z15" t="s" s="4">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AA15" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="AC15" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3277,614 +3388,636 @@
       <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7"/>
+      <c r="L16" s="6">
         <v>42736</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="5">
+      <c r="R16" s="4"/>
+      <c r="S16" s="5">
         <v>100</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="Z16" t="s" s="4">
-        <v>43</v>
-      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
       <c r="AA16" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="AB16" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s" s="4">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" t="s" s="4">
-        <v>200</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" t="s" s="4">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="Q17" t="s" s="4">
-        <v>201</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="5">
+        <v>115</v>
+      </c>
+      <c r="R17" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5">
         <v>105</v>
       </c>
-      <c r="U17" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="V17" t="s" s="4">
-        <v>203</v>
-      </c>
+      <c r="V17" s="4"/>
       <c r="W17" t="s" s="4">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="X17" t="s" s="4">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Y17" t="s" s="4">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="Z17" t="s" s="4">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="AA17" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB17" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC17" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="46.65" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18" s="5">
         <v>110</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="6">
+      <c r="K18" s="7"/>
+      <c r="L18" s="6">
         <v>42736</v>
       </c>
-      <c r="L18" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="M18" t="s" s="4">
+        <v>219</v>
+      </c>
       <c r="N18" s="7"/>
-      <c r="O18" t="s" s="4">
-        <v>211</v>
-      </c>
+      <c r="O18" s="7"/>
       <c r="P18" t="s" s="4">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="Q18" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="5">
+        <v>94</v>
+      </c>
+      <c r="R18" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5">
         <v>60</v>
       </c>
-      <c r="U18" t="s" s="4">
-        <v>212</v>
-      </c>
-      <c r="V18" t="s" s="4">
-        <v>213</v>
-      </c>
+      <c r="V18" s="4"/>
       <c r="W18" t="s" s="4">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X18" t="s" s="4">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Y18" t="s" s="4">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="Z18" t="s" s="4">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="AA18" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB18" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC18" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="46.65" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="5">
         <v>320</v>
       </c>
       <c r="I19" t="s" s="4">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="6">
+      <c r="K19" s="7"/>
+      <c r="L19" s="6">
         <v>43191</v>
       </c>
-      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" t="s" s="4">
-        <v>218</v>
-      </c>
+      <c r="O19" s="7"/>
       <c r="P19" t="s" s="4">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="Q19" t="s" s="4">
-        <v>201</v>
-      </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="5">
+        <v>38</v>
+      </c>
+      <c r="R19" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="5">
         <v>45</v>
       </c>
-      <c r="U19" t="s" s="4">
-        <v>219</v>
-      </c>
-      <c r="V19" t="s" s="4">
-        <v>220</v>
-      </c>
+      <c r="V19" s="4"/>
       <c r="W19" t="s" s="4">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="X19" t="s" s="4">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Y19" t="s" s="4">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Z19" t="s" s="4">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="AA19" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB19" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC19" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="46.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5">
         <v>110</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" t="s" s="4">
+        <v>236</v>
+      </c>
       <c r="N20" s="7"/>
-      <c r="O20" t="s" s="4">
-        <v>228</v>
-      </c>
+      <c r="O20" s="7"/>
       <c r="P20" t="s" s="4">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="Q20" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="5">
+        <v>38</v>
+      </c>
+      <c r="R20" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5">
         <v>40</v>
       </c>
-      <c r="U20" t="s" s="4">
-        <v>229</v>
-      </c>
-      <c r="V20" t="s" s="4">
-        <v>230</v>
-      </c>
+      <c r="V20" s="4"/>
       <c r="W20" t="s" s="4">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="X20" t="s" s="4">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Y20" t="s" s="4">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Z20" t="s" s="4">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="AA20" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB20" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC20" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" s="5">
         <v>170</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="6">
+      <c r="K21" s="7"/>
+      <c r="L21" s="6">
         <v>43282</v>
       </c>
-      <c r="L21" t="s" s="4">
-        <v>239</v>
-      </c>
-      <c r="M21" s="7"/>
+      <c r="M21" t="s" s="4">
+        <v>248</v>
+      </c>
       <c r="N21" s="7"/>
-      <c r="O21" t="s" s="4">
-        <v>240</v>
-      </c>
+      <c r="O21" s="7"/>
       <c r="P21" t="s" s="4">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q21" t="s" s="4">
-        <v>201</v>
-      </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="5">
+        <v>250</v>
+      </c>
+      <c r="R21" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="5">
         <v>30</v>
       </c>
-      <c r="U21" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="V21" t="s" s="4">
-        <v>243</v>
-      </c>
+      <c r="V21" s="4"/>
       <c r="W21" t="s" s="4">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="X21" t="s" s="4">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Y21" t="s" s="4">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="Z21" t="s" s="4">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="AA21" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB21" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="46.65" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" s="5">
         <v>1020</v>
       </c>
       <c r="I22" t="s" s="4">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
+        <v>8</v>
+      </c>
+      <c r="L22" s="6">
         <v>43709</v>
       </c>
-      <c r="L22" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="M22" s="7"/>
+      <c r="M22" t="s" s="4">
+        <v>258</v>
+      </c>
       <c r="N22" s="7"/>
-      <c r="O22" t="s" s="4">
-        <v>250</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" t="s" s="4">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="Q22" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="5">
+        <v>57</v>
+      </c>
+      <c r="R22" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5">
         <v>115</v>
       </c>
-      <c r="U22" t="s" s="4">
-        <v>251</v>
-      </c>
       <c r="V22" t="s" s="4">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="W22" t="s" s="4">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="X22" t="s" s="4">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Y22" t="s" s="4">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Z22" t="s" s="4">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="AA22" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB22" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC22" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="46.65" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23" s="5">
         <v>150</v>
       </c>
       <c r="I23" t="s" s="4">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="J23" s="7"/>
-      <c r="K23" s="6">
+      <c r="K23" s="7"/>
+      <c r="L23" s="6">
         <v>43435</v>
       </c>
-      <c r="L23" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" t="s" s="4">
-        <v>123</v>
-      </c>
+      <c r="M23" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" t="s" s="4">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="P23" t="s" s="4">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q23" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="R23" s="7"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="5">
+        <v>270</v>
+      </c>
+      <c r="R23" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="5">
         <v>30</v>
       </c>
-      <c r="U23" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="V23" t="s" s="4">
-        <v>262</v>
-      </c>
+      <c r="V23" s="4"/>
       <c r="W23" t="s" s="4">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="X23" t="s" s="4">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Y23" t="s" s="4">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="Z23" t="s" s="4">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="AA23" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB23" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="46.65" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F24" t="s" s="4">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G24" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24" s="5">
         <v>60</v>
       </c>
       <c r="I24" t="s" s="4">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="6">
+      <c r="K24" s="7"/>
+      <c r="L24" s="6">
         <v>43922</v>
       </c>
-      <c r="L24" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="M24" s="7"/>
+      <c r="M24" t="s" s="4">
+        <v>281</v>
+      </c>
       <c r="N24" s="7"/>
-      <c r="O24" t="s" s="4">
-        <v>272</v>
-      </c>
+      <c r="O24" s="7"/>
       <c r="P24" t="s" s="4">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="Q24" t="s" s="4">
-        <v>201</v>
-      </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="5">
+        <v>38</v>
+      </c>
+      <c r="R24" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="5">
         <v>20</v>
       </c>
-      <c r="U24" t="s" s="4">
-        <v>273</v>
-      </c>
-      <c r="V24" t="s" s="4">
-        <v>274</v>
-      </c>
+      <c r="V24" s="4"/>
       <c r="W24" t="s" s="4">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="X24" t="s" s="4">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Y24" t="s" s="4">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="Z24" t="s" s="4">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="AA24" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="AB24" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="46.65" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3892,23 +4025,25 @@
       <c r="H25" s="7"/>
       <c r="I25" s="4"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -3832,7 +3832,9 @@
       <c r="R22" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="5">
+        <v>240</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="5">
         <v>115</v>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t>code_projet</t>
   </si>
@@ -22,6 +22,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>description_bdd</t>
+  </si>
+  <si>
     <t>ville</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>pays</t>
   </si>
   <si>
+    <t>client</t>
+  </si>
+  <si>
     <t>surface_m2</t>
   </si>
   <si>
@@ -61,12 +67,18 @@
     <t>matiere</t>
   </si>
   <si>
+    <t>matiere_long</t>
+  </si>
+  <si>
     <t>fonction</t>
   </si>
   <si>
     <t>mission</t>
   </si>
   <si>
+    <t>mission_long</t>
+  </si>
+  <si>
     <t>hauteur_page_projets_px</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t>REHABILITATION ET EXTENSION D’UN PAVILLON</t>
   </si>
   <si>
+    <t>Réhabilitation lourde d’une habitation</t>
+  </si>
+  <si>
     <t>Lancieux</t>
   </si>
   <si>
@@ -121,18 +136,24 @@
     <t>500 000</t>
   </si>
   <si>
-    <t>Projet arrêté en phase APD</t>
+    <t>APD, Projet arreté</t>
   </si>
   <si>
     <t>Granit, réemploi</t>
   </si>
   <si>
+    <t>Granit, réemploi des rebuts d’une carrière locale.</t>
+  </si>
+  <si>
     <t>Maison privée</t>
   </si>
   <si>
     <t>Complète + OPC + Mobilier</t>
   </si>
   <si>
+    <t>Mission complète loi MOP+OPC+Mobilier</t>
+  </si>
+  <si>
     <t>GM08-Colonne-granit.jpg</t>
   </si>
   <si>
@@ -163,6 +184,9 @@
     <t>RÉNOVATION  DE L’HEMICYCLE DE L’HÔTEL DE LA REGION CENTRE-VAL DE LOIRE</t>
   </si>
   <si>
+    <t>Rénovation de l’Hémicycle de l’Hôtel de Région</t>
+  </si>
+  <si>
     <t>Orléans</t>
   </si>
   <si>
@@ -172,10 +196,13 @@
     <t>45</t>
   </si>
   <si>
+    <t>Région Centre-Val de Loire</t>
+  </si>
+  <si>
     <t>830 000</t>
   </si>
   <si>
-    <t>DIAG, Livraison Juillet 2022</t>
+    <t>DIAG, Livraison Janvier 2022</t>
   </si>
   <si>
     <t>ADT</t>
@@ -184,6 +211,9 @@
     <t>À définir</t>
   </si>
   <si>
+    <t>Matière à définir</t>
+  </si>
+  <si>
     <t>Hôtel</t>
   </si>
   <si>
@@ -217,15 +247,21 @@
     <t>440 000</t>
   </si>
   <si>
-    <t>PRO, Livraison Février 2022</t>
+    <t>DET, Livraison Février 2022</t>
   </si>
   <si>
     <t>ADT + Anna Saint Pierre</t>
   </si>
   <si>
+    <t>Collaboration avec Anna Saint-Pierre, chercheuse en réemploi</t>
+  </si>
+  <si>
     <t>Béton de chamotte, réemploi</t>
   </si>
   <si>
+    <t>Béton chamotté, réemploi de coproduits d’une briqueterie francilienne.</t>
+  </si>
+  <si>
     <t>BV09-BETON-CHAMOTTE-REEMPLOI.jpg</t>
   </si>
   <si>
@@ -481,6 +517,9 @@
     <t>CONSTRUCTION D’UNE MAISON EN FORÊT DE FONTAINEBLEAU</t>
   </si>
   <si>
+    <t>Construction d’une maison passive en fôret</t>
+  </si>
+  <si>
     <t>Noisy-sur-École</t>
   </si>
   <si>
@@ -493,15 +532,18 @@
     <t>600 000</t>
   </si>
   <si>
-    <t>Finalistes du concours BAM Architecture</t>
-  </si>
-  <si>
     <t>Pierre de Souppes</t>
   </si>
   <si>
+    <t>Pierre de Souppes et bois thermo-chauffé.</t>
+  </si>
+  <si>
     <t>Complète</t>
   </si>
   <si>
+    <t>Finalistes concours BAM Architecture</t>
+  </si>
+  <si>
     <t>00-VG14-COM-CAROTTE.jpg</t>
   </si>
   <si>
@@ -523,6 +565,12 @@
     <t>RÉHABILITATION ET EXTENSION D'UN IMMEUBLE DE BUREAUX POUR LE GROUPE EALIS</t>
   </si>
   <si>
+    <t>Réhabilitation et extension de bureaux</t>
+  </si>
+  <si>
+    <t>Groupe Ealis</t>
+  </si>
+  <si>
     <t>1 800 000</t>
   </si>
   <si>
@@ -532,6 +580,9 @@
     <t>Acier</t>
   </si>
   <si>
+    <t>Acier, identité visuelle du client.</t>
+  </si>
+  <si>
     <t>Bureau</t>
   </si>
   <si>
@@ -556,15 +607,24 @@
     <t>EXTENSION ET TRANSFORMATION D’UN HOTEL EN IMMEUBLE DE LOGEMENTS</t>
   </si>
   <si>
+    <t>Extension et transformation d’un hôtel en logements</t>
+  </si>
+  <si>
+    <t>SADIM</t>
+  </si>
+  <si>
     <t>1 300 000</t>
   </si>
   <si>
-    <t>DET, Livraison 2022</t>
+    <t>DET, Livraison Janvier 2022</t>
   </si>
   <si>
     <t>Granit réemploi</t>
   </si>
   <si>
+    <t>Mission complète loi MOP+Mobilier</t>
+  </si>
+  <si>
     <t>00-GL11-COM-MATIERECAROTTE.jpg</t>
   </si>
   <si>
@@ -583,9 +643,15 @@
     <t>EXTENSION ET REHABILITATION DU SIEGE DE L’ENTREPRISE BARILLET</t>
   </si>
   <si>
+    <t>Réhabilitation et extension des bureaux</t>
+  </si>
+  <si>
     <t>Chateauneuf-sur-Loire</t>
   </si>
   <si>
+    <t>Société d’Exploitation Forestière Barillet</t>
+  </si>
+  <si>
     <t>1 400 000</t>
   </si>
   <si>
@@ -593,6 +659,9 @@
   </si>
   <si>
     <t>Bois thermo-chauffé</t>
+  </si>
+  <si>
+    <t>Bois, circuit-cout, utilisation des matières du client.</t>
   </si>
   <si>
     <t>Bureaux</t>
@@ -791,10 +860,13 @@
     <t>REHABILITATION ET EXTENSION D’UN HOTEL 4*</t>
   </si>
   <si>
+    <t>Réhabilitation d’un hôtel 4*</t>
+  </si>
+  <si>
     <t>3 500 000</t>
   </si>
   <si>
-    <t>DCE, Livraison 2021</t>
+    <t>ACT, Projet arreté</t>
   </si>
   <si>
     <t>Granit</t>
@@ -1013,13 +1085,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2120,7 +2192,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2128,12 +2200,12 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="66.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="23" width="54" style="1" customWidth="1"/>
-    <col min="24" max="29" width="16.3516" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="23" width="16.3516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="66.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
+    <col min="26" max="27" width="54" style="1" customWidth="1"/>
+    <col min="28" max="33" width="16.3516" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -2224,1796 +2296,1956 @@
       <c r="AC1" t="s" s="3">
         <v>28</v>
       </c>
+      <c r="AD1" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6">
         <v>240</v>
       </c>
-      <c r="I2" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="K2" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="L2" s="6">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6">
         <v>6</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" t="s" s="4">
-        <v>36</v>
-      </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
       <c r="R2" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="S2" s="5">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="W2" s="6">
         <v>390</v>
       </c>
-      <c r="T2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="U2" s="5">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s" s="4">
-        <v>42</v>
-      </c>
       <c r="X2" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>100</v>
       </c>
       <c r="Z2" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="s" s="4">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="AE2" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF2" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="J3" s="6">
         <v>750</v>
       </c>
-      <c r="I3" t="s" s="4">
+      <c r="K3" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7">
+        <v>44743</v>
+      </c>
+      <c r="O3" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="W3" s="6">
+        <v>380</v>
+      </c>
+      <c r="X3" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="AA3" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="AC3" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF3" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="J3" s="5">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5">
-        <v>4</v>
-      </c>
-      <c r="L3" s="6">
-        <v>44743</v>
-      </c>
-      <c r="M3" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="R3" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="S3" s="5">
-        <v>380</v>
-      </c>
-      <c r="T3" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="U3" s="5">
-        <v>50</v>
-      </c>
-      <c r="V3" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="W3" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="X3" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="Y3" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="AB3" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="s" s="4">
-        <v>46</v>
+      <c r="AG3" t="s" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H4" s="5">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
         <v>300</v>
       </c>
-      <c r="I4" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="K4" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="L4" s="6">
         <v>13</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="6">
         <v>5</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="7">
         <v>44593</v>
       </c>
-      <c r="M4" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="N4" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="O4" s="7"/>
+      <c r="O4" t="s" s="4">
+        <v>78</v>
+      </c>
       <c r="P4" t="s" s="4">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s" s="4">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="S4" s="5">
-        <v>290</v>
+        <v>81</v>
+      </c>
+      <c r="S4" t="s" s="4">
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="W4" s="6">
+        <v>210</v>
+      </c>
+      <c r="X4" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>110</v>
+      </c>
+      <c r="Z4" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="AB4" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="AC4" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="U4" s="5">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s" s="4">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="Z4" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="AA4" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="AB4" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="AC4" t="s" s="4">
-        <v>47</v>
+      <c r="AD4" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="AE4" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF4" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG4" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s" s="4">
-        <v>77</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" t="s" s="4">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
         <v>200</v>
       </c>
-      <c r="I5" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="K5" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="L5" s="6">
         <v>2</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6">
+      <c r="M5" s="5"/>
+      <c r="N5" s="7">
         <v>44621</v>
       </c>
-      <c r="M5" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="Q5" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O5" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
       <c r="R5" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S5" s="5">
+        <v>92</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="6">
         <v>170</v>
       </c>
-      <c r="T5" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="X5" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="6">
         <v>60</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="X5" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="Y5" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="Z5" t="s" s="4">
-        <v>85</v>
-      </c>
+      <c r="Z5" s="4"/>
       <c r="AA5" t="s" s="4">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s" s="4">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s" s="4">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="AD5" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="AE5" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF5" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG5" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="35.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>88</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" t="s" s="4">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
         <v>90</v>
       </c>
-      <c r="G6" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="K6" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="7">
+        <v>43405</v>
+      </c>
+      <c r="O6" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="U6" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6">
         <v>90</v>
       </c>
-      <c r="I6" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="J6" s="5">
-        <v>3</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6">
-        <v>43405</v>
-      </c>
-      <c r="M6" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="Q6" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="R6" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S6" s="5">
-        <v>90</v>
-      </c>
-      <c r="T6" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="U6" s="5">
+      <c r="X6" t="s" s="4">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="6">
         <v>20</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="X6" t="s" s="4">
-        <v>96</v>
-      </c>
-      <c r="Y6" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="Z6" t="s" s="4">
-        <v>98</v>
-      </c>
+      <c r="Z6" s="4"/>
       <c r="AA6" t="s" s="4">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AB6" t="s" s="4">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="AC6" t="s" s="4">
-        <v>47</v>
+        <v>109</v>
+      </c>
+      <c r="AD6" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="AE6" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF6" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG6" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" t="s" s="4">
         <v>100</v>
       </c>
-      <c r="D7" t="s" s="4">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>101</v>
-      </c>
       <c r="F7" t="s" s="4">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H7" s="5">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6">
         <v>78</v>
       </c>
-      <c r="I7" t="s" s="4">
-        <v>103</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="K7" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="L7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6">
+      <c r="M7" s="5"/>
+      <c r="N7" s="7">
         <v>43983</v>
       </c>
-      <c r="M7" t="s" s="4">
-        <v>104</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="Q7" t="s" s="4">
-        <v>94</v>
-      </c>
+      <c r="O7" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S7" s="5">
-        <v>185</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6">
+        <v>185</v>
+      </c>
+      <c r="X7" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="Y7" s="6">
         <v>25</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="X7" t="s" s="4">
-        <v>107</v>
-      </c>
-      <c r="Y7" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="Z7" t="s" s="4">
-        <v>109</v>
-      </c>
+      <c r="Z7" s="4"/>
       <c r="AA7" t="s" s="4">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s" s="4">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="AC7" t="s" s="4">
-        <v>47</v>
+        <v>120</v>
+      </c>
+      <c r="AD7" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="AE7" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF7" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG7" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s" s="4">
+        <v>124</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="4"/>
+      <c r="H8" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6">
         <v>500</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5">
+      <c r="K8" s="4"/>
+      <c r="L8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="Q8" t="s" s="4">
-        <v>115</v>
-      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" t="s" s="4">
-        <v>116</v>
-      </c>
-      <c r="S8" s="5">
+        <v>126</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="U8" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6">
         <v>290</v>
       </c>
-      <c r="T8" t="s" s="4">
-        <v>117</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="X8" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="Y8" s="6">
         <v>50</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" t="s" s="4">
-        <v>118</v>
-      </c>
-      <c r="X8" t="s" s="4">
-        <v>119</v>
-      </c>
-      <c r="Y8" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="Z8" t="s" s="4">
-        <v>121</v>
-      </c>
+      <c r="Z8" s="4"/>
       <c r="AA8" t="s" s="4">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="s" s="4">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="AC8" t="s" s="4">
-        <v>47</v>
+        <v>132</v>
+      </c>
+      <c r="AD8" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="AE8" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF8" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG8" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="46.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>124</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" t="s" s="4">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H9" s="5">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6">
         <v>100</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5">
+      <c r="K9" s="4"/>
+      <c r="L9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6">
+      <c r="M9" s="5"/>
+      <c r="N9" s="7">
         <v>44105</v>
       </c>
-      <c r="M9" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="N9" s="4"/>
       <c r="O9" t="s" s="4">
-        <v>128</v>
-      </c>
-      <c r="P9" t="s" s="4">
-        <v>129</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P9" s="4"/>
       <c r="Q9" t="s" s="4">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="R9" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S9" s="5">
+        <v>141</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6">
         <v>155</v>
       </c>
-      <c r="T9" t="s" s="4">
-        <v>130</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="X9" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="Y9" s="6">
         <v>25</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" t="s" s="4">
-        <v>130</v>
-      </c>
-      <c r="X9" t="s" s="4">
-        <v>131</v>
-      </c>
-      <c r="Y9" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="Z9" t="s" s="4">
-        <v>133</v>
-      </c>
+      <c r="Z9" s="4"/>
       <c r="AA9" t="s" s="4">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="AB9" t="s" s="4">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="AC9" t="s" s="4">
-        <v>47</v>
+        <v>144</v>
+      </c>
+      <c r="AD9" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="AE9" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF9" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG9" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="46.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>136</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" t="s" s="4">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H10" s="5">
         <v>150</v>
       </c>
-      <c r="I10" t="s" s="4">
-        <v>139</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="H10" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6">
+        <v>150</v>
+      </c>
+      <c r="K10" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="L10" s="6">
         <v>7</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" t="s" s="4">
-        <v>140</v>
-      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="Q10" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O10" t="s" s="4">
+        <v>152</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
       <c r="R10" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S10" s="5">
+        <v>153</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6">
         <v>220</v>
       </c>
-      <c r="T10" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="X10" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="Y10" s="6">
         <v>105</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="X10" t="s" s="4">
-        <v>143</v>
-      </c>
-      <c r="Y10" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="Z10" t="s" s="4">
-        <v>145</v>
-      </c>
+      <c r="Z10" s="4"/>
       <c r="AA10" t="s" s="4">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="AB10" t="s" s="4">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="AC10" t="s" s="4">
-        <v>47</v>
+        <v>156</v>
+      </c>
+      <c r="AD10" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="AE10" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF10" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="46.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="D11" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6">
         <v>50</v>
       </c>
-      <c r="E11" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H11" s="5">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="K11" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="L11" s="8">
         <v>8</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6">
+      <c r="M11" s="5"/>
+      <c r="N11" s="7">
         <v>44105</v>
       </c>
-      <c r="M11" t="s" s="4">
-        <v>149</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="Q11" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O11" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
       <c r="R11" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S11" s="5">
+        <v>92</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U11" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6">
         <v>145</v>
       </c>
-      <c r="T11" t="s" s="4">
-        <v>150</v>
-      </c>
-      <c r="U11" s="5">
+      <c r="X11" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="Y11" s="6">
         <v>30</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" t="s" s="4">
-        <v>150</v>
-      </c>
-      <c r="X11" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="Y11" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="Z11" t="s" s="4">
-        <v>153</v>
-      </c>
+      <c r="Z11" s="9"/>
       <c r="AA11" t="s" s="4">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="AB11" t="s" s="4">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="AC11" t="s" s="4">
-        <v>47</v>
+        <v>164</v>
+      </c>
+      <c r="AD11" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="AE11" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF11" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG11" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H12" s="5">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6">
         <v>200</v>
       </c>
-      <c r="I12" t="s" s="4">
-        <v>159</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="K12" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="L12" s="6">
         <v>9</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="6">
         <v>7</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" t="s" s="4">
-        <v>160</v>
-      </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="Q12" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="R12" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="S12" s="5">
+        <v>173</v>
+      </c>
+      <c r="S12" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="T12" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="V12" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="W12" s="6">
         <v>240</v>
       </c>
-      <c r="T12" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="U12" s="5">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="W12" t="s" s="4">
-        <v>163</v>
-      </c>
       <c r="X12" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="Y12" t="s" s="4">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>90</v>
       </c>
       <c r="Z12" t="s" s="4">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AA12" t="s" s="4">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="AB12" t="s" s="4">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="AC12" t="s" s="4">
-        <v>47</v>
+        <v>180</v>
+      </c>
+      <c r="AD12" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="AE12" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF12" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG12" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="57.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H13" s="5">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="J13" s="6">
         <v>650</v>
       </c>
-      <c r="I13" t="s" s="4">
-        <v>170</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="K13" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="L13" s="6">
         <v>10</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="6">
         <v>2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="N13" s="7">
         <v>43435</v>
       </c>
-      <c r="M13" t="s" s="4">
-        <v>171</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="Q13" t="s" s="4">
-        <v>173</v>
-      </c>
+      <c r="O13" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S13" s="5">
+        <v>188</v>
+      </c>
+      <c r="S13" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="T13" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="U13" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V13" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="W13" s="6">
         <v>410</v>
       </c>
-      <c r="T13" t="s" s="4">
-        <v>174</v>
-      </c>
-      <c r="U13" s="5">
-        <v>60</v>
-      </c>
-      <c r="V13" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="W13" t="s" s="4">
-        <v>174</v>
-      </c>
       <c r="X13" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="Y13" t="s" s="4">
-        <v>177</v>
+        <v>191</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>125</v>
       </c>
       <c r="Z13" t="s" s="4">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AA13" t="s" s="4">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="AB13" t="s" s="4">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="AC13" t="s" s="4">
-        <v>47</v>
+        <v>194</v>
+      </c>
+      <c r="AD13" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="AE13" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF13" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG13" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="57.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="J14" s="6">
         <v>660</v>
       </c>
-      <c r="I14" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="K14" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="L14" s="6">
         <v>11</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="6">
         <v>3</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" t="s" s="4">
-        <v>182</v>
-      </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" t="s" s="4">
-        <v>183</v>
-      </c>
-      <c r="Q14" t="s" s="4">
-        <v>57</v>
-      </c>
+      <c r="O14" t="s" s="4">
+        <v>201</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S14" s="5">
+        <v>202</v>
+      </c>
+      <c r="S14" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="U14" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V14" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="W14" s="6">
         <v>355</v>
       </c>
-      <c r="T14" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="U14" s="5">
-        <v>100</v>
-      </c>
-      <c r="V14" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="W14" t="s" s="4">
-        <v>184</v>
-      </c>
       <c r="X14" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="Y14" t="s" s="4">
-        <v>186</v>
+        <v>204</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>110</v>
       </c>
       <c r="Z14" t="s" s="4">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AA14" t="s" s="4">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="AB14" t="s" s="4">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s" s="4">
-        <v>47</v>
+        <v>206</v>
+      </c>
+      <c r="AD14" t="s" s="4">
+        <v>207</v>
+      </c>
+      <c r="AE14" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF14" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG14" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="15" ht="57.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H15" s="5">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="J15" s="6">
         <v>720</v>
       </c>
-      <c r="I15" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="J15" s="5">
-        <v>12</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="K15" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="L15" s="6">
+        <v>14</v>
+      </c>
+      <c r="M15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="6">
+      <c r="N15" s="7">
         <v>43435</v>
       </c>
-      <c r="M15" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" t="s" s="10">
-        <v>193</v>
-      </c>
-      <c r="Q15" t="s" s="4">
-        <v>194</v>
-      </c>
-      <c r="R15" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="O15" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" t="s" s="10">
+        <v>215</v>
+      </c>
+      <c r="S15" t="s" s="4">
+        <v>216</v>
+      </c>
+      <c r="T15" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="U15" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V15" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="W15" s="6">
         <v>430</v>
       </c>
-      <c r="T15" t="s" s="4">
-        <v>195</v>
-      </c>
-      <c r="U15" s="5">
-        <v>115</v>
-      </c>
-      <c r="V15" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="W15" t="s" s="4">
-        <v>197</v>
-      </c>
       <c r="X15" t="s" s="4">
-        <v>198</v>
-      </c>
-      <c r="Y15" t="s" s="4">
-        <v>199</v>
+        <v>218</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>140</v>
       </c>
       <c r="Z15" t="s" s="4">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AA15" t="s" s="4">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="s" s="4">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="AC15" t="s" s="4">
-        <v>47</v>
+        <v>222</v>
+      </c>
+      <c r="AD15" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="AE15" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF15" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AG15" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6">
+      <c r="M16" s="5"/>
+      <c r="N16" s="7">
         <v>42736</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="5">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6">
         <v>100</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="Y16" s="5"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="AB16" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="AC16" t="s" s="4">
-        <v>46</v>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AF16" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG16" t="s" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>205</v>
-      </c>
-      <c r="D17" t="s" s="4">
-        <v>206</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" t="s" s="4">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="G17" t="s" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s" s="4">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
+      <c r="J17" t="s" s="4">
+        <v>231</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" t="s" s="4">
-        <v>209</v>
-      </c>
-      <c r="Q17" t="s" s="4">
-        <v>115</v>
-      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="5">
+        <v>232</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="U17" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="6">
         <v>105</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="X17" t="s" s="4">
-        <v>212</v>
-      </c>
-      <c r="Y17" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="Z17" t="s" s="4">
-        <v>214</v>
-      </c>
+      <c r="Z17" s="4"/>
       <c r="AA17" t="s" s="4">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="AB17" t="s" s="4">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="AC17" t="s" s="4">
-        <v>47</v>
+        <v>236</v>
+      </c>
+      <c r="AD17" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="AE17" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF17" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG17" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="46.65" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s" s="4">
-        <v>216</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" t="s" s="4">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H18" s="5">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6">
         <v>110</v>
       </c>
-      <c r="I18" t="s" s="4">
-        <v>218</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6">
+      <c r="K18" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="7">
         <v>42736</v>
       </c>
-      <c r="M18" t="s" s="4">
-        <v>219</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" t="s" s="4">
-        <v>220</v>
-      </c>
-      <c r="Q18" t="s" s="4">
-        <v>94</v>
-      </c>
+      <c r="O18" t="s" s="4">
+        <v>242</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="5">
+        <v>243</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="U18" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="6">
         <v>60</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" t="s" s="4">
-        <v>221</v>
-      </c>
-      <c r="X18" t="s" s="4">
-        <v>222</v>
-      </c>
-      <c r="Y18" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="Z18" t="s" s="4">
-        <v>224</v>
-      </c>
+      <c r="Z18" s="4"/>
       <c r="AA18" t="s" s="4">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="AB18" t="s" s="4">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="AC18" t="s" s="4">
-        <v>47</v>
+        <v>246</v>
+      </c>
+      <c r="AD18" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="AE18" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF18" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG18" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="46.65" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D19" t="s" s="4">
-        <v>50</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" t="s" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H19" s="5">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6">
         <v>320</v>
       </c>
-      <c r="I19" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6">
+      <c r="K19" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="7">
         <v>43191</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="Q19" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="5">
+        <v>250</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U19" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="6">
         <v>45</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" t="s" s="4">
-        <v>228</v>
-      </c>
-      <c r="X19" t="s" s="4">
-        <v>229</v>
-      </c>
-      <c r="Y19" t="s" s="4">
-        <v>230</v>
-      </c>
-      <c r="Z19" t="s" s="4">
-        <v>231</v>
-      </c>
+      <c r="Z19" s="4"/>
       <c r="AA19" t="s" s="4">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="AB19" t="s" s="4">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="AC19" t="s" s="4">
-        <v>47</v>
+        <v>253</v>
+      </c>
+      <c r="AD19" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="AE19" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF19" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG19" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="46.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>233</v>
-      </c>
-      <c r="D20" t="s" s="4">
-        <v>234</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" t="s" s="4">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H20" s="5">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6">
         <v>110</v>
       </c>
-      <c r="I20" t="s" s="4">
-        <v>235</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" t="s" s="4">
-        <v>236</v>
-      </c>
+      <c r="K20" t="s" s="4">
+        <v>258</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="Q20" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O20" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="5">
+        <v>260</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U20" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="6">
         <v>40</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" t="s" s="4">
-        <v>238</v>
-      </c>
-      <c r="X20" t="s" s="4">
-        <v>239</v>
-      </c>
-      <c r="Y20" t="s" s="4">
-        <v>240</v>
-      </c>
-      <c r="Z20" t="s" s="4">
-        <v>241</v>
-      </c>
+      <c r="Z20" s="4"/>
       <c r="AA20" t="s" s="4">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="AB20" t="s" s="4">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="AC20" t="s" s="4">
-        <v>47</v>
+        <v>263</v>
+      </c>
+      <c r="AD20" t="s" s="4">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF20" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG20" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="46.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="D21" t="s" s="4">
-        <v>244</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" t="s" s="4">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G21" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H21" s="5">
+        <v>269</v>
+      </c>
+      <c r="H21" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6">
         <v>170</v>
       </c>
-      <c r="I21" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6">
+      <c r="K21" t="s" s="4">
+        <v>270</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="7">
         <v>43282</v>
       </c>
-      <c r="M21" t="s" s="4">
-        <v>248</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="Q21" t="s" s="4">
-        <v>250</v>
-      </c>
+      <c r="O21" t="s" s="4">
+        <v>271</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
       <c r="R21" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="5">
+        <v>272</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" t="s" s="4">
+        <v>273</v>
+      </c>
+      <c r="U21" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="6">
         <v>30</v>
       </c>
-      <c r="V21" s="4"/>
-      <c r="W21" t="s" s="4">
-        <v>251</v>
-      </c>
-      <c r="X21" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="Y21" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="Z21" t="s" s="4">
-        <v>254</v>
-      </c>
+      <c r="Z21" s="4"/>
       <c r="AA21" t="s" s="4">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="AB21" t="s" s="4">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AC21" t="s" s="4">
-        <v>47</v>
+        <v>276</v>
+      </c>
+      <c r="AD21" t="s" s="4">
+        <v>277</v>
+      </c>
+      <c r="AE21" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF21" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG21" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="46.65" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1020</v>
+        <v>150</v>
+      </c>
+      <c r="H22" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5">
+        <v>199</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1010</v>
+      </c>
+      <c r="K22" t="s" s="4">
+        <v>281</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6">
         <v>8</v>
       </c>
-      <c r="L22" s="6">
+      <c r="N22" s="7">
         <v>43709</v>
       </c>
-      <c r="M22" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" t="s" s="4">
-        <v>259</v>
-      </c>
-      <c r="Q22" t="s" s="4">
-        <v>57</v>
-      </c>
+      <c r="O22" t="s" s="4">
+        <v>282</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
       <c r="R22" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="S22" s="5">
+        <v>283</v>
+      </c>
+      <c r="S22" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="U22" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="V22" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="W22" s="6">
         <v>240</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="5">
-        <v>115</v>
-      </c>
-      <c r="V22" t="s" s="4">
-        <v>260</v>
-      </c>
-      <c r="W22" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="X22" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="Y22" t="s" s="4">
-        <v>263</v>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="6">
+        <v>100</v>
       </c>
       <c r="Z22" t="s" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AA22" t="s" s="4">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="AB22" t="s" s="4">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="AC22" t="s" s="4">
-        <v>47</v>
+        <v>287</v>
+      </c>
+      <c r="AD22" t="s" s="4">
+        <v>288</v>
+      </c>
+      <c r="AE22" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF22" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG22" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="46.65" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>266</v>
-      </c>
-      <c r="D23" t="s" s="4">
-        <v>267</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" t="s" s="4">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H23" s="5">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6">
         <v>150</v>
       </c>
-      <c r="I23" t="s" s="4">
-        <v>268</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6">
+      <c r="K23" t="s" s="4">
+        <v>292</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="7">
         <v>43435</v>
       </c>
-      <c r="M23" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="N23" s="4"/>
       <c r="O23" t="s" s="4">
-        <v>128</v>
-      </c>
-      <c r="P23" t="s" s="4">
-        <v>269</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P23" s="4"/>
       <c r="Q23" t="s" s="4">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="R23" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="5">
+        <v>293</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" t="s" s="4">
+        <v>294</v>
+      </c>
+      <c r="U23" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="6">
         <v>30</v>
       </c>
-      <c r="V23" s="4"/>
-      <c r="W23" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="X23" t="s" s="4">
-        <v>272</v>
-      </c>
-      <c r="Y23" t="s" s="4">
-        <v>273</v>
-      </c>
-      <c r="Z23" t="s" s="4">
-        <v>274</v>
-      </c>
+      <c r="Z23" s="4"/>
       <c r="AA23" t="s" s="4">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="AB23" t="s" s="4">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="AC23" t="s" s="4">
-        <v>47</v>
+        <v>297</v>
+      </c>
+      <c r="AD23" t="s" s="4">
+        <v>298</v>
+      </c>
+      <c r="AE23" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF23" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG23" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="46.65" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>276</v>
-      </c>
-      <c r="D24" t="s" s="4">
-        <v>277</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" t="s" s="4">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="F24" t="s" s="4">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="G24" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="H24" s="5">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
         <v>60</v>
       </c>
-      <c r="I24" t="s" s="4">
-        <v>280</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6">
+      <c r="K24" t="s" s="4">
+        <v>304</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="7">
         <v>43922</v>
       </c>
-      <c r="M24" t="s" s="4">
-        <v>281</v>
-      </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" t="s" s="4">
-        <v>282</v>
-      </c>
-      <c r="Q24" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="O24" t="s" s="4">
+        <v>305</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
       <c r="R24" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5">
+        <v>306</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="U24" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="6">
         <v>20</v>
       </c>
-      <c r="V24" s="4"/>
-      <c r="W24" t="s" s="4">
-        <v>283</v>
-      </c>
-      <c r="X24" t="s" s="4">
-        <v>284</v>
-      </c>
-      <c r="Y24" t="s" s="4">
-        <v>285</v>
-      </c>
-      <c r="Z24" t="s" s="4">
-        <v>286</v>
-      </c>
+      <c r="Z24" s="4"/>
       <c r="AA24" t="s" s="4">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="AB24" t="s" s="4">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="AC24" t="s" s="4">
-        <v>47</v>
+        <v>309</v>
+      </c>
+      <c r="AD24" t="s" s="4">
+        <v>310</v>
+      </c>
+      <c r="AE24" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="AF24" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="AG24" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="46.65" customHeight="1">
@@ -4024,28 +4256,32 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="7"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="Y25" s="5"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -64,6 +64,9 @@
     <t>collab</t>
   </si>
   <si>
+    <t>collab_bdd</t>
+  </si>
+  <si>
     <t>matiere</t>
   </si>
   <si>
@@ -253,13 +256,13 @@
     <t>ADT + Anna Saint Pierre</t>
   </si>
   <si>
-    <t>Collaboration avec Anna Saint-Pierre, chercheuse en réemploi</t>
+    <t>Collaboration avec Anna Saint-Pierre</t>
   </si>
   <si>
     <t>Béton de chamotte, réemploi</t>
   </si>
   <si>
-    <t>Béton chamotté, réemploi de coproduits d’une briqueterie francilienne.</t>
+    <t>Béton chamotté, réemploi de coproduits d’une briqueterie</t>
   </si>
   <si>
     <t>BV09-BETON-CHAMOTTE-REEMPLOI.jpg</t>
@@ -641,9 +644,6 @@
   </si>
   <si>
     <t>EXTENSION ET REHABILITATION DU SIEGE DE L’ENTREPRISE BARILLET</t>
-  </si>
-  <si>
-    <t>Réhabilitation et extension des bureaux</t>
   </si>
   <si>
     <t>Chateauneuf-sur-Loire</t>
@@ -2192,7 +2192,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2200,12 +2200,12 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="23" width="16.3516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="66.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
-    <col min="26" max="27" width="54" style="1" customWidth="1"/>
-    <col min="28" max="33" width="16.3516" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="24" width="16.3516" style="1" customWidth="1"/>
+    <col min="25" max="25" width="66.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.3516" style="1" customWidth="1"/>
+    <col min="27" max="28" width="54" style="1" customWidth="1"/>
+    <col min="29" max="34" width="16.3516" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -2308,38 +2308,41 @@
       <c r="AG1" t="s" s="3">
         <v>32</v>
       </c>
+      <c r="AH1" t="s" s="3">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6">
         <v>240</v>
       </c>
       <c r="K2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="6">
         <v>12</v>
@@ -2349,13 +2352,11 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" t="s" s="4">
-        <v>42</v>
-      </c>
+      <c r="R2" s="4"/>
       <c r="S2" t="s" s="4">
         <v>43</v>
       </c>
@@ -2368,17 +2369,17 @@
       <c r="V2" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="X2" s="6">
         <v>390</v>
       </c>
-      <c r="X2" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="6">
+      <c r="Y2" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="6">
         <v>100</v>
-      </c>
-      <c r="Z2" t="s" s="4">
-        <v>48</v>
       </c>
       <c r="AA2" t="s" s="4">
         <v>49</v>
@@ -2399,42 +2400,45 @@
         <v>54</v>
       </c>
       <c r="AG2" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH2" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="46.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6">
         <v>750</v>
       </c>
       <c r="K3" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6">
@@ -2444,15 +2448,13 @@
         <v>44743</v>
       </c>
       <c r="O3" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="5"/>
-      <c r="R3" t="s" s="4">
-        <v>65</v>
-      </c>
+      <c r="R3" s="4"/>
       <c r="S3" t="s" s="4">
         <v>66</v>
       </c>
@@ -2460,74 +2462,77 @@
         <v>67</v>
       </c>
       <c r="U3" t="s" s="4">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="V3" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="X3" s="6">
         <v>380</v>
       </c>
-      <c r="X3" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="Y3" s="6">
+      <c r="Y3" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="6">
         <v>100</v>
       </c>
-      <c r="Z3" t="s" s="4">
+      <c r="AA3" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="s" s="4">
         <v>69</v>
-      </c>
-      <c r="AA3" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="AB3" t="s" s="4">
-        <v>70</v>
       </c>
       <c r="AC3" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" t="s" s="4">
+      <c r="AD3" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="4"/>
+      <c r="AF3" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="AF3" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="AG3" t="s" s="4">
-        <v>53</v>
+      <c r="AH3" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="46.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6">
         <v>300</v>
       </c>
       <c r="K4" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4" s="6">
         <v>13</v>
@@ -2539,14 +2544,12 @@
         <v>44593</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s" s="4">
         <v>80</v>
       </c>
+      <c r="Q4" s="5"/>
       <c r="R4" t="s" s="4">
         <v>81</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>82</v>
       </c>
       <c r="T4" t="s" s="4">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="U4" t="s" s="4">
         <v>45</v>
@@ -2562,69 +2565,72 @@
       <c r="V4" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="X4" s="6">
         <v>210</v>
       </c>
-      <c r="X4" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>110</v>
-      </c>
-      <c r="Z4" t="s" s="4">
+      <c r="Y4" t="s" s="4">
         <v>84</v>
       </c>
+      <c r="Z4" s="6">
+        <v>90</v>
+      </c>
       <c r="AA4" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="s" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s" s="4">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AD4" t="s" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="4">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="AF4" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG4" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="46.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6">
         <v>200</v>
       </c>
       <c r="K5" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L5" s="6">
         <v>2</v>
@@ -2634,34 +2640,32 @@
         <v>44621</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="T5" s="4"/>
       <c r="U5" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="6">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="6">
         <v>170</v>
       </c>
-      <c r="X5" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="Y5" s="6">
+      <c r="Y5" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="6">
         <v>60</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" t="s" s="4">
-        <v>94</v>
-      </c>
+      <c r="AA5" s="4"/>
       <c r="AB5" t="s" s="4">
         <v>95</v>
       </c>
@@ -2672,44 +2676,47 @@
         <v>97</v>
       </c>
       <c r="AE5" t="s" s="4">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG5" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH5" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="35.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="6">
         <v>90</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
@@ -2719,34 +2726,32 @@
         <v>43405</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" t="s" s="4">
+      <c r="R6" s="4"/>
+      <c r="S6" t="s" s="4">
         <v>106</v>
       </c>
+      <c r="T6" s="4"/>
       <c r="U6" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="6">
+        <v>107</v>
+      </c>
+      <c r="V6" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="6">
         <v>90</v>
       </c>
-      <c r="X6" t="s" s="4">
-        <v>107</v>
-      </c>
-      <c r="Y6" s="6">
+      <c r="Y6" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="Z6" s="6">
         <v>20</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" t="s" s="4">
-        <v>107</v>
-      </c>
+      <c r="AA6" s="4"/>
       <c r="AB6" t="s" s="4">
         <v>108</v>
       </c>
@@ -2757,44 +2762,47 @@
         <v>110</v>
       </c>
       <c r="AE6" t="s" s="4">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG6" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH6" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6">
         <v>78</v>
       </c>
       <c r="K7" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" s="6">
         <v>4</v>
@@ -2804,34 +2812,32 @@
         <v>43983</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" t="s" s="4">
-        <v>117</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" t="s" s="4">
-        <v>106</v>
-      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="T7" s="4"/>
       <c r="U7" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="6">
+        <v>107</v>
+      </c>
+      <c r="V7" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="6">
         <v>185</v>
       </c>
-      <c r="X7" t="s" s="4">
-        <v>118</v>
-      </c>
-      <c r="Y7" s="6">
+      <c r="Y7" t="s" s="4">
+        <v>119</v>
+      </c>
+      <c r="Z7" s="6">
         <v>25</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" t="s" s="4">
-        <v>118</v>
-      </c>
+      <c r="AA7" s="4"/>
       <c r="AB7" t="s" s="4">
         <v>119</v>
       </c>
@@ -2842,33 +2848,36 @@
         <v>121</v>
       </c>
       <c r="AE7" t="s" s="4">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG7" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6">
@@ -2883,30 +2892,28 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" t="s" s="4">
+      <c r="R8" s="4"/>
+      <c r="S8" t="s" s="4">
         <v>127</v>
       </c>
+      <c r="T8" s="4"/>
       <c r="U8" t="s" s="4">
         <v>128</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="6">
+      <c r="V8" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="6">
         <v>290</v>
       </c>
-      <c r="X8" t="s" s="4">
-        <v>129</v>
-      </c>
-      <c r="Y8" s="6">
+      <c r="Y8" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="Z8" s="6">
         <v>50</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" t="s" s="4">
-        <v>130</v>
-      </c>
+      <c r="AA8" s="4"/>
       <c r="AB8" t="s" s="4">
         <v>131</v>
       </c>
@@ -2917,37 +2924,40 @@
         <v>133</v>
       </c>
       <c r="AE8" t="s" s="4">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="AF8" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG8" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH8" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="46.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6">
@@ -2962,36 +2972,34 @@
         <v>44105</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="R9" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="T9" s="4"/>
       <c r="U9" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="6">
+        <v>45</v>
+      </c>
+      <c r="V9" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="6">
         <v>155</v>
       </c>
-      <c r="X9" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="Y9" s="6">
+      <c r="Y9" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="Z9" s="6">
         <v>25</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" t="s" s="4">
-        <v>142</v>
-      </c>
+      <c r="AA9" s="4"/>
       <c r="AB9" t="s" s="4">
         <v>143</v>
       </c>
@@ -3002,44 +3010,47 @@
         <v>145</v>
       </c>
       <c r="AE9" t="s" s="4">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="AF9" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH9" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="46.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6">
         <v>150</v>
       </c>
       <c r="K10" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L10" s="6">
         <v>7</v>
@@ -3047,34 +3058,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
       <c r="O10" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" t="s" s="4">
-        <v>153</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="T10" s="4"/>
       <c r="U10" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="6">
+        <v>45</v>
+      </c>
+      <c r="V10" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="6">
         <v>220</v>
       </c>
-      <c r="X10" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="Y10" s="6">
+      <c r="Y10" t="s" s="4">
+        <v>155</v>
+      </c>
+      <c r="Z10" s="6">
         <v>105</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" t="s" s="4">
-        <v>154</v>
-      </c>
+      <c r="AA10" s="4"/>
       <c r="AB10" t="s" s="4">
         <v>155</v>
       </c>
@@ -3085,44 +3094,47 @@
         <v>157</v>
       </c>
       <c r="AE10" t="s" s="4">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="AF10" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG10" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH10" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="46.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6">
         <v>50</v>
       </c>
       <c r="K11" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L11" s="8">
         <v>8</v>
@@ -3132,34 +3144,32 @@
         <v>44105</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="T11" s="4"/>
       <c r="U11" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="6">
+        <v>45</v>
+      </c>
+      <c r="V11" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="6">
         <v>145</v>
       </c>
-      <c r="X11" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="Y11" s="6">
+      <c r="Y11" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="Z11" s="6">
         <v>30</v>
       </c>
-      <c r="Z11" s="9"/>
-      <c r="AA11" t="s" s="4">
-        <v>162</v>
-      </c>
+      <c r="AA11" s="9"/>
       <c r="AB11" t="s" s="4">
         <v>163</v>
       </c>
@@ -3170,46 +3180,49 @@
         <v>165</v>
       </c>
       <c r="AE11" t="s" s="4">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="AF11" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG11" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH11" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6">
         <v>200</v>
       </c>
       <c r="K12" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L12" s="6">
         <v>9</v>
@@ -3221,38 +3234,36 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" t="s" s="4">
-        <v>173</v>
-      </c>
+      <c r="R12" s="4"/>
       <c r="S12" t="s" s="4">
         <v>174</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="4">
         <v>176</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="X12" s="6">
         <v>240</v>
       </c>
-      <c r="X12" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>90</v>
-      </c>
-      <c r="Z12" t="s" s="4">
+      <c r="Y12" t="s" s="4">
         <v>178</v>
       </c>
+      <c r="Z12" s="6">
+        <v>75</v>
+      </c>
       <c r="AA12" t="s" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AB12" t="s" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC12" t="s" s="4">
         <v>180</v>
@@ -3261,48 +3272,51 @@
         <v>181</v>
       </c>
       <c r="AE12" t="s" s="4">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AF12" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG12" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH12" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="57.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J13" s="6">
         <v>650</v>
       </c>
       <c r="K13" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L13" s="6">
         <v>10</v>
@@ -3314,13 +3328,11 @@
         <v>43435</v>
       </c>
       <c r="O13" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" t="s" s="4">
-        <v>188</v>
-      </c>
+      <c r="R13" s="4"/>
       <c r="S13" t="s" s="4">
         <v>189</v>
       </c>
@@ -3328,28 +3340,28 @@
         <v>190</v>
       </c>
       <c r="U13" t="s" s="4">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="V13" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="W13" s="6">
+        <v>94</v>
+      </c>
+      <c r="W13" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="X13" s="6">
         <v>410</v>
       </c>
-      <c r="X13" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="Y13" s="6">
+      <c r="Y13" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="Z13" s="6">
         <v>125</v>
       </c>
-      <c r="Z13" t="s" s="4">
+      <c r="AA13" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="AB13" t="s" s="4">
         <v>192</v>
-      </c>
-      <c r="AA13" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="AB13" t="s" s="4">
-        <v>193</v>
       </c>
       <c r="AC13" t="s" s="4">
         <v>194</v>
@@ -3358,48 +3370,51 @@
         <v>195</v>
       </c>
       <c r="AE13" t="s" s="4">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="AF13" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG13" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH13" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="57.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J14" s="6">
         <v>660</v>
       </c>
       <c r="K14" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L14" s="6">
         <v>11</v>
@@ -3409,83 +3424,84 @@
       </c>
       <c r="N14" s="7"/>
       <c r="O14" t="s" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" t="s" s="4">
-        <v>202</v>
-      </c>
+      <c r="R14" s="4"/>
       <c r="S14" t="s" s="4">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="T14" t="s" s="4">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="W14" s="6">
+        <v>94</v>
+      </c>
+      <c r="W14" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="X14" s="6">
         <v>355</v>
       </c>
-      <c r="X14" t="s" s="4">
-        <v>204</v>
-      </c>
-      <c r="Y14" s="6">
+      <c r="Y14" t="s" s="4">
+        <v>205</v>
+      </c>
+      <c r="Z14" s="6">
         <v>110</v>
       </c>
-      <c r="Z14" t="s" s="4">
+      <c r="AA14" t="s" s="4">
+        <v>206</v>
+      </c>
+      <c r="AB14" t="s" s="4">
         <v>205</v>
       </c>
-      <c r="AA14" t="s" s="4">
-        <v>204</v>
-      </c>
-      <c r="AB14" t="s" s="4">
-        <v>70</v>
-      </c>
       <c r="AC14" t="s" s="4">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="4">
         <v>207</v>
       </c>
       <c r="AE14" t="s" s="4">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="AF14" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG14" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH14" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="57.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s" s="4">
         <v>211</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="4">
         <v>212</v>
@@ -3510,53 +3526,54 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" t="s" s="10">
+      <c r="R15" s="10"/>
+      <c r="S15" t="s" s="10">
         <v>215</v>
       </c>
-      <c r="S15" t="s" s="4">
+      <c r="T15" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="T15" t="s" s="4">
+      <c r="U15" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="U15" t="s" s="4">
-        <v>93</v>
-      </c>
       <c r="V15" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="W15" s="6">
+        <v>94</v>
+      </c>
+      <c r="W15" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="X15" s="6">
         <v>430</v>
       </c>
-      <c r="X15" t="s" s="4">
+      <c r="Y15" t="s" s="4">
         <v>218</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Z15" s="6">
         <v>140</v>
       </c>
-      <c r="Z15" t="s" s="4">
+      <c r="AA15" t="s" s="4">
         <v>219</v>
       </c>
-      <c r="AA15" t="s" s="4">
+      <c r="AB15" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="AB15" t="s" s="4">
+      <c r="AC15" t="s" s="4">
         <v>221</v>
       </c>
-      <c r="AC15" t="s" s="4">
+      <c r="AD15" t="s" s="4">
         <v>222</v>
       </c>
-      <c r="AD15" t="s" s="4">
+      <c r="AE15" t="s" s="4">
         <v>223</v>
-      </c>
-      <c r="AE15" t="s" s="4">
-        <v>53</v>
       </c>
       <c r="AF15" t="s" s="4">
         <v>54</v>
       </c>
       <c r="AG15" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AH15" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="46.65" customHeight="1">
@@ -3589,25 +3606,26 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="6">
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="6">
         <v>100</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" t="s" s="4">
-        <v>53</v>
-      </c>
+      <c r="AE16" s="4"/>
       <c r="AF16" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AH16" t="s" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="46.65" customHeight="1">
@@ -3628,10 +3646,10 @@
         <v>230</v>
       </c>
       <c r="G17" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" t="s" s="4">
@@ -3644,43 +3662,44 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" t="s" s="4">
+      <c r="R17" s="4"/>
+      <c r="S17" t="s" s="4">
         <v>232</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" t="s" s="4">
-        <v>127</v>
-      </c>
+      <c r="T17" s="4"/>
       <c r="U17" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="V17" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="6">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="6">
         <v>105</v>
       </c>
-      <c r="Z17" s="4"/>
-      <c r="AA17" t="s" s="4">
+      <c r="AA17" s="4"/>
+      <c r="AB17" t="s" s="4">
         <v>234</v>
       </c>
-      <c r="AB17" t="s" s="4">
+      <c r="AC17" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="AC17" t="s" s="4">
+      <c r="AD17" t="s" s="4">
         <v>236</v>
       </c>
-      <c r="AD17" t="s" s="4">
+      <c r="AE17" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="AE17" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF17" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH17" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="46.65" customHeight="1">
@@ -3691,7 +3710,7 @@
         <v>238</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s" s="4">
@@ -3701,10 +3720,10 @@
         <v>240</v>
       </c>
       <c r="G18" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6">
@@ -3723,43 +3742,44 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" t="s" s="4">
+      <c r="R18" s="4"/>
+      <c r="S18" t="s" s="4">
         <v>243</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" t="s" s="4">
-        <v>106</v>
-      </c>
+      <c r="T18" s="4"/>
       <c r="U18" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="V18" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="V18" t="s" s="4">
+        <v>176</v>
+      </c>
       <c r="W18" s="5"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="6">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="6">
         <v>60</v>
       </c>
-      <c r="Z18" s="4"/>
-      <c r="AA18" t="s" s="4">
+      <c r="AA18" s="4"/>
+      <c r="AB18" t="s" s="4">
         <v>244</v>
       </c>
-      <c r="AB18" t="s" s="4">
+      <c r="AC18" t="s" s="4">
         <v>245</v>
       </c>
-      <c r="AC18" t="s" s="4">
+      <c r="AD18" t="s" s="4">
         <v>246</v>
       </c>
-      <c r="AD18" t="s" s="4">
+      <c r="AE18" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="AE18" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF18" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH18" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="46.65" customHeight="1">
@@ -3774,23 +3794,23 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6">
         <v>320</v>
       </c>
       <c r="K19" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -3800,43 +3820,44 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" t="s" s="4">
+      <c r="R19" s="4"/>
+      <c r="S19" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="T19" s="4"/>
       <c r="U19" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="6">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="6">
         <v>45</v>
       </c>
-      <c r="Z19" s="4"/>
-      <c r="AA19" t="s" s="4">
+      <c r="AA19" s="4"/>
+      <c r="AB19" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="AB19" t="s" s="4">
+      <c r="AC19" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="AC19" t="s" s="4">
+      <c r="AD19" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="AD19" t="s" s="4">
+      <c r="AE19" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="AE19" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF19" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH19" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="46.65" customHeight="1">
@@ -3854,13 +3875,13 @@
         <v>257</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6">
@@ -3877,43 +3898,44 @@
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" t="s" s="4">
+      <c r="R20" s="4"/>
+      <c r="S20" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="T20" s="4"/>
       <c r="U20" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="V20" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="V20" t="s" s="4">
+        <v>176</v>
+      </c>
       <c r="W20" s="5"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="6">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="6">
         <v>40</v>
       </c>
-      <c r="Z20" s="4"/>
-      <c r="AA20" t="s" s="4">
+      <c r="AA20" s="4"/>
+      <c r="AB20" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="AB20" t="s" s="4">
+      <c r="AC20" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="AC20" t="s" s="4">
+      <c r="AD20" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="AD20" t="s" s="4">
+      <c r="AE20" t="s" s="4">
         <v>264</v>
       </c>
-      <c r="AE20" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF20" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG20" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH20" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="46.65" customHeight="1">
@@ -3937,7 +3959,7 @@
         <v>269</v>
       </c>
       <c r="H21" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="6">
@@ -3956,43 +3978,44 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" t="s" s="4">
+      <c r="R21" s="4"/>
+      <c r="S21" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" t="s" s="4">
+      <c r="T21" s="4"/>
+      <c r="U21" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="U21" t="s" s="4">
+      <c r="V21" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="6">
+      <c r="X21" s="5"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="6">
         <v>30</v>
       </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" t="s" s="4">
+      <c r="AA21" s="4"/>
+      <c r="AB21" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="AB21" t="s" s="4">
+      <c r="AC21" t="s" s="4">
         <v>275</v>
       </c>
-      <c r="AC21" t="s" s="4">
+      <c r="AD21" t="s" s="4">
         <v>276</v>
       </c>
-      <c r="AD21" t="s" s="4">
+      <c r="AE21" t="s" s="4">
         <v>277</v>
       </c>
-      <c r="AE21" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF21" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH21" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="46.65" customHeight="1">
@@ -4009,19 +4032,19 @@
         <v>280</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J22" s="6">
         <v>1010</v>
@@ -4041,51 +4064,52 @@
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" t="s" s="4">
+      <c r="R22" s="4"/>
+      <c r="S22" t="s" s="4">
         <v>283</v>
       </c>
-      <c r="S22" t="s" s="4">
-        <v>43</v>
-      </c>
       <c r="T22" t="s" s="4">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s" s="4">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="V22" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="W22" s="6">
+        <v>94</v>
+      </c>
+      <c r="W22" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="X22" s="6">
         <v>240</v>
       </c>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="6">
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="6">
         <v>100</v>
       </c>
-      <c r="Z22" t="s" s="4">
+      <c r="AA22" t="s" s="4">
         <v>284</v>
       </c>
-      <c r="AA22" t="s" s="4">
+      <c r="AB22" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="AB22" t="s" s="4">
+      <c r="AC22" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="AC22" t="s" s="4">
+      <c r="AD22" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="AD22" t="s" s="4">
+      <c r="AE22" t="s" s="4">
         <v>288</v>
       </c>
-      <c r="AE22" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF22" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH22" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="46.65" customHeight="1">
@@ -4103,13 +4127,13 @@
         <v>291</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6">
@@ -4124,49 +4148,50 @@
         <v>43435</v>
       </c>
       <c r="O23" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="R23" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" t="s" s="4">
         <v>293</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" t="s" s="4">
+      <c r="T23" s="4"/>
+      <c r="U23" t="s" s="4">
         <v>294</v>
       </c>
-      <c r="U23" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="V23" s="5"/>
+      <c r="V23" t="s" s="4">
+        <v>176</v>
+      </c>
       <c r="W23" s="5"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="6">
+      <c r="X23" s="5"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="6">
         <v>30</v>
       </c>
-      <c r="Z23" s="4"/>
-      <c r="AA23" t="s" s="4">
+      <c r="AA23" s="4"/>
+      <c r="AB23" t="s" s="4">
         <v>295</v>
       </c>
-      <c r="AB23" t="s" s="4">
+      <c r="AC23" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="AC23" t="s" s="4">
+      <c r="AD23" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="AD23" t="s" s="4">
+      <c r="AE23" t="s" s="4">
         <v>298</v>
       </c>
-      <c r="AE23" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF23" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH23" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="46.65" customHeight="1">
@@ -4190,7 +4215,7 @@
         <v>303</v>
       </c>
       <c r="H24" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6">
@@ -4209,43 +4234,44 @@
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" t="s" s="4">
+      <c r="R24" s="4"/>
+      <c r="S24" t="s" s="4">
         <v>306</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" t="s" s="4">
-        <v>44</v>
-      </c>
+      <c r="T24" s="4"/>
       <c r="U24" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="6">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="6">
         <v>20</v>
       </c>
-      <c r="Z24" s="4"/>
-      <c r="AA24" t="s" s="4">
+      <c r="AA24" s="4"/>
+      <c r="AB24" t="s" s="4">
         <v>307</v>
       </c>
-      <c r="AB24" t="s" s="4">
+      <c r="AC24" t="s" s="4">
         <v>308</v>
       </c>
-      <c r="AC24" t="s" s="4">
+      <c r="AD24" t="s" s="4">
         <v>309</v>
       </c>
-      <c r="AD24" t="s" s="4">
+      <c r="AE24" t="s" s="4">
         <v>310</v>
       </c>
-      <c r="AE24" t="s" s="4">
-        <v>54</v>
-      </c>
       <c r="AF24" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG24" t="s" s="4">
         <v>54</v>
+      </c>
+      <c r="AH24" t="s" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="46.65" customHeight="1">
@@ -4270,11 +4296,11 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="5"/>
+      <c r="V25" s="4"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="4"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -4282,6 +4308,7 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/src/data/projets/data.xlsx
+++ b/src/data/projets/data.xlsx
@@ -2768,10 +2768,10 @@
         <v>54</v>
       </c>
       <c r="AG6" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH6" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="46.65" customHeight="1">
@@ -2854,10 +2854,10 @@
         <v>54</v>
       </c>
       <c r="AG7" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH7" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="46.65" customHeight="1">
@@ -3186,10 +3186,10 @@
         <v>54</v>
       </c>
       <c r="AG11" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH11" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="57.65" customHeight="1">
